--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16AAEE-FDE6-4AFE-ADCE-EAB5326A7098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0468CD7-2961-4D84-91EE-825748F344BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CESE" sheetId="1" r:id="rId1"/>
+    <sheet name="PADI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESE!$A$1:$AE$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="39">
   <si>
     <t>Specie</t>
   </si>
@@ -148,6 +149,15 @@
   <si>
     <t>ok</t>
   </si>
+  <si>
+    <t>middle water potential 1.757 but side water potential 0.613</t>
+  </si>
+  <si>
+    <t>PADI</t>
+  </si>
+  <si>
+    <t>could not do the potential, the leaf broke while doing it</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -217,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +250,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,12 +347,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3332422979095855E-2"/>
+                  <c:y val="-0.48586097519703042"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-150"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$3:$X$28</c:f>
+              <c:f>CESE!$X$3:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0.155</c:v>
                 </c:pt>
@@ -363,62 +434,68 @@
                   <c:v>0.39700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>1.96</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.39400000000000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>0.25800000000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>0.63500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>1.4770000000000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>0.39300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.40699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2</c:v>
+                <c:pt idx="26">
+                  <c:v>1.7569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$W$28</c:f>
+              <c:f>CESE!$W$3:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>7.3619320095278127</c:v>
                 </c:pt>
@@ -450,52 +527,55 @@
                   <c:v>2.1531427937055092</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>13.884159288295567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1994102626647241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.498389608227583</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>10.037452030841736</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>3.3065983252733466</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>8.3428226636098692</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>12.796323814364923</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>0.77904348189660955</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>33.786613558198361</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>6.4782847510677168</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>60.139863517462565</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>5.0367789985377067</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>0.13757458189717575</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>1.694071098222929</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.884159288295567</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>2.3612189931130394</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>3.9071513834929439</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.1994102626647241</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.498389608227583</c:v>
+                <c:pt idx="26">
+                  <c:v>2.2213417198360363</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7391231388436081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,10 +889,430 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-150"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kleaf</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PADI!$X$3:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PADI!$W$3:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.6588820843428438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.374833526691248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6019228638124352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.46140123557058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.458878537998741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88420649912393312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.552298839107099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6430951275139472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75951343974434249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.810455045659179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2503816096316034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.942767763669117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.509885266170855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.455391836261956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9253041603633623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1D5-4973-A265-7DEF7E3FF39F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645049087"/>
+        <c:axId val="1645017407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645049087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645017407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1645017407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645049087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-150"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1362,20 +1862,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1383,6 +2399,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B17855-78F2-2E0D-D667-BEB0AC0485D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B65154C-BAED-2069-6405-9AC9357BBEBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,11 +2757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF746F-B21E-4AE2-A531-A971B17E5B05}">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z30" sqref="Z30"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1720,6 +2777,7 @@
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.21875" customWidth="1"/>
     <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -1878,15 +2936,15 @@
         <v>7.9901147959183669</v>
       </c>
       <c r="V2" s="4">
-        <f t="shared" ref="V2:V23" si="0">I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <f t="shared" ref="V2:V28" si="0">I2*0.000001/18*1000/R2/(U2/10000)</f>
         <v>3.2285263672899864</v>
       </c>
       <c r="W2" s="4">
-        <f t="shared" ref="W2:W23" si="1">V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <f t="shared" ref="W2:W22" si="1">V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
         <v>3.589207007751122</v>
       </c>
       <c r="X2" s="4">
-        <f t="shared" ref="X2:X23" si="2">MAX(Q2:R2)</f>
+        <f t="shared" ref="X2:X30" si="2">MAX(Q2:R2)</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="Z2" t="s">
@@ -1954,7 +3012,7 @@
         <v>2745160</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U23" si="3">S3/(1200^2)*2.54^2</f>
+        <f t="shared" ref="U3:U28" si="3">S3/(1200^2)*2.54^2</f>
         <v>12.299079344444445</v>
       </c>
       <c r="V3" s="4">
@@ -2531,189 +3589,170 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>10222024</v>
+        <v>1112024</v>
       </c>
       <c r="F13" s="5">
-        <v>0.48958333333333331</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="G13" s="5">
-        <v>0.46458333333333335</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
       </c>
       <c r="I13">
-        <v>35.78</v>
+        <v>23</v>
       </c>
       <c r="J13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K13" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="Q13" s="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
       <c r="R13">
-        <v>0.23</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="S13">
-        <f>758232+749922+344946+47172</f>
-        <v>1900272</v>
+        <f>597309+190172+14984</f>
+        <v>802465</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" si="3"/>
-        <v>8.5137464133333332</v>
+        <v>3.595266106944444</v>
       </c>
       <c r="V13" s="4">
         <f t="shared" si="0"/>
-        <v>10.151244420152912</v>
+        <v>13.883032009239738</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="1"/>
-        <v>10.037452030841736</v>
+        <v>13.884159288295567</v>
       </c>
       <c r="X13" s="4">
         <f t="shared" si="2"/>
-        <v>0.23</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="Z13" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>10222024</v>
+        <v>1112024</v>
       </c>
       <c r="F14" s="5">
-        <v>0.58680555555555558</v>
+        <v>0.51527777777777772</v>
       </c>
       <c r="G14" s="5">
-        <v>0.60833333333333328</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
       </c>
       <c r="I14">
-        <v>29.93</v>
+        <v>23.27</v>
+      </c>
+      <c r="J14">
+        <v>0.01</v>
       </c>
       <c r="K14">
-        <v>24</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="Q14" s="4"/>
+        <v>25</v>
+      </c>
       <c r="R14">
-        <v>0.73</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="S14">
-        <f>586040+374418+564372+8872+11168+28478</f>
-        <v>1573348</v>
+        <f>33714+510516+1144155</f>
+        <v>1688385</v>
       </c>
       <c r="U14" s="4">
         <f t="shared" si="3"/>
-        <v>7.0490360811111117</v>
+        <v>7.5644337958333328</v>
       </c>
       <c r="V14" s="4">
         <f t="shared" si="0"/>
-        <v>3.2313322723392002</v>
+        <v>4.1990693052370798</v>
       </c>
       <c r="W14" s="4">
         <f t="shared" si="1"/>
-        <v>3.3065983252733466</v>
+        <v>4.1994102626647241</v>
       </c>
       <c r="X14" s="4">
         <f t="shared" si="2"/>
-        <v>0.73</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="Z14" t="s">
         <v>35</v>
       </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>10222024</v>
+        <v>1112024</v>
       </c>
       <c r="F15" s="5">
-        <v>0.64722222222222225</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="G15" s="5">
-        <v>0.67222222222222228</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
       </c>
       <c r="I15">
-        <v>30.13</v>
+        <v>29.17</v>
       </c>
       <c r="J15">
-        <v>1.4E-2</v>
-      </c>
-      <c r="K15" s="2">
-        <f>AVERAGE(K13:K14)</f>
-        <v>24.75</v>
+        <v>0.03</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
       </c>
       <c r="R15">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="S15">
-        <f>772708+721638+353300+141686+58053</f>
-        <v>2047385</v>
+        <f>1058307+519189+32007</f>
+        <v>1609503</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" si="3"/>
-        <v>9.1728535180555557</v>
+        <v>7.2110205241666669</v>
       </c>
       <c r="V15" s="4">
         <f t="shared" si="0"/>
-        <v>8.2946771619206139</v>
+        <v>11.236658875983668</v>
       </c>
       <c r="W15" s="4">
         <f t="shared" si="1"/>
-        <v>8.3428226636098692</v>
+        <v>11.498389608227583</v>
       </c>
       <c r="X15" s="4">
         <f t="shared" si="2"/>
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Z15" t="s">
         <v>35</v>
@@ -2727,779 +3766,902 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>10232024</v>
+        <v>10222024</v>
       </c>
       <c r="F16" s="5">
-        <v>0.3888888888888889</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="G16" s="5">
-        <v>0.40694444444444444</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
       </c>
       <c r="I16">
+        <v>35.78</v>
+      </c>
+      <c r="J16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="Q16" s="4"/>
+      <c r="R16">
+        <v>0.23</v>
+      </c>
+      <c r="S16">
+        <f>758232+749922+344946+47172</f>
+        <v>1900272</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5137464133333332</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="0"/>
+        <v>10.151244420152912</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="1"/>
+        <v>10.037452030841736</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>10222024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>29.93</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="Q17" s="4"/>
+      <c r="R17">
+        <v>0.73</v>
+      </c>
+      <c r="S17">
+        <f>586040+374418+564372+8872+11168+28478</f>
+        <v>1573348</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0490360811111117</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2313322723392002</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3065983252733466</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>10222024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.67222222222222228</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>30.13</v>
+      </c>
+      <c r="J18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <f>AVERAGE(K16:K17)</f>
+        <v>24.75</v>
+      </c>
+      <c r="R18">
+        <v>0.22</v>
+      </c>
+      <c r="S18">
+        <f>772708+721638+353300+141686+58053</f>
+        <v>2047385</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="3"/>
+        <v>9.1728535180555557</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2946771619206139</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3428226636098692</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>10232024</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
         <v>31.36</v>
       </c>
-      <c r="J16">
+      <c r="J19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K16">
+      <c r="K19">
         <v>25</v>
       </c>
-      <c r="R16">
+      <c r="R19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S16">
+      <c r="S19">
         <f>640266+195606+138232+111298</f>
         <v>1085402</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="3"/>
         <v>4.8629024605555555</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V19" s="4">
         <f t="shared" si="0"/>
         <v>12.795284858564431</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W19" s="4">
         <f t="shared" si="1"/>
         <v>12.796323814364923</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X19" s="4">
         <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>10232024</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F20" s="5">
         <v>0.41388888888888886</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G20" s="5">
         <v>0.44583333333333336</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H20" t="s">
         <v>28</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>21.26</v>
       </c>
-      <c r="J17">
+      <c r="J20">
         <v>0.03</v>
       </c>
-      <c r="K17">
+      <c r="K20">
         <v>25</v>
       </c>
-      <c r="R17">
+      <c r="R20">
         <v>1.96</v>
       </c>
-      <c r="S17">
+      <c r="S20">
         <f>1010963+603075+70608+42000</f>
         <v>1726646</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U20" s="4">
         <f t="shared" si="3"/>
         <v>7.7358537038888882</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V20" s="4">
         <f t="shared" si="0"/>
         <v>0.77898023000051075</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W20" s="4">
         <f t="shared" si="1"/>
         <v>0.77904348189660955</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X20" s="4">
         <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>10232024</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F21" s="5">
         <v>0.45416666666666666</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G21" s="5">
         <v>0.50138888888888888</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H21" t="s">
         <v>28</v>
       </c>
-      <c r="I18">
+      <c r="I21">
         <v>32.92</v>
       </c>
-      <c r="J18">
+      <c r="J21">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K18">
+      <c r="K21">
         <v>25</v>
       </c>
-      <c r="R18">
+      <c r="R21">
         <v>0.06</v>
       </c>
-      <c r="S18">
+      <c r="S21">
         <f>959907+712944+315399+25575</f>
         <v>2013825</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="3"/>
         <v>9.0224953958333334</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V21" s="4">
         <f t="shared" si="0"/>
         <v>33.783870364243242</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W21" s="4">
         <f t="shared" si="1"/>
         <v>33.786613558198361</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X21" s="4">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <v>10292024</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F22" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G22" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H22" t="s">
         <v>28</v>
       </c>
-      <c r="I19">
+      <c r="I22">
         <v>14.53</v>
       </c>
-      <c r="J19">
+      <c r="J22">
         <v>0.02</v>
       </c>
-      <c r="K19">
+      <c r="K22">
         <v>25</v>
       </c>
-      <c r="R19">
+      <c r="R22">
         <v>0.39400000000000002</v>
       </c>
-      <c r="S19">
+      <c r="S22">
         <f>406101+245400+54438</f>
         <v>705939</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U22" s="4">
         <f t="shared" si="3"/>
         <v>3.1628028141666666</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V22" s="4">
         <f t="shared" si="0"/>
         <v>6.4777587678543345</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W22" s="4">
         <f t="shared" si="1"/>
         <v>6.4782847510677168</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X22" s="4">
         <f t="shared" si="2"/>
         <v>0.39400000000000002</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>10292024</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F23" s="5">
         <v>0.63472222222222219</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G23" s="5">
         <v>0.6645833333333333</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H23" t="s">
         <v>28</v>
       </c>
-      <c r="I20">
+      <c r="I23">
         <v>29.16</v>
       </c>
-      <c r="J20">
+      <c r="J23">
         <v>0.03</v>
       </c>
-      <c r="K20">
+      <c r="K23">
         <v>25</v>
       </c>
-      <c r="R20">
+      <c r="R23">
         <v>0.05</v>
       </c>
-      <c r="S20">
+      <c r="S23">
         <f>679974+285186+174309+63108</f>
         <v>1202577</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="3"/>
         <v>5.3878790091666673</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V23" s="4">
         <f t="shared" si="0"/>
         <v>60.134980657279534</v>
       </c>
-      <c r="W20" s="4">
-        <f t="shared" si="1"/>
-        <v>60.139863517462565</v>
-      </c>
-      <c r="X20" s="4">
+      <c r="W23" s="4"/>
+      <c r="X23" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>10292024</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F24" s="5">
         <v>0.68055555555555558</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G24" s="5">
         <v>0.70416666666666672</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H24" t="s">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I24">
         <v>9.5</v>
       </c>
-      <c r="J21">
+      <c r="J24">
         <v>0.05</v>
       </c>
-      <c r="K21">
+      <c r="K24">
         <v>24</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R24" s="8">
         <v>0.25800000000000001</v>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>664089+263538</f>
         <v>927627</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="3"/>
         <v>4.1560266341666665</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V24" s="4">
         <f t="shared" si="0"/>
         <v>4.9221299128522844</v>
       </c>
-      <c r="W21" s="4">
-        <f t="shared" si="1"/>
+      <c r="W24" s="4">
+        <f>V24/(0.88862*(1/POWER(10,(1.3272*(20-K24)-0.001053*(K24-20)^2)/(K24+105))))</f>
         <v>5.0367789985377067</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X24" s="4">
         <f t="shared" si="2"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>31102024</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F25" s="5">
         <v>0.41944444444444445</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G25" s="5">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H25" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I25" s="9">
         <v>1</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J25" s="9">
         <v>1.34</v>
       </c>
-      <c r="K22">
+      <c r="K25">
         <v>22</v>
       </c>
-      <c r="R22">
+      <c r="R25">
         <v>0.63500000000000001</v>
       </c>
-      <c r="S22">
+      <c r="S25">
         <f>841923+510489+93468+76281</f>
         <v>1522161</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="3"/>
         <v>6.8197041025000003</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V25" s="4">
         <f t="shared" si="0"/>
         <v>0.12828865087408184</v>
       </c>
-      <c r="W22" s="4">
-        <f t="shared" si="1"/>
+      <c r="W25" s="4">
+        <f>V25/(0.88862*(1/POWER(10,(1.3272*(20-K25)-0.001053*(K25-20)^2)/(K25+105))))</f>
         <v>0.13757458189717575</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X25" s="4">
         <f t="shared" si="2"/>
         <v>0.63500000000000001</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>31102024</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F26" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G26" s="5">
         <v>0.46388888888888891</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H26" t="s">
         <v>28</v>
       </c>
-      <c r="I23">
+      <c r="I26">
         <v>7.23</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J26" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K23">
+      <c r="K26">
         <v>22</v>
       </c>
-      <c r="R23">
+      <c r="R26">
         <v>0.89</v>
       </c>
-      <c r="S23">
+      <c r="S26">
         <f>336668+191234+97488+12270</f>
         <v>637660</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="3"/>
         <v>2.8568939277777776</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V26" s="4">
         <f t="shared" si="0"/>
         <v>1.5797256490172571</v>
       </c>
-      <c r="W23" s="4">
-        <f t="shared" si="1"/>
+      <c r="W26" s="4">
+        <f>V26/(0.88862*(1/POWER(10,(1.3272*(20-K26)-0.001053*(K26-20)^2)/(K26+105))))</f>
         <v>1.694071098222929</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X26" s="4">
         <f t="shared" si="2"/>
         <v>0.89</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="E24">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="E27">
         <v>1112024</v>
       </c>
-      <c r="F24" s="5">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.49444444444444446</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F27" s="5">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H27" t="s">
         <v>28</v>
       </c>
-      <c r="I24">
-        <v>23</v>
-      </c>
-      <c r="J24">
-        <v>0.05</v>
-      </c>
-      <c r="K24">
+      <c r="I27">
+        <v>32.57</v>
+      </c>
+      <c r="J27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K27">
         <v>25</v>
       </c>
-      <c r="R24">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="S24">
-        <f>597309+190172+14984</f>
-        <v>802465</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" ref="U24:U27" si="4">S24/(1200^2)*2.54^2</f>
-        <v>3.595266106944444</v>
-      </c>
-      <c r="V24" s="4">
-        <f t="shared" ref="V24:V27" si="5">I24*0.000001/18*1000/R24/(U24/10000)</f>
-        <v>13.883032009239738</v>
-      </c>
-      <c r="W24" s="4">
-        <f t="shared" ref="W24:W27" si="6">V24/(0.88862*(1/POWER(10,(1.3272*(20-K24)-0.001053*(K24-20)^2)/(K24+105))))</f>
-        <v>13.884159288295567</v>
-      </c>
-      <c r="X24" s="4">
-        <f t="shared" ref="X24:X27" si="7">MAX(Q24:R24)</f>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>1112024</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.4597222222222222</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="H25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25">
-        <v>32.57</v>
-      </c>
-      <c r="J25">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K25">
-        <v>25</v>
-      </c>
-      <c r="R25">
+      <c r="R27">
         <v>1.4770000000000001</v>
       </c>
-      <c r="S25">
+      <c r="S27">
         <f>693572+299597+149838+15127</f>
         <v>1158134</v>
       </c>
-      <c r="U25" s="4">
-        <f t="shared" si="4"/>
+      <c r="U27" s="4">
+        <f t="shared" si="3"/>
         <v>5.1887620238888887</v>
       </c>
-      <c r="V25" s="4">
-        <f t="shared" si="5"/>
+      <c r="V27" s="4">
+        <f t="shared" si="0"/>
         <v>2.3610272816336555</v>
       </c>
-      <c r="W25" s="4">
-        <f t="shared" si="6"/>
+      <c r="W27" s="4">
+        <f>V27/(0.88862*(1/POWER(10,(1.3272*(20-K27)-0.001053*(K27-20)^2)/(K27+105))))</f>
         <v>2.3612189931130394</v>
       </c>
-      <c r="X25" s="4">
-        <f t="shared" si="7"/>
+      <c r="X27" s="4">
+        <f t="shared" si="2"/>
         <v>1.4770000000000001</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>1112024</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F28" s="5">
         <v>0.44930555555555557</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G28" s="5">
         <v>0.47361111111111109</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H28" t="s">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I28">
         <v>27.9</v>
       </c>
-      <c r="J26">
+      <c r="J28">
         <v>0.02</v>
       </c>
-      <c r="K26">
+      <c r="K28">
         <v>24</v>
       </c>
-      <c r="R26">
+      <c r="R28">
         <v>0.39300000000000002</v>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>1201677+733659+346472+23738</f>
         <v>2305546</v>
       </c>
-      <c r="U26" s="4">
-        <f t="shared" si="4"/>
+      <c r="U28" s="4">
+        <f t="shared" si="3"/>
         <v>10.329486509444443</v>
       </c>
-      <c r="V26" s="4">
-        <f t="shared" si="5"/>
+      <c r="V28" s="4">
+        <f t="shared" si="0"/>
         <v>3.8182153126663207</v>
       </c>
-      <c r="W26" s="4">
-        <f t="shared" si="6"/>
+      <c r="W28" s="4">
+        <f>V28/(0.88862*(1/POWER(10,(1.3272*(20-K28)-0.001053*(K28-20)^2)/(K28+105))))</f>
         <v>3.9071513834929439</v>
       </c>
-      <c r="X26" s="4">
-        <f t="shared" si="7"/>
+      <c r="X28" s="4">
+        <f t="shared" si="2"/>
         <v>0.39300000000000002</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>1112024</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.51527777777777772</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="H27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27">
-        <v>23.27</v>
-      </c>
-      <c r="J27">
-        <v>0.01</v>
-      </c>
-      <c r="K27">
-        <v>25</v>
-      </c>
-      <c r="R27">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="S27">
-        <f>33714+510516+1144155</f>
-        <v>1688385</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="4"/>
-        <v>7.5644337958333328</v>
-      </c>
-      <c r="V27" s="4">
-        <f t="shared" si="5"/>
-        <v>4.1990693052370798</v>
-      </c>
-      <c r="W27" s="4">
-        <f t="shared" si="6"/>
-        <v>4.1994102626647241</v>
-      </c>
-      <c r="X27" s="4">
-        <f t="shared" si="7"/>
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>1112024</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28">
-        <v>29.17</v>
-      </c>
-      <c r="J28">
-        <v>0.03</v>
-      </c>
-      <c r="K28">
-        <v>24</v>
-      </c>
-      <c r="R28">
-        <v>0.2</v>
-      </c>
-      <c r="S28">
-        <f>1058307+519189+32007</f>
-        <v>1609503</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" ref="U28" si="8">S28/(1200^2)*2.54^2</f>
-        <v>7.2110205241666669</v>
-      </c>
-      <c r="V28" s="4">
-        <f t="shared" ref="V28" si="9">I28*0.000001/18*1000/R28/(U28/10000)</f>
-        <v>11.236658875983668</v>
-      </c>
-      <c r="W28" s="4">
-        <f t="shared" ref="W28" si="10">V28/(0.88862*(1/POWER(10,(1.3272*(20-K28)-0.001053*(K28-20)^2)/(K28+105))))</f>
-        <v>11.498389608227583</v>
-      </c>
-      <c r="X28" s="4">
-        <f t="shared" ref="X28" si="11">MAX(Q28:R28)</f>
-        <v>0.2</v>
       </c>
       <c r="Z28" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>11052024</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I29">
+        <v>41.2</v>
+      </c>
+      <c r="J29">
+        <v>0.05</v>
+      </c>
+      <c r="K29">
+        <v>26</v>
+      </c>
+      <c r="R29" s="10">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="S29">
+        <f>970585+271027+38180</f>
+        <v>1279792</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" ref="U29:U30" si="4">S29/(1200^2)*2.54^2</f>
+        <v>5.7338236577777781</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" ref="V29:V30" si="5">I29*0.000001/18*1000/R29/(U29/10000)</f>
+        <v>2.2720015181271536</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" ref="W29:W30" si="6">V29/(0.88862*(1/POWER(10,(1.3272*(20-K29)-0.001053*(K29-20)^2)/(K29+105))))</f>
+        <v>2.2213417198360363</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>11052024</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I30">
+        <v>11.76</v>
+      </c>
+      <c r="J30">
+        <v>0.03</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="R30">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S30">
+        <f>728773+107895+147482</f>
+        <v>984150</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="4"/>
+        <v>4.4092653750000004</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7787854864376267</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="6"/>
+        <v>1.7391231388436081</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83299999999999996</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE23" xr:uid="{E3FF746F-B21E-4AE2-A531-A971B17E5B05}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE23">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE28">
       <sortCondition ref="B1:B23"/>
     </sortState>
   </autoFilter>
@@ -3507,4 +4669,1496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33064BB3-47FF-4DAF-9632-D6C75923AEEE}">
+  <dimension ref="A1:AE26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12">
+        <f>AVERAGE(K6,K7)</f>
+        <v>26</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>7.197195434330494</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>11052024</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>76.03</v>
+      </c>
+      <c r="J3">
+        <v>0.04</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="R3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="S3">
+        <f>3742239+1736196+274185</f>
+        <v>5752620</v>
+      </c>
+      <c r="U3" s="4">
+        <f>S3/(1200^2)*2.54^2</f>
+        <v>25.773335549999999</v>
+      </c>
+      <c r="V3" s="4">
+        <f>I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>1.7736580166117932</v>
+      </c>
+      <c r="W3" s="4">
+        <f>V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>1.6588820843428438</v>
+      </c>
+      <c r="X3" s="4">
+        <f>MAX(Q3:R3)</f>
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>11052024</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="I4">
+        <v>151.93</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="R4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="S4">
+        <f>2819618+740109+62919</f>
+        <v>3622646</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" ref="U4:U17" si="0">S4/(1200^2)*2.54^2</f>
+        <v>16.230460370555555</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V17" si="1">I4*0.000001/18*1000/R4/(U4/10000)</f>
+        <v>75.368713712779083</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:W17" si="2">V4/(0.88862*(1/POWER(10,(1.3272*(20-K4)-0.001053*(K4-20)^2)/(K4+105))))</f>
+        <v>75.374833526691248</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X17" si="3">MAX(Q4:R4)</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>11052024</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="I5">
+        <v>57.03</v>
+      </c>
+      <c r="J5">
+        <v>0.03</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+      <c r="R5">
+        <v>1.075</v>
+      </c>
+      <c r="S5">
+        <f>4925019+4340568+566136+170205</f>
+        <v>10001928</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>44.811415753333328</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.65770892799480229</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6019228638124352</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="3"/>
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>11052024</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="I6">
+        <v>123.23</v>
+      </c>
+      <c r="J6">
+        <v>0.04</v>
+      </c>
+      <c r="K6">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S6">
+        <f>2960525+1858284+185796</f>
+        <v>5004605</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>22.422020568055558</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="1"/>
+        <v>31.156102293259579</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="2"/>
+        <v>30.46140123557058</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>11052024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="I7">
+        <v>164.5667</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="R7">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="S7">
+        <f>4835739+3175523+449619</f>
+        <v>8460881</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="0"/>
+        <v>37.90709712472222</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5149555880289221</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="2"/>
+        <v>2.458878537998741</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>11052024</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="I8">
+        <v>53.63</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="K8">
+        <v>27</v>
+      </c>
+      <c r="R8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S8">
+        <f>4653196+1606899+337131</f>
+        <v>6597226</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="0"/>
+        <v>29.557405042777781</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92478864980754472</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.88420649912393312</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>11052024</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="I9">
+        <v>224.1</v>
+      </c>
+      <c r="J9">
+        <v>0.03</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="R9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="S9">
+        <f>4626500+3749898+51222+51093+359223+219051</f>
+        <v>9056987</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="0"/>
+        <v>40.577817589722223</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>11.036614416940372</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="2"/>
+        <v>10.552298839107099</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>11052024</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="I10">
+        <v>164.23</v>
+      </c>
+      <c r="J10">
+        <v>0.03</v>
+      </c>
+      <c r="K10">
+        <v>23</v>
+      </c>
+      <c r="R10">
+        <v>0.76</v>
+      </c>
+      <c r="S10">
+        <f>3827186+2992989+427437+255441+200562</f>
+        <v>7703615</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="0"/>
+        <v>34.514335093055557</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4782987783762378</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6430951275139472</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11052024</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="I11">
+        <v>50.36</v>
+      </c>
+      <c r="J11">
+        <v>0.02</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S11">
+        <f>5553959+2731359+102816+113724+387417</f>
+        <v>8889275</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="0"/>
+        <v>39.826421243055556</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75945177352635507</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.75951343974434249</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>11052024</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="I12">
+        <v>173.56</v>
+      </c>
+      <c r="J12">
+        <v>0.01</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="R12">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="S12">
+        <f>3911688+2586837+234777</f>
+        <v>6733302</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="0"/>
+        <v>30.167063321666664</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="1"/>
+        <v>15.148221476871813</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="2"/>
+        <v>14.810455045659179</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11052024</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I13">
+        <v>156.56</v>
+      </c>
+      <c r="J13">
+        <v>0.04</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="S13">
+        <f>4606628+4315754+488439+348738</f>
+        <v>9759559</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="0"/>
+        <v>43.725535308611114</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2501988972322793</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2503816096316034</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>11052024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.60902777777777772</v>
+      </c>
+      <c r="I14">
+        <v>132</v>
+      </c>
+      <c r="J14">
+        <v>0.02</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="S14">
+        <f>5509488+5131139+994746+337377</f>
+        <v>11972750</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="0"/>
+        <v>53.64124576388889</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9870744194866772</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.942767763669117</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>11052024</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="I15">
+        <v>96.5</v>
+      </c>
+      <c r="J15">
+        <v>0.04</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="R15">
+        <v>6.3E-2</v>
+      </c>
+      <c r="S15">
+        <f>3283770+1405266</f>
+        <v>4689036</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="0"/>
+        <v>21.00818379</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>40.506596198084964</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="2"/>
+        <v>40.509885266170855</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="3"/>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>11052024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="I16">
+        <v>58.93</v>
+      </c>
+      <c r="J16">
+        <v>0.04</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="R16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="S16">
+        <f>3146154+556854</f>
+        <v>3703008</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="0"/>
+        <v>16.590504453333335</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="1"/>
+        <v>29.453000301736257</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="2"/>
+        <v>29.455391836261956</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="3"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>11052024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="I17">
+        <v>79.3</v>
+      </c>
+      <c r="J17">
+        <v>0.01</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="S17">
+        <f>4107921+4268460+352713+688113</f>
+        <v>9417207</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="0"/>
+        <v>42.191703250833335</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="1"/>
+        <v>8.9245794993854837</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="2"/>
+        <v>8.9253041603633623</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>11062024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="I18">
+        <v>81.93</v>
+      </c>
+      <c r="J18">
+        <v>0.03</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" ref="U18:U26" si="4">S18/(1200^2)*2.54^2</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="4" t="e">
+        <f t="shared" ref="V18:V26" si="5">I18*0.000001/18*1000/R18/(U18/10000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" s="4" t="e">
+        <f t="shared" ref="W18:W26" si="6">V18/(0.88862*(1/POWER(10,(1.3272*(20-K18)-0.001053*(K18-20)^2)/(K18+105))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" ref="X18:X26" si="7">MAX(Q18:R18)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>11062024</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="I19">
+        <v>93.93</v>
+      </c>
+      <c r="J19">
+        <v>0.05</v>
+      </c>
+      <c r="K19">
+        <v>27</v>
+      </c>
+      <c r="R19">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="S19">
+        <f>4488064+3975008+820142+388906+446306</f>
+        <v>10118426</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="4"/>
+        <v>45.333359153888885</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0818630503213351</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0343880631052735</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0640000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>11062024</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="I20">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>0.04</v>
+      </c>
+      <c r="K20">
+        <v>26</v>
+      </c>
+      <c r="R20">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="S20">
+        <f>3148502+973545+623022</f>
+        <v>4745069</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="4"/>
+        <v>21.259227194722225</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5101489560251102</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="6"/>
+        <v>2.4541790815429341</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="7"/>
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>11062024</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="I21">
+        <v>50.66</v>
+      </c>
+      <c r="J21">
+        <v>0.04</v>
+      </c>
+      <c r="K21">
+        <v>27</v>
+      </c>
+      <c r="R21">
+        <v>1.012</v>
+      </c>
+      <c r="S21">
+        <f>4433450+4827611+725994+513558</f>
+        <v>10500613</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="4"/>
+        <v>47.045663076944443</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="5"/>
+        <v>0.5911430307339689</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="6"/>
+        <v>0.56520212461038577</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="7"/>
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>11062024</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="I22">
+        <v>44.1</v>
+      </c>
+      <c r="J22">
+        <v>0.04</v>
+      </c>
+      <c r="K22">
+        <v>27</v>
+      </c>
+      <c r="R22">
+        <v>1.129</v>
+      </c>
+      <c r="S22">
+        <f>4187364+1348485+875083</f>
+        <v>6410932</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="4"/>
+        <v>28.722756174444445</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="5"/>
+        <v>0.75552011394444563</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="6"/>
+        <v>0.72236591042456721</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="7"/>
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>11062024</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="I23">
+        <v>180.83</v>
+      </c>
+      <c r="J23">
+        <v>0.04</v>
+      </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
+      <c r="R23">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="S23">
+        <f>4228048+3603816+468196+357866</f>
+        <v>8657926</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="4"/>
+        <v>38.789913459444442</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="5"/>
+        <v>2.9975430153497418</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="6"/>
+        <v>2.8660029684916339</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="7"/>
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>11062024</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="I24">
+        <v>96.1</v>
+      </c>
+      <c r="J24">
+        <v>0.04</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+      <c r="R24">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="S24">
+        <f>3786410+4326989+1369523+275086</f>
+        <v>9758008</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>43.718586397777777</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="5"/>
+        <v>1.306090169622862</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2769677134910338</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="7"/>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>11062024</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I25">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.04</v>
+      </c>
+      <c r="K25">
+        <v>27</v>
+      </c>
+      <c r="R25">
+        <v>1.127</v>
+      </c>
+      <c r="S25">
+        <f>4994664+3526503+116244+2064552</f>
+        <v>10701963</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="4"/>
+        <v>47.947767007500005</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="5"/>
+        <v>0.81487174741789281</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="6"/>
+        <v>0.77911303860543846</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="7"/>
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>11062024</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="I26">
+        <v>185.96</v>
+      </c>
+      <c r="J26">
+        <v>0.04</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="R26">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S26">
+        <f>3250811+599022+1320192</f>
+        <v>5170025</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="4"/>
+        <v>23.163148118055556</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="5"/>
+        <v>34.046945257322065</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="6"/>
+        <v>33.287785826572019</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="7"/>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0468CD7-2961-4D84-91EE-825748F344BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0859F97D-3F3F-44B1-8B38-B85A1BE3536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CESE" sheetId="1" r:id="rId1"/>
     <sheet name="PADI" sheetId="2" r:id="rId2"/>
+    <sheet name="AVSA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESE!$A$1:$AE$23</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="40">
   <si>
     <t>Specie</t>
   </si>
@@ -158,6 +159,9 @@
   <si>
     <t>could not do the potential, the leaf broke while doing it</t>
   </si>
+  <si>
+    <t>AVSA</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +259,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2760,8 +2765,8 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4675,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33064BB3-47FF-4DAF-9632-D6C75923AEEE}">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6161,4 +6166,1118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FD146E-6B5C-415F-9192-209A980B6A9A}">
+  <dimension ref="A1:AE18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13" t="e">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>11072024</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>44.13</v>
+      </c>
+      <c r="J3">
+        <v>0.06</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>1.468</v>
+      </c>
+      <c r="S3">
+        <f>5281756+1344062+349298</f>
+        <v>6975116</v>
+      </c>
+      <c r="U3" s="15">
+        <f t="shared" ref="U3:U8" si="0">S3/(1200^2)*2.54^2</f>
+        <v>31.250457212222223</v>
+      </c>
+      <c r="V3" s="15">
+        <f t="shared" ref="V3:V8" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>0.53441543266890212</v>
+      </c>
+      <c r="W3" s="15">
+        <f t="shared" ref="W3:W8" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>0.52249934114930507</v>
+      </c>
+      <c r="X3" s="15">
+        <f t="shared" ref="X3:X10" si="3">MAX(Q3:R3)</f>
+        <v>1.468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>11072024</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>171.56</v>
+      </c>
+      <c r="J4">
+        <v>0.03</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+      <c r="R4">
+        <v>0.185</v>
+      </c>
+      <c r="S4">
+        <f>5045502+685140</f>
+        <v>5730642</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" si="0"/>
+        <v>25.674868005</v>
+      </c>
+      <c r="V4" s="15">
+        <f t="shared" si="1"/>
+        <v>20.066128289145034</v>
+      </c>
+      <c r="W4" s="15">
+        <f t="shared" si="2"/>
+        <v>19.618705167504814</v>
+      </c>
+      <c r="X4" s="15">
+        <f t="shared" si="3"/>
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>11072024</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>117.17</v>
+      </c>
+      <c r="J5">
+        <v>0.03</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="R5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="S5">
+        <f>8063160+963144+1127600</f>
+        <v>10153904</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="0"/>
+        <v>45.492310448888887</v>
+      </c>
+      <c r="V5" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9142341191190404</v>
+      </c>
+      <c r="W5" s="15">
+        <f t="shared" si="2"/>
+        <v>2.8492541833796667</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" si="3"/>
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>11072024</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>110.97</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>0.246</v>
+      </c>
+      <c r="S6">
+        <f>6778726+1491326+1245354</f>
+        <v>9515406</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="0"/>
+        <v>42.631662048333332</v>
+      </c>
+      <c r="V6" s="15">
+        <f t="shared" si="1"/>
+        <v>5.8784889928390314</v>
+      </c>
+      <c r="W6" s="15">
+        <f t="shared" si="2"/>
+        <v>5.8789663163456787</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" si="3"/>
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>11072024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>23.6</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="R7">
+        <v>1.32</v>
+      </c>
+      <c r="S7">
+        <f>3760147+962550</f>
+        <v>4722697</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="0"/>
+        <v>21.158994420277779</v>
+      </c>
+      <c r="V7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.46942967777055328</v>
+      </c>
+      <c r="W7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.45896260167135966</v>
+      </c>
+      <c r="X7" s="15">
+        <f t="shared" si="3"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>11072024</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>44.57</v>
+      </c>
+      <c r="J8">
+        <v>0.04</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <v>0.86</v>
+      </c>
+      <c r="S8">
+        <f>3183813+662040+666150</f>
+        <v>4512003</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="0"/>
+        <v>20.215026774166667</v>
+      </c>
+      <c r="V8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4242864966608282</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" si="2"/>
+        <v>1.42440214635004</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>11082024</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>58.06</v>
+      </c>
+      <c r="J9">
+        <v>0.06</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="R9">
+        <v>1.617</v>
+      </c>
+      <c r="S9">
+        <f>6463264+2334373+298439</f>
+        <v>9096076</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" ref="U9:U13" si="4">S9/(1200^2)*2.54^2</f>
+        <v>40.752947167777776</v>
+      </c>
+      <c r="V9" s="15">
+        <f t="shared" ref="V9:V13" si="5">I9*0.000001/18*1000/R9/(U9/10000)</f>
+        <v>0.48948060145221556</v>
+      </c>
+      <c r="W9" s="15">
+        <f t="shared" ref="W9:W13" si="6">V9/(0.88862*(1/POWER(10,(1.3272*(20-K9)-0.001053*(K9-20)^2)/(K9+105))))</f>
+        <v>0.47856644125507602</v>
+      </c>
+      <c r="X9" s="15">
+        <f t="shared" ref="X9:X16" si="7">MAX(Q9:R9)</f>
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>11082024</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>51.6</v>
+      </c>
+      <c r="J10">
+        <v>0.03</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="R10">
+        <v>0.91</v>
+      </c>
+      <c r="S10">
+        <f>5584263+814566+317757</f>
+        <v>6716586</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="4"/>
+        <v>30.09217099833333</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0468447591759413</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="6"/>
+        <v>1.046929761225273</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="7"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11082024</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>71.3</v>
+      </c>
+      <c r="J11">
+        <v>0.03</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <v>0.51</v>
+      </c>
+      <c r="S11">
+        <f>5946627+808257+468075+163144</f>
+        <v>7386103</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="4"/>
+        <v>33.091793135277776</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="5"/>
+        <v>2.3470727318521951</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="6"/>
+        <v>2.3472633102453995</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="7"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>11082024</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>138.83000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.04</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>1.268</v>
+      </c>
+      <c r="S12">
+        <f>6214254+1622337+192996</f>
+        <v>8029587</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" ref="U12:U17" si="8">S12/(1200^2)*2.54^2</f>
+        <v>35.974780200833337</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" ref="V12:V17" si="9">I12*0.000001/18*1000/R12/(U12/10000)</f>
+        <v>1.6908045811266819</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" ref="W12:W17" si="10">V12/(0.88862*(1/POWER(10,(1.3272*(20-K12)-0.001053*(K12-20)^2)/(K12+105))))</f>
+        <v>1.6909418716400608</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="7"/>
+        <v>1.268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11082024</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>191.83</v>
+      </c>
+      <c r="J13">
+        <v>0.02</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>1.026</v>
+      </c>
+      <c r="S13">
+        <f>5773559+603204+274922</f>
+        <v>6651685</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="8"/>
+        <v>29.801396490277778</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4854595372396737</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" si="10"/>
+        <v>3.4857425507437596</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" si="7"/>
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>11082024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>121.13</v>
+      </c>
+      <c r="J14">
+        <v>0.04</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="S14">
+        <f>5654817+473235+62206</f>
+        <v>6190258</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="8"/>
+        <v>27.734075356111113</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6161213881814085</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="10"/>
+        <v>3.5354911691169102</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="7"/>
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>11082024</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>59.97</v>
+      </c>
+      <c r="J15">
+        <v>0.05</v>
+      </c>
+      <c r="K15">
+        <v>26</v>
+      </c>
+      <c r="R15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S15">
+        <f>4607082+209598</f>
+        <v>4816680</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="8"/>
+        <v>21.580064366666669</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="9"/>
+        <v>1.3908677242583791</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" si="10"/>
+        <v>1.3598549464066121</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="7"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>11082024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>101.23</v>
+      </c>
+      <c r="J16">
+        <v>0.05</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="R16">
+        <v>0.128</v>
+      </c>
+      <c r="S16">
+        <f>4592508+1761562</f>
+        <v>6354070</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="8"/>
+        <v>28.467998619444444</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="9"/>
+        <v>15.433691890948205</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" si="10"/>
+        <v>15.434945081001445</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="7"/>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>11082024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>67</v>
+      </c>
+      <c r="J17">
+        <v>0.04</v>
+      </c>
+      <c r="K17">
+        <v>27</v>
+      </c>
+      <c r="R17">
+        <v>1.57</v>
+      </c>
+      <c r="S17">
+        <f>4791126+404936</f>
+        <v>5196062</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" ref="U17:U18" si="11">S17/(1200^2)*2.54^2</f>
+        <v>23.279801110555557</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" ref="V17:V18" si="12">I17*0.000001/18*1000/R17/(U17/10000)</f>
+        <v>1.0184116988372323</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" ref="W17:W18" si="13">V17/(0.88862*(1/POWER(10,(1.3272*(20-K17)-0.001053*(K17-20)^2)/(K17+105))))</f>
+        <v>0.97372112328922322</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" ref="X17:X18" si="14">MAX(Q17:R17)</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>11082024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>26.43</v>
+      </c>
+      <c r="J18">
+        <v>0.05</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="R18">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S18">
+        <f>4186731+1475286</f>
+        <v>5662017</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="11"/>
+        <v>25.367408942499999</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="12"/>
+        <v>4.1943962989973738</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="13"/>
+        <v>4.1947368769847007</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="14"/>
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0859F97D-3F3F-44B1-8B38-B85A1BE3536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9175CD53-8FA8-48A9-9405-1F587645EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>

--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9175CD53-8FA8-48A9-9405-1F587645EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1BFD4-ED22-4190-91F3-DC923F11646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CESE" sheetId="1" r:id="rId1"/>
     <sheet name="PADI" sheetId="2" r:id="rId2"/>
     <sheet name="AVSA" sheetId="3" r:id="rId3"/>
+    <sheet name="STDE" sheetId="4" r:id="rId4"/>
+    <sheet name="DASP" sheetId="5" r:id="rId5"/>
+    <sheet name="CHLA" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESE!$A$1:$AE$23</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="56">
   <si>
     <t>Specie</t>
   </si>
@@ -162,6 +165,54 @@
   <si>
     <t>AVSA</t>
   </si>
+  <si>
+    <t>STDE</t>
+  </si>
+  <si>
+    <t>flow is very low</t>
+  </si>
+  <si>
+    <t>cv is high</t>
+  </si>
+  <si>
+    <t>leaf teared during pressure bomb</t>
+  </si>
+  <si>
+    <t>DASP</t>
+  </si>
+  <si>
+    <t>but the leaf broke</t>
+  </si>
+  <si>
+    <t>flow was constant</t>
+  </si>
+  <si>
+    <t>CHLA</t>
+  </si>
+  <si>
+    <t>was long to stabilize</t>
+  </si>
+  <si>
+    <t>there was a leak, it was fixed</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>there was a leak but was fixed</t>
+  </si>
+  <si>
+    <t>measurement before cleaning the system</t>
+  </si>
+  <si>
+    <t>but stable; measurement before cleaning the system</t>
+  </si>
+  <si>
+    <t>when doing pressure bomb, leaf recut and the little leaf piece not taken into account in LA calculations</t>
+  </si>
+  <si>
+    <t>very low flow but stable</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,7 +310,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2764,9 +2814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF746F-B21E-4AE2-A531-A971B17E5B05}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F30"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2949,7 +2999,7 @@
         <v>3.589207007751122</v>
       </c>
       <c r="X2" s="4">
-        <f t="shared" ref="X2:X30" si="2">MAX(Q2:R2)</f>
+        <f>MAX(Q2:R2)</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="Z2" t="s">
@@ -3017,7 +3067,7 @@
         <v>2745160</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U28" si="3">S3/(1200^2)*2.54^2</f>
+        <f t="shared" ref="U3:U28" si="2">S3/(1200^2)*2.54^2</f>
         <v>12.299079344444445</v>
       </c>
       <c r="V3" s="4">
@@ -3029,7 +3079,7 @@
         <v>7.3619320095278127</v>
       </c>
       <c r="X3" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="X2:X30" si="3">MAX(Q3:R3)</f>
         <v>0.155</v>
       </c>
       <c r="Z3" t="s">
@@ -3082,7 +3132,7 @@
         <v>1430217</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.4077694424999994</v>
       </c>
       <c r="V4" s="4">
@@ -3094,7 +3144,7 @@
         <v>5.0033269473846742</v>
       </c>
       <c r="X4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41</v>
       </c>
       <c r="Z4" t="s">
@@ -3143,7 +3193,7 @@
         <v>1157322</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.1851240383333339</v>
       </c>
       <c r="V5" s="4">
@@ -3155,7 +3205,7 @@
         <v>12.901415356821239</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38</v>
       </c>
       <c r="Z5" t="s">
@@ -3204,7 +3254,7 @@
         <v>1115278</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.9967552394444441</v>
       </c>
       <c r="V6" s="4">
@@ -3216,7 +3266,7 @@
         <v>1.7217957884264539</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99</v>
       </c>
       <c r="Z6" t="s">
@@ -3265,7 +3315,7 @@
         <v>1741010</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.800208413888889</v>
       </c>
       <c r="V7" s="4">
@@ -3277,7 +3327,7 @@
         <v>8.4428566413426669</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
       <c r="Z7" t="s">
@@ -3326,7 +3376,7 @@
         <v>1398207</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2643557508333334</v>
       </c>
       <c r="V8" s="4">
@@ -3338,7 +3388,7 @@
         <v>11.245369650062386</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.215</v>
       </c>
       <c r="Z8" t="s">
@@ -3387,7 +3437,7 @@
         <v>1037677</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6490812036111109</v>
       </c>
       <c r="V9" s="4">
@@ -3399,7 +3449,7 @@
         <v>1.1568338363698625</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="Z9" t="s">
@@ -3448,7 +3498,7 @@
         <v>2224838</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9678922505555558</v>
       </c>
       <c r="V10" s="4">
@@ -3460,7 +3510,7 @@
         <v>4.6039204485416718</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26500000000000001</v>
       </c>
       <c r="Z10" t="s">
@@ -3509,7 +3559,7 @@
         <v>631262</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8282291105555557</v>
       </c>
       <c r="V11" s="4">
@@ -3521,7 +3571,7 @@
         <v>30.539904847747835</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23699999999999999</v>
       </c>
       <c r="Z11" t="s">
@@ -3570,7 +3620,7 @@
         <v>1591420</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.1300036611111119</v>
       </c>
       <c r="V12" s="4">
@@ -3582,7 +3632,7 @@
         <v>2.1531427937055092</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39700000000000002</v>
       </c>
       <c r="Z12" t="s">
@@ -3628,7 +3678,7 @@
         <v>802465</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.595266106944444</v>
       </c>
       <c r="V13" s="4">
@@ -3640,7 +3690,7 @@
         <v>13.884159288295567</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="Z13" t="s">
@@ -3686,7 +3736,7 @@
         <v>1688385</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5644337958333328</v>
       </c>
       <c r="V14" s="4">
@@ -3698,7 +3748,7 @@
         <v>4.1994102626647241</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="Z14" t="s">
@@ -3744,7 +3794,7 @@
         <v>1609503</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.2110205241666669</v>
       </c>
       <c r="V15" s="4">
@@ -3756,7 +3806,7 @@
         <v>11.498389608227583</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="Z15" t="s">
@@ -3807,7 +3857,7 @@
         <v>1900272</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.5137464133333332</v>
       </c>
       <c r="V16" s="4">
@@ -3819,7 +3869,7 @@
         <v>10.037452030841736</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23</v>
       </c>
       <c r="Z16" t="s">
@@ -3871,7 +3921,7 @@
         <v>1573348</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.0490360811111117</v>
       </c>
       <c r="V17" s="4">
@@ -3883,7 +3933,7 @@
         <v>3.3065983252733466</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73</v>
       </c>
       <c r="Z17" t="s">
@@ -3937,7 +3987,7 @@
         <v>2047385</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.1728535180555557</v>
       </c>
       <c r="V18" s="4">
@@ -3949,7 +3999,7 @@
         <v>8.3428226636098692</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22</v>
       </c>
       <c r="Z18" t="s">
@@ -3998,7 +4048,7 @@
         <v>1085402</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8629024605555555</v>
       </c>
       <c r="V19" s="4">
@@ -4010,7 +4060,7 @@
         <v>12.796323814364923</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="Z19" t="s">
@@ -4059,7 +4109,7 @@
         <v>1726646</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.7358537038888882</v>
       </c>
       <c r="V20" s="4">
@@ -4071,7 +4121,7 @@
         <v>0.77904348189660955</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
       <c r="Z20" t="s">
@@ -4120,7 +4170,7 @@
         <v>2013825</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.0224953958333334</v>
       </c>
       <c r="V21" s="4">
@@ -4132,7 +4182,7 @@
         <v>33.786613558198361</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="Z21" t="s">
@@ -4181,7 +4231,7 @@
         <v>705939</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.1628028141666666</v>
       </c>
       <c r="V22" s="4">
@@ -4193,7 +4243,7 @@
         <v>6.4782847510677168</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39400000000000002</v>
       </c>
       <c r="Z22" t="s">
@@ -4242,7 +4292,7 @@
         <v>1202577</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.3878790091666673</v>
       </c>
       <c r="V23" s="4">
@@ -4251,7 +4301,7 @@
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Z23" t="s">
@@ -4300,7 +4350,7 @@
         <v>927627</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.1560266341666665</v>
       </c>
       <c r="V24" s="4">
@@ -4312,7 +4362,7 @@
         <v>5.0367789985377067</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25800000000000001</v>
       </c>
       <c r="Z24" t="s">
@@ -4361,7 +4411,7 @@
         <v>1522161</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.8197041025000003</v>
       </c>
       <c r="V25" s="4">
@@ -4373,7 +4423,7 @@
         <v>0.13757458189717575</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="Z25" t="s">
@@ -4422,7 +4472,7 @@
         <v>637660</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8568939277777776</v>
       </c>
       <c r="V26" s="4">
@@ -4434,7 +4484,7 @@
         <v>1.694071098222929</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89</v>
       </c>
       <c r="Z26" t="s">
@@ -4480,7 +4530,7 @@
         <v>1158134</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.1887620238888887</v>
       </c>
       <c r="V27" s="4">
@@ -4492,7 +4542,7 @@
         <v>2.3612189931130394</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4770000000000001</v>
       </c>
       <c r="Z27" t="s">
@@ -4538,7 +4588,7 @@
         <v>2305546</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.329486509444443</v>
       </c>
       <c r="V28" s="4">
@@ -4550,7 +4600,7 @@
         <v>3.9071513834929439</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39300000000000002</v>
       </c>
       <c r="Z28" t="s">
@@ -4605,7 +4655,7 @@
         <v>2.2213417198360363</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7569999999999999</v>
       </c>
       <c r="Z29" t="s">
@@ -4660,7 +4710,7 @@
         <v>1.7391231388436081</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83299999999999996</v>
       </c>
     </row>
@@ -6172,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FD146E-6B5C-415F-9192-209A980B6A9A}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6390,20 +6440,20 @@
         <f>5281756+1344062+349298</f>
         <v>6975116</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="4">
         <f t="shared" ref="U3:U8" si="0">S3/(1200^2)*2.54^2</f>
         <v>31.250457212222223</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="4">
         <f t="shared" ref="V3:V8" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
         <v>0.53441543266890212</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="4">
         <f t="shared" ref="W3:W8" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
         <v>0.52249934114930507</v>
       </c>
-      <c r="X3" s="15">
-        <f t="shared" ref="X3:X10" si="3">MAX(Q3:R3)</f>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X8" si="3">MAX(Q3:R3)</f>
         <v>1.468</v>
       </c>
     </row>
@@ -6448,19 +6498,19 @@
         <f>5045502+685140</f>
         <v>5730642</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="4">
         <f t="shared" si="0"/>
         <v>25.674868005</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="4">
         <f t="shared" si="1"/>
         <v>20.066128289145034</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="4">
         <f t="shared" si="2"/>
         <v>19.618705167504814</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="4">
         <f t="shared" si="3"/>
         <v>0.185</v>
       </c>
@@ -6506,19 +6556,19 @@
         <f>8063160+963144+1127600</f>
         <v>10153904</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="4">
         <f t="shared" si="0"/>
         <v>45.492310448888887</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="4">
         <f t="shared" si="1"/>
         <v>2.9142341191190404</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="4">
         <f t="shared" si="2"/>
         <v>2.8492541833796667</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="4">
         <f t="shared" si="3"/>
         <v>0.49099999999999999</v>
       </c>
@@ -6564,19 +6614,19 @@
         <f>6778726+1491326+1245354</f>
         <v>9515406</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="4">
         <f t="shared" si="0"/>
         <v>42.631662048333332</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="4">
         <f t="shared" si="1"/>
         <v>5.8784889928390314</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="4">
         <f t="shared" si="2"/>
         <v>5.8789663163456787</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="4">
         <f t="shared" si="3"/>
         <v>0.246</v>
       </c>
@@ -6622,19 +6672,19 @@
         <f>3760147+962550</f>
         <v>4722697</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="4">
         <f t="shared" si="0"/>
         <v>21.158994420277779</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="4">
         <f t="shared" si="1"/>
         <v>0.46942967777055328</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="4">
         <f t="shared" si="2"/>
         <v>0.45896260167135966</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="4">
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
@@ -6680,19 +6730,19 @@
         <f>3183813+662040+666150</f>
         <v>4512003</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="4">
         <f t="shared" si="0"/>
         <v>20.215026774166667</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="4">
         <f t="shared" si="1"/>
         <v>1.4242864966608282</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="4">
         <f t="shared" si="2"/>
         <v>1.42440214635004</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="4">
         <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
@@ -6738,19 +6788,19 @@
         <f>6463264+2334373+298439</f>
         <v>9096076</v>
       </c>
-      <c r="U9" s="15">
-        <f t="shared" ref="U9:U13" si="4">S9/(1200^2)*2.54^2</f>
+      <c r="U9" s="4">
+        <f t="shared" ref="U9:U11" si="4">S9/(1200^2)*2.54^2</f>
         <v>40.752947167777776</v>
       </c>
-      <c r="V9" s="15">
-        <f t="shared" ref="V9:V13" si="5">I9*0.000001/18*1000/R9/(U9/10000)</f>
+      <c r="V9" s="4">
+        <f t="shared" ref="V9:V11" si="5">I9*0.000001/18*1000/R9/(U9/10000)</f>
         <v>0.48948060145221556</v>
       </c>
-      <c r="W9" s="15">
-        <f t="shared" ref="W9:W13" si="6">V9/(0.88862*(1/POWER(10,(1.3272*(20-K9)-0.001053*(K9-20)^2)/(K9+105))))</f>
+      <c r="W9" s="4">
+        <f t="shared" ref="W9:W11" si="6">V9/(0.88862*(1/POWER(10,(1.3272*(20-K9)-0.001053*(K9-20)^2)/(K9+105))))</f>
         <v>0.47856644125507602</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="4">
         <f t="shared" ref="X9:X16" si="7">MAX(Q9:R9)</f>
         <v>1.617</v>
       </c>
@@ -6796,19 +6846,19 @@
         <f>5584263+814566+317757</f>
         <v>6716586</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="4">
         <f t="shared" si="4"/>
         <v>30.09217099833333</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="4">
         <f t="shared" si="5"/>
         <v>1.0468447591759413</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="4">
         <f t="shared" si="6"/>
         <v>1.046929761225273</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="4">
         <f t="shared" si="7"/>
         <v>0.91</v>
       </c>
@@ -6854,19 +6904,19 @@
         <f>5946627+808257+468075+163144</f>
         <v>7386103</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="4">
         <f t="shared" si="4"/>
         <v>33.091793135277776</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="4">
         <f t="shared" si="5"/>
         <v>2.3470727318521951</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="4">
         <f t="shared" si="6"/>
         <v>2.3472633102453995</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="4">
         <f t="shared" si="7"/>
         <v>0.51</v>
       </c>
@@ -6912,19 +6962,19 @@
         <f>6214254+1622337+192996</f>
         <v>8029587</v>
       </c>
-      <c r="U12" s="15">
-        <f t="shared" ref="U12:U17" si="8">S12/(1200^2)*2.54^2</f>
+      <c r="U12" s="4">
+        <f t="shared" ref="U12:U16" si="8">S12/(1200^2)*2.54^2</f>
         <v>35.974780200833337</v>
       </c>
-      <c r="V12" s="15">
-        <f t="shared" ref="V12:V17" si="9">I12*0.000001/18*1000/R12/(U12/10000)</f>
+      <c r="V12" s="4">
+        <f t="shared" ref="V12:V16" si="9">I12*0.000001/18*1000/R12/(U12/10000)</f>
         <v>1.6908045811266819</v>
       </c>
-      <c r="W12" s="15">
-        <f t="shared" ref="W12:W17" si="10">V12/(0.88862*(1/POWER(10,(1.3272*(20-K12)-0.001053*(K12-20)^2)/(K12+105))))</f>
+      <c r="W12" s="4">
+        <f t="shared" ref="W12:W16" si="10">V12/(0.88862*(1/POWER(10,(1.3272*(20-K12)-0.001053*(K12-20)^2)/(K12+105))))</f>
         <v>1.6909418716400608</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="4">
         <f t="shared" si="7"/>
         <v>1.268</v>
       </c>
@@ -6970,19 +7020,19 @@
         <f>5773559+603204+274922</f>
         <v>6651685</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="4">
         <f t="shared" si="8"/>
         <v>29.801396490277778</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="4">
         <f t="shared" si="9"/>
         <v>3.4854595372396737</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="4">
         <f t="shared" si="10"/>
         <v>3.4857425507437596</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="4">
         <f t="shared" si="7"/>
         <v>1.026</v>
       </c>
@@ -7028,19 +7078,19 @@
         <f>5654817+473235+62206</f>
         <v>6190258</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="4">
         <f t="shared" si="8"/>
         <v>27.734075356111113</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="4">
         <f t="shared" si="9"/>
         <v>3.6161213881814085</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="4">
         <f t="shared" si="10"/>
         <v>3.5354911691169102</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="4">
         <f t="shared" si="7"/>
         <v>0.67100000000000004</v>
       </c>
@@ -7086,19 +7136,19 @@
         <f>4607082+209598</f>
         <v>4816680</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="4">
         <f t="shared" si="8"/>
         <v>21.580064366666669</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="4">
         <f t="shared" si="9"/>
         <v>1.3908677242583791</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="4">
         <f t="shared" si="10"/>
         <v>1.3598549464066121</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X15" s="4">
         <f t="shared" si="7"/>
         <v>1.1100000000000001</v>
       </c>
@@ -7144,19 +7194,19 @@
         <f>4592508+1761562</f>
         <v>6354070</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="4">
         <f t="shared" si="8"/>
         <v>28.467998619444444</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="4">
         <f t="shared" si="9"/>
         <v>15.433691890948205</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W16" s="4">
         <f t="shared" si="10"/>
         <v>15.434945081001445</v>
       </c>
-      <c r="X16" s="15">
+      <c r="X16" s="4">
         <f t="shared" si="7"/>
         <v>0.128</v>
       </c>
@@ -7202,19 +7252,19 @@
         <f>4791126+404936</f>
         <v>5196062</v>
       </c>
-      <c r="U17" s="15">
+      <c r="U17" s="4">
         <f t="shared" ref="U17:U18" si="11">S17/(1200^2)*2.54^2</f>
         <v>23.279801110555557</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="4">
         <f t="shared" ref="V17:V18" si="12">I17*0.000001/18*1000/R17/(U17/10000)</f>
         <v>1.0184116988372323</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="4">
         <f t="shared" ref="W17:W18" si="13">V17/(0.88862*(1/POWER(10,(1.3272*(20-K17)-0.001053*(K17-20)^2)/(K17+105))))</f>
         <v>0.97372112328922322</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="4">
         <f t="shared" ref="X17:X18" si="14">MAX(Q17:R17)</f>
         <v>1.57</v>
       </c>
@@ -7260,21 +7310,4747 @@
         <f>4186731+1475286</f>
         <v>5662017</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="4">
         <f t="shared" si="11"/>
         <v>25.367408942499999</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="4">
         <f t="shared" si="12"/>
         <v>4.1943962989973738</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="4">
         <f t="shared" si="13"/>
         <v>4.1947368769847007</v>
       </c>
-      <c r="X18" s="15">
+      <c r="X18" s="4">
         <f t="shared" si="14"/>
         <v>0.13800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F80EEFC-0235-4E88-9007-0CE0804F1C9F}">
+  <dimension ref="A1:AE23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="17.21875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13" t="e">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>11122024</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>53.6</v>
+      </c>
+      <c r="J3">
+        <v>0.03</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="R3">
+        <v>0.127</v>
+      </c>
+      <c r="S3">
+        <f>1750320+150676</f>
+        <v>1900996</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U12" si="0">S3/(1200^2)*2.54^2</f>
+        <v>8.5169901344444447</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V5" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>27.529759628974706</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" ref="W3:W5" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>27.53199499956386</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X5" si="3">MAX(Q3:R3)</f>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>11122024</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>0.05</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+      <c r="R4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="S4">
+        <f>1435104+262842</f>
+        <v>1697946</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6072697316666664</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="1"/>
+        <v>50.982899849742452</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="2"/>
+        <v>49.846112131038282</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>11122024</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>32.5</v>
+      </c>
+      <c r="J5">
+        <v>0.04</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="S5">
+        <f>2067158+235078</f>
+        <v>2302236</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>10.314656790000001</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8219992371950808</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8223095771617839</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>11122024</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>59.8</v>
+      </c>
+      <c r="J6">
+        <v>0.04</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S6">
+        <f>2399334+188522</f>
+        <v>2587856</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>11.594313728888888</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" ref="V6:V12" si="4">I6*0.000001/18*1000/R6/(U6/10000)</f>
+        <v>17.365995612583522</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" ref="W6:W12" si="5">V6/(0.88862*(1/POWER(10,(1.3272*(20-K6)-0.001053*(K6-20)^2)/(K6+105))))</f>
+        <v>17.367405702477765</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" ref="X6:X12" si="6">MAX(Q6:R6)</f>
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>11122024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>49.79</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="R7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S7">
+        <f>1378457+104316</f>
+        <v>1482773</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6432349213888893</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="4"/>
+        <v>67.158087691371705</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="5"/>
+        <v>65.660634829251023</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="6"/>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>11122024</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>12.83</v>
+      </c>
+      <c r="J8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S8">
+        <f>1200871+39078</f>
+        <v>1239949</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5553159502777776</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="4"/>
+        <v>18.86846083572749</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="5"/>
+        <v>18.869992923293211</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="6"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>11122024</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>52.53</v>
+      </c>
+      <c r="J9">
+        <v>0.03</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="S9">
+        <f>1812812</f>
+        <v>1812812</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.121901318888888</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="4"/>
+        <v>42.775776419820332</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="5"/>
+        <v>43.772134448325623</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="6"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>11122024</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>89.67</v>
+      </c>
+      <c r="J10">
+        <v>0.02</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="R10">
+        <v>0.03</v>
+      </c>
+      <c r="S10">
+        <f>1446626+185177</f>
+        <v>1631803</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="0"/>
+        <v>7.310930718611111</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="4"/>
+        <v>227.13326380297286</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="5"/>
+        <v>222.06877540467869</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11122024</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>26.73</v>
+      </c>
+      <c r="J11">
+        <v>0.09</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="R11">
+        <v>0.223</v>
+      </c>
+      <c r="S11">
+        <f>1729485</f>
+        <v>1729485</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7485732125000002</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5940890567691817</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="5"/>
+        <v>8.40246294444567</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="6"/>
+        <v>0.223</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>11122024</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.05</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>0.216</v>
+      </c>
+      <c r="S12">
+        <f>71031+1479389+188755</f>
+        <v>1739175</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7919871041666671</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="4"/>
+        <v>6.1626831106310531</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3062278761111283</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="6"/>
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>11142024</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>31.87</v>
+      </c>
+      <c r="J13">
+        <v>0.08</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(K14:K23)</f>
+        <v>24.7</v>
+      </c>
+      <c r="R13">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="S13">
+        <f>1287085+39249</f>
+        <v>1326334</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" ref="U13:U19" si="7">S13/(1200^2)*2.54^2</f>
+        <v>5.942344746111111</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" ref="V13:V19" si="8">I13*0.000001/18*1000/R13/(U13/10000)</f>
+        <v>20.548669744110367</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" ref="W13:W19" si="9">V13/(0.88862*(1/POWER(10,(1.3272*(20-K13)-0.001053*(K13-20)^2)/(K13+105))))</f>
+        <v>20.691592373646152</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" ref="X13:X19" si="10">MAX(Q13:R13)</f>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>11142024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.49930555555555556</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.51527777777777772</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>23.53</v>
+      </c>
+      <c r="J14">
+        <v>0.05</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="R14">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="S14">
+        <f>1128124+232043</f>
+        <v>1360167</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="7"/>
+        <v>6.0939259841666669</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="8"/>
+        <v>3.2403674247727388</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="9"/>
+        <v>3.2406305372058664</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="10"/>
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>11142024</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>37.06</v>
+      </c>
+      <c r="J15">
+        <v>0.04</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="R15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S15">
+        <f>1543467+119585</f>
+        <v>1663052</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="7"/>
+        <v>7.4509349188888887</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="8"/>
+        <v>9.5284913041439765</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="9"/>
+        <v>9.529265001753668</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="10"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>11142024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>22.57</v>
+      </c>
+      <c r="J16">
+        <v>0.05</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="R16">
+        <v>0.26</v>
+      </c>
+      <c r="S16">
+        <f>1241846+110109</f>
+        <v>1351955</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="7"/>
+        <v>6.0571339430555549</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="8"/>
+        <v>7.9619331815811885</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="9"/>
+        <v>7.9625796772828146</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="10"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>11142024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.52013888888888893</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.54236111111111107</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>23.63</v>
+      </c>
+      <c r="J17">
+        <v>0.05</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S17">
+        <f>1138113+152939</f>
+        <v>1291052</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="7"/>
+        <v>5.7842715855555555</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="8"/>
+        <v>8.4370429622717289</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="9"/>
+        <v>8.4377280360955282</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="10"/>
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>11142024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>17.13</v>
+      </c>
+      <c r="J18">
+        <v>0.107</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="R18">
+        <v>1.349</v>
+      </c>
+      <c r="S18">
+        <f>1558458+311647+129901</f>
+        <v>2000006</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="7"/>
+        <v>8.9605824372222234</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="8"/>
+        <v>0.7872935047794174</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="9"/>
+        <v>0.78735743169956984</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="10"/>
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>11142024</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>11.73</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>0.159</v>
+      </c>
+      <c r="S19">
+        <f>1526568+201071</f>
+        <v>1727639</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="7"/>
+        <v>7.7403026197222218</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="8"/>
+        <v>5.2950545942685565</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="9"/>
+        <v>5.2954845438746379</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>11142024</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J20">
+        <v>0.05</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="S20">
+        <f>2230269+53409</f>
+        <v>2283678</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" ref="U20:U23" si="11">S20/(1200^2)*2.54^2</f>
+        <v>10.231511794999999</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" ref="V20:V23" si="12">I20*0.000001/18*1000/R20/(U20/10000)</f>
+        <v>3.1211571680156411</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" ref="W20:W23" si="13">V20/(0.88862*(1/POWER(10,(1.3272*(20-K20)-0.001053*(K20-20)^2)/(K20+105))))</f>
+        <v>3.1938569589454042</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" ref="X20:X23" si="14">MAX(Q20:R20)</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>11142024</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>31.43</v>
+      </c>
+      <c r="J21">
+        <v>0.05</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="S21">
+        <f>2480654+621453</f>
+        <v>3102107</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="11"/>
+        <v>13.89830105638889</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="12"/>
+        <v>1.2305079359735394</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="13"/>
+        <v>1.2306078511666565</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="14"/>
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>11142024</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>43.73</v>
+      </c>
+      <c r="J22">
+        <v>0.05</v>
+      </c>
+      <c r="K22">
+        <v>24</v>
+      </c>
+      <c r="R22">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S22">
+        <f>1120779+104338</f>
+        <v>1225117</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="11"/>
+        <v>5.488864470277778</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="12"/>
+        <v>67.062621985092406</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="13"/>
+        <v>68.624683212729224</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="14"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>11142024</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>71.2</v>
+      </c>
+      <c r="J23">
+        <v>0.04</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="S23">
+        <f>1087393+25308+158492</f>
+        <v>1271193</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="11"/>
+        <v>5.6952977491666665</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="12"/>
+        <v>7.2954839491471306</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="13"/>
+        <v>7.4654145643912333</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="14"/>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E35CC-828A-4290-B5E8-9F6A0266471F}">
+  <dimension ref="A1:AE24"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13" t="e">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>11192024</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>24.03</v>
+      </c>
+      <c r="J3">
+        <v>0.06</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="R3">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="S3">
+        <f>1554230</f>
+        <v>1554230</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U18" si="0">S3/(1200^2)*2.54^2</f>
+        <v>6.9633821305555559</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V18" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>13.041985177304449</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" ref="W3:W18" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>13.043044164759568</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X18" si="3">MAX(Q3:R3)</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>11192024</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>12.3</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="R4">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="S4">
+        <v>768176</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4416418622222222</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4302159909034851</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4304133203907226</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>11202024</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>13.4</v>
+      </c>
+      <c r="J5">
+        <v>0.08</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>1.43</v>
+      </c>
+      <c r="S5">
+        <v>516256</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3129702844444444</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2507445257367928</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2509272824402418</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="3"/>
+        <v>1.43</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>11202024</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.37569444444444444</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>18.37</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="S6">
+        <f>908684</f>
+        <v>908684</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0711567322222217</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5356770843605942</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5359641754457924</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>11202024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>12.57</v>
+      </c>
+      <c r="J7">
+        <v>0.09</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="R7">
+        <v>0.998</v>
+      </c>
+      <c r="S7">
+        <f>682133</f>
+        <v>682133</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0561453213888887</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2895926906158923</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2385406543606394</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.998</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>11202024</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>24.23</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="S8">
+        <f>502620</f>
+        <v>502620</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2518772166666663</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5762394772511783</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5766922586010166</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>11202024</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>41.7</v>
+      </c>
+      <c r="J9">
+        <v>0.04</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="R9">
+        <v>0.91</v>
+      </c>
+      <c r="S9">
+        <f>1017650</f>
+        <v>1017650</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5593546805555558</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5836576098031108</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5841109934929465</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>11202024</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>25.23</v>
+      </c>
+      <c r="J10">
+        <v>0.04</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="R10">
+        <v>1.52</v>
+      </c>
+      <c r="S10">
+        <f>863645</f>
+        <v>863645</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8693695013888889</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3832025410755349</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3833960531490188</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="3"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>11202024</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>19.7</v>
+      </c>
+      <c r="J11">
+        <v>0.05</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="S11">
+        <f>757502</f>
+        <v>757502</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.393819377222222</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="1"/>
+        <v>13.960244230005495</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="2"/>
+        <v>13.961377778564936</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>11202024</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>49.47</v>
+      </c>
+      <c r="J12">
+        <v>0.05</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="R12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S12">
+        <f>1355771</f>
+        <v>1355771</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0742306830555552</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9344160555680219</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8466886829504592</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>11202024</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="J13">
+        <v>0.04</v>
+      </c>
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="R13">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="S13">
+        <v>731295</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2764047375000001</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="1"/>
+        <v>10.114728306276467</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="2"/>
+        <v>9.8891958444021419</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>11202024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>37.67</v>
+      </c>
+      <c r="J14">
+        <v>0.05</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>0.215</v>
+      </c>
+      <c r="S14">
+        <v>913865</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0943690513888891</v>
+      </c>
+      <c r="V14" s="4">
+        <f>I14*0.000001/18*1000/R14/(U14/10000)</f>
+        <v>23.773748792618136</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="2"/>
+        <v>23.243655256654961</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>11202024</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>15.9</v>
+      </c>
+      <c r="J15">
+        <v>0.05</v>
+      </c>
+      <c r="K15">
+        <v>26</v>
+      </c>
+      <c r="R15">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="S15">
+        <v>1001093</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4851747213888888</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4105805848929291</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2899385347527277</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>11202024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.54236111111111107</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>15.8</v>
+      </c>
+      <c r="J16">
+        <v>0.108</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="R16">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S16">
+        <v>830169</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7193877225</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5198776798486815</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5205694797134601</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>11202024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>39.5</v>
+      </c>
+      <c r="J17">
+        <v>0.05</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="R17">
+        <v>1.4</v>
+      </c>
+      <c r="S17">
+        <v>1123623</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0341431575</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1136586076720398</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.186183737814182</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>11202024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="J18">
+        <v>0.05</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="R18">
+        <v>2.21</v>
+      </c>
+      <c r="S18">
+        <v>1423166</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3761790038888888</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2761961194937905</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2762997444912463</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="3"/>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>11262024</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>21.8</v>
+      </c>
+      <c r="J19">
+        <v>0.04</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="S19">
+        <v>1468102</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" ref="U19:U24" si="4">S19/(1200^2)*2.54^2</f>
+        <v>6.5775047661111117</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" ref="V19:V24" si="5">I19*0.000001/18*1000/R19/(U19/10000)</f>
+        <v>8.075844909417274</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" ref="W19:W24" si="6">V19/(0.88862*(1/POWER(10,(1.3272*(20-K19)-0.001053*(K19-20)^2)/(K19+105))))</f>
+        <v>8.0765006545613058</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" ref="X19:X24" si="7">MAX(Q19:R19)</f>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>11262024</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>16.03</v>
+      </c>
+      <c r="J20">
+        <v>0.04</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="S20">
+        <v>1122686</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0299451372222226</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6789582997258652</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="6"/>
+        <v>8.6796630166717872</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="7"/>
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>11262024</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>39.26</v>
+      </c>
+      <c r="J21">
+        <v>0.03</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>0.27</v>
+      </c>
+      <c r="S21">
+        <v>1232146</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="4"/>
+        <v>5.5203563427777773</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="5"/>
+        <v>14.633456245954353</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="6"/>
+        <v>14.634644458207228</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>11262024</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>26.5</v>
+      </c>
+      <c r="J22">
+        <v>0.05</v>
+      </c>
+      <c r="K22">
+        <v>26</v>
+      </c>
+      <c r="R22">
+        <v>0.85</v>
+      </c>
+      <c r="S22">
+        <v>1122707</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0300392230555548</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="5"/>
+        <v>3.4433650852104298</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="6"/>
+        <v>3.3665868879831544</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="7"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>11262024</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>16.66</v>
+      </c>
+      <c r="J23">
+        <v>0.05</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(K19:K22,K24)</f>
+        <v>25.2</v>
+      </c>
+      <c r="R23">
+        <v>0.245</v>
+      </c>
+      <c r="S23">
+        <v>722889</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="4"/>
+        <v>3.2387435225000001</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="5"/>
+        <v>11.664331403623141</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="6"/>
+        <v>11.612310167764456</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="7"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>11262024</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <v>21.03</v>
+      </c>
+      <c r="J24">
+        <v>0.05</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="R24">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="S24">
+        <v>831698</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7262380672222224</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="5"/>
+        <v>10.521554406220851</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="6"/>
+        <v>10.522408738898973</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="7"/>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E21FF7F-5593-4259-A4BA-F4FE44134BEE}">
+  <dimension ref="A1:AE1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13" t="e">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>11262024</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>51.9</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="R3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S3">
+        <f>3969912+402144</f>
+        <v>4372056</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U10" si="0">S3/(1200^2)*2.54^2</f>
+        <v>19.588025340000002</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V10" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>7.5486551245827531</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" ref="W3:W10" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>7.5492680627950941</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X10" si="3">MAX(Q3:R3)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>11262024</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>31.66</v>
+      </c>
+      <c r="J4">
+        <v>0.05</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="R4">
+        <v>0.11</v>
+      </c>
+      <c r="S4">
+        <f>5219964+601121</f>
+        <v>5821085</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="0"/>
+        <v>26.080077768055556</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1310779561724988</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1315757894818974</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>11262024</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>44.33</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="S5">
+        <f>4887162+312130</f>
+        <v>5199292</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>23.294272407777779</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8844206917810471</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="2"/>
+        <v>8.8851420919306943</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>11262024</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>24.56</v>
+      </c>
+      <c r="J6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S6">
+        <f>5984290+180956</f>
+        <v>6165246</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>27.622014648333337</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2583614037687205</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2587071756159238</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>11262024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>28.9</v>
+      </c>
+      <c r="J7">
+        <v>0.03</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S7">
+        <f>5515089+77479+43840</f>
+        <v>5636408</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="0"/>
+        <v>25.25267350888889</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>9.3499451069210746</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3507043068771907</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>11272024</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.40138888888888891</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>83.26</v>
+      </c>
+      <c r="J8">
+        <v>0.04</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+      <c r="R8">
+        <v>0.11</v>
+      </c>
+      <c r="S8">
+        <f>6993090+85575</f>
+        <v>7078665</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="0"/>
+        <v>31.71438549583333</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="1"/>
+        <v>13.25912654244229</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="2"/>
+        <v>12.96348207618761</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11272024</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>110.26</v>
+      </c>
+      <c r="J9">
+        <v>0.03</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="R9">
+        <v>0.153</v>
+      </c>
+      <c r="S9">
+        <f>51760+6285352</f>
+        <v>6337112</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="0"/>
+        <v>28.392022068888888</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>14.101253768922332</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="2"/>
+        <v>13.786832028493953</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>11272024</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>107.16</v>
+      </c>
+      <c r="J10">
+        <v>0.04</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="R10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S10">
+        <f>6500321+35067+855875</f>
+        <v>7391263</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="0"/>
+        <v>33.114911368611111</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>18.924002534419284</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="2"/>
+        <v>18.502045883596036</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="3"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11272024</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>92.53</v>
+      </c>
+      <c r="J11">
+        <v>0.05</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="R11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="S11">
+        <f>6692052+24861+104593+816584</f>
+        <v>7638090</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" ref="U11:U17" si="4">S11/(1200^2)*2.54^2</f>
+        <v>34.220764891666668</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" ref="V11:V17" si="5">I11*0.000001/18*1000/R11/(U11/10000)</f>
+        <v>28.342912428408138</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" ref="W11:W17" si="6">V11/(0.88862*(1/POWER(10,(1.3272*(20-K11)-0.001053*(K11-20)^2)/(K11+105))))</f>
+        <v>27.710938279117276</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" ref="X11:X28" si="7">MAX(Q11:R11)</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>11272024</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>87.2</v>
+      </c>
+      <c r="J12">
+        <v>0.01</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="S12">
+        <f>65227+5673214</f>
+        <v>5738441</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="4"/>
+        <v>25.709809691388887</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="5"/>
+        <v>22.979007427540527</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="6"/>
+        <v>23.51424770729157</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="7"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11272024</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>84.37</v>
+      </c>
+      <c r="J13">
+        <v>0.03</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="S13">
+        <f>220856+5170322</f>
+        <v>5391178</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="4"/>
+        <v>24.153974989444446</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="5"/>
+        <v>16.585977427139486</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="6"/>
+        <v>16.587324180857379</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="7"/>
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>11272024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>155.83000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.03</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+      <c r="R14">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="S14">
+        <f>147368+6894362</f>
+        <v>7041730</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="4"/>
+        <v>31.54890643611111</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="5"/>
+        <v>31.907722342407489</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="6"/>
+        <v>32.650935393999106</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="7"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>11272024</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>62.47</v>
+      </c>
+      <c r="J15">
+        <v>0.05</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
+      </c>
+      <c r="R15">
+        <v>0.03</v>
+      </c>
+      <c r="S15">
+        <f>4311455+43130</f>
+        <v>4354585</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="4"/>
+        <v>19.509750406944445</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="5"/>
+        <v>59.296086711600026</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="6"/>
+        <v>60.677245325162296</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>11272024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>40.17</v>
+      </c>
+      <c r="J16">
+        <v>0.05</v>
+      </c>
+      <c r="K16">
+        <v>26</v>
+      </c>
+      <c r="R16">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="S16">
+        <f>75078+4553275</f>
+        <v>4628353</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="4"/>
+        <v>20.736307093611114</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="5"/>
+        <v>12.229684085196583</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="6"/>
+        <v>11.956993541648508</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="7"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>11272024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>116.63</v>
+      </c>
+      <c r="J17">
+        <v>0.02</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>0.113</v>
+      </c>
+      <c r="S17">
+        <f>71993+6083976</f>
+        <v>6155969</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="4"/>
+        <v>27.580451111388889</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="5"/>
+        <v>20.790166227135966</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="6"/>
+        <v>20.791854353975943</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="7"/>
+        <v>0.113</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>12022024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="J18">
+        <v>0.03</v>
+      </c>
+      <c r="K18">
+        <v>27</v>
+      </c>
+      <c r="O18">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="P18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(O18,P18)</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="R18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S18">
+        <f>22679+7830667</f>
+        <v>7853346</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" ref="U18" si="8">S18/(1200^2)*2.54^2</f>
+        <v>35.185171564999997</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" ref="V18" si="9">I18*0.000001/18*1000/R18/(U18/10000)</f>
+        <v>20.936850209917878</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" ref="W18" si="10">V18/(0.88862*(1/POWER(10,(1.3272*(20-K18)-0.001053*(K18-20)^2)/(K18+105))))</f>
+        <v>20.018086327774739</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="7"/>
+        <v>8.7500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>12022024</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>95.53</v>
+      </c>
+      <c r="J19">
+        <v>0.04</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="O19">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE(O19,P19)</f>
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="R19">
+        <v>0.03</v>
+      </c>
+      <c r="S19">
+        <f>48978+7883913+367683</f>
+        <v>8300574</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" ref="U19:U21" si="11">S19/(1200^2)*2.54^2</f>
+        <v>37.188877235</v>
+      </c>
+      <c r="V19" s="4">
+        <f>I19*0.000001/18*1000/R19/(U19/10000)</f>
+        <v>47.56997805809327</v>
+      </c>
+      <c r="W19" s="4">
+        <f>V19/(0.88862*(1/POWER(10,(1.3272*(20-K19)-0.001053*(K19-20)^2)/(K19+105))))</f>
+        <v>47.573840661011381</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.29500000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>12022024</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>48.7</v>
+      </c>
+      <c r="J20">
+        <v>0.05</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.05</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q28" si="12">AVERAGE(O20,P20)</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="R20">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S20">
+        <f>6368947+32368</f>
+        <v>6401315</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="11"/>
+        <v>28.679669343055554</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" ref="V19:V21" si="13">I20*0.000001/18*1000/R20/(U20/10000)</f>
+        <v>10.843339700692706</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" ref="W19:W21" si="14">V20/(0.88862*(1/POWER(10,(1.3272*(20-K20)-0.001053*(K20-20)^2)/(K20+105))))</f>
+        <v>10.844220161800315</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="7"/>
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>12022024</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>68.8</v>
+      </c>
+      <c r="J21">
+        <v>0.03</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="O21">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="P21">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="12"/>
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="R21">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="S21">
+        <f>5704013+49971</f>
+        <v>5753984</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="11"/>
+        <v>25.779446648888889</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="13"/>
+        <v>10.296268278391164</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="14"/>
+        <v>10.536094891054727</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="7"/>
+        <v>0.68049999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>12032024</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>172.7</v>
+      </c>
+      <c r="J22">
+        <v>0.04</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="O22">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="12"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="R22">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="7"/>
+        <v>0.52499999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>12032024</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>68.33</v>
+      </c>
+      <c r="J23">
+        <v>0.02</v>
+      </c>
+      <c r="K23">
+        <v>26</v>
+      </c>
+      <c r="O23">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="P23">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="12"/>
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.24</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>12032024</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <v>59.93</v>
+      </c>
+      <c r="J24">
+        <v>0.02</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P24">
+        <v>0.46</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="12"/>
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="R24">
+        <v>0.11</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="7"/>
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>12032024</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2">
+        <v>70.02</v>
+      </c>
+      <c r="J25">
+        <v>0.05</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="O25">
+        <v>0.08</v>
+      </c>
+      <c r="P25">
+        <v>0.159</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="12"/>
+        <v>0.1195</v>
+      </c>
+      <c r="R25">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="7"/>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>12032024</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26">
+        <v>62.17</v>
+      </c>
+      <c r="J26">
+        <v>0.05</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="P26">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="12"/>
+        <v>0.27149999999999996</v>
+      </c>
+      <c r="R26">
+        <v>0.217</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="7"/>
+        <v>0.27149999999999996</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12032024</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>82</v>
+      </c>
+      <c r="J27">
+        <v>0.04</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="O27">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="12"/>
+        <v>0.77350000000000008</v>
+      </c>
+      <c r="R27">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="7"/>
+        <v>0.77350000000000008</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>12032024</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>100.47</v>
+      </c>
+      <c r="J28">
+        <v>0.02</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="P28">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="12"/>
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="R28">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="7"/>
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>12032024</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>43.8</v>
+      </c>
+      <c r="J29">
+        <v>0.05</v>
+      </c>
+      <c r="K29">
+        <v>23</v>
+      </c>
+      <c r="R29">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>12032024</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>37.15</v>
+      </c>
+      <c r="J30">
+        <v>0.05</v>
+      </c>
+      <c r="K30">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>12032024</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>13.5</v>
+      </c>
+      <c r="J31">
+        <v>0.09</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048576" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1BFD4-ED22-4190-91F3-DC923F11646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A534756-C8CC-40D0-A5A7-4CB0C965DCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="59">
   <si>
     <t>Specie</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>very low flow but stable</t>
+  </si>
+  <si>
+    <t>Indiv_correct</t>
+  </si>
+  <si>
+    <t>Leaf_correct</t>
+  </si>
+  <si>
+    <t>very low flow but was stable</t>
   </si>
 </sst>
 </file>
@@ -3079,7 +3088,7 @@
         <v>7.3619320095278127</v>
       </c>
       <c r="X3" s="4">
-        <f t="shared" ref="X2:X30" si="3">MAX(Q3:R3)</f>
+        <f t="shared" ref="X3:X30" si="3">MAX(Q3:R3)</f>
         <v>0.155</v>
       </c>
       <c r="Z3" t="s">
@@ -10219,1395 +10228,1425 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E21FF7F-5593-4259-A4BA-F4FE44134BEE}">
-  <dimension ref="A1:AE1048576"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
       <c r="D2" s="8">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8">
         <v>10222024</v>
       </c>
-      <c r="F2" s="11">
+      <c r="H2" s="11">
         <v>0.50208333333333333</v>
       </c>
-      <c r="G2" s="11">
+      <c r="I2" s="11">
         <v>0.52152777777777781</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8">
+      <c r="K2" s="8">
         <v>25.26</v>
       </c>
-      <c r="J2" s="8">
+      <c r="L2" s="8">
         <v>0.01</v>
       </c>
-      <c r="K2" s="12" t="e">
+      <c r="M2" s="12" t="e">
         <f>AVERAGE(#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="8">
+      <c r="O2" s="12"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="8">
         <v>0.155</v>
       </c>
-      <c r="S2" s="8">
+      <c r="U2" s="8">
         <f>917270+813318+608426+406146</f>
         <v>2745160</v>
       </c>
-      <c r="U2" s="13">
-        <f>S2/(1200^2)*2.54^2</f>
+      <c r="W2" s="13">
+        <f>U2/(1200^2)*2.54^2</f>
         <v>12.299079344444445</v>
       </c>
-      <c r="V2" s="13">
-        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+      <c r="X2" s="13">
+        <f>K2*0.000001/18*1000/T2/(W2/10000)</f>
         <v>7.3613342814556653</v>
       </c>
-      <c r="W2" s="13" t="e">
-        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+      <c r="Y2" s="13" t="e">
+        <f>X2/(0.88862*(1/POWER(10,(1.3272*(20-M2)-0.001053*(M2-20)^2)/(M2+105))))</f>
         <v>#REF!</v>
       </c>
-      <c r="X2" s="13">
-        <f>MAX(Q2:R2)</f>
+      <c r="Z2" s="13">
+        <f>MAX(S2:T2)</f>
         <v>0.155</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>11262024</v>
       </c>
-      <c r="F3" s="5">
+      <c r="H3" s="5">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I3" s="5">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>51.9</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.05</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>25</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.19500000000000001</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <f>3969912+402144</f>
         <v>4372056</v>
       </c>
-      <c r="U3" s="4">
-        <f t="shared" ref="U3:U10" si="0">S3/(1200^2)*2.54^2</f>
+      <c r="W3" s="4">
+        <f t="shared" ref="W3:W10" si="0">U3/(1200^2)*2.54^2</f>
         <v>19.588025340000002</v>
       </c>
-      <c r="V3" s="4">
-        <f t="shared" ref="V3:V10" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X10" si="1">K3*0.000001/18*1000/T3/(W3/10000)</f>
         <v>7.5486551245827531</v>
       </c>
-      <c r="W3" s="4">
-        <f t="shared" ref="W3:W10" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+      <c r="Y3" s="4">
+        <f t="shared" ref="Y3:Y10" si="2">X3/(0.88862*(1/POWER(10,(1.3272*(20-M3)-0.001053*(M3-20)^2)/(M3+105))))</f>
         <v>7.5492680627950941</v>
       </c>
-      <c r="X3" s="4">
-        <f t="shared" ref="X3:X10" si="3">MAX(Q3:R3)</f>
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z10" si="3">MAX(S3:T3)</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>11262024</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5">
         <v>0.4777777777777778</v>
       </c>
-      <c r="G4" s="5">
+      <c r="I4" s="5">
         <v>0.4909722222222222</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>31.66</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.05</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>25</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.11</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f>5219964+601121</f>
         <v>5821085</v>
       </c>
-      <c r="U4" s="4">
+      <c r="W4" s="4">
         <f t="shared" si="0"/>
         <v>26.080077768055556</v>
       </c>
-      <c r="V4" s="4">
+      <c r="X4" s="4">
         <f t="shared" si="1"/>
         <v>6.1310779561724988</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Y4" s="4">
         <f t="shared" si="2"/>
         <v>6.1315757894818974</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>11262024</v>
       </c>
-      <c r="F5" s="5">
+      <c r="H5" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G5" s="5">
+      <c r="I5" s="5">
         <v>0.53680555555555554</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>44.33</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.02</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>25</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.11899999999999999</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f>4887162+312130</f>
         <v>5199292</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="0"/>
         <v>23.294272407777779</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="1"/>
         <v>8.8844206917810471</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="2"/>
         <v>8.8851420919306943</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" si="3"/>
         <v>0.11899999999999999</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>11262024</v>
       </c>
-      <c r="F6" s="5">
+      <c r="H6" s="5">
         <v>0.56041666666666667</v>
       </c>
-      <c r="G6" s="5">
+      <c r="I6" s="5">
         <v>0.58611111111111114</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>24.56</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>25</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.11600000000000001</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f>5984290+180956</f>
         <v>6165246</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <f t="shared" si="0"/>
         <v>27.622014648333337</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <f t="shared" si="1"/>
         <v>4.2583614037687205</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Y6" s="4">
         <f t="shared" si="2"/>
         <v>4.2587071756159238</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <f t="shared" si="3"/>
         <v>0.11600000000000001</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>11262024</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="5">
         <v>0.55972222222222223</v>
       </c>
-      <c r="G7" s="5">
+      <c r="I7" s="5">
         <v>0.5708333333333333</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>28.9</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.03</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f>5515089+77479+43840</f>
         <v>5636408</v>
       </c>
-      <c r="U7" s="4">
+      <c r="W7" s="4">
         <f t="shared" si="0"/>
         <v>25.25267350888889</v>
       </c>
-      <c r="V7" s="4">
+      <c r="X7" s="4">
         <f t="shared" si="1"/>
         <v>9.3499451069210746</v>
       </c>
-      <c r="W7" s="4">
+      <c r="Y7" s="4">
         <f t="shared" si="2"/>
         <v>9.3507043068771907</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Z7" s="4">
         <f t="shared" si="3"/>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>11272024</v>
       </c>
-      <c r="F8" s="5">
+      <c r="H8" s="5">
         <v>0.40138888888888891</v>
       </c>
-      <c r="G8" s="5">
+      <c r="I8" s="5">
         <v>0.41458333333333336</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>28</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>83.26</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.04</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>26</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.11</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <f>6993090+85575</f>
         <v>7078665</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="0"/>
         <v>31.71438549583333</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <f t="shared" si="1"/>
         <v>13.25912654244229</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="2"/>
         <v>12.96348207618761</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Z8" s="4">
         <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>11272024</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H9" s="5">
         <v>0.40763888888888888</v>
       </c>
-      <c r="G9" s="5">
+      <c r="I9" s="5">
         <v>0.42152777777777778</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>110.26</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.03</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>26</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.153</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f>51760+6285352</f>
         <v>6337112</v>
       </c>
-      <c r="U9" s="4">
+      <c r="W9" s="4">
         <f t="shared" si="0"/>
         <v>28.392022068888888</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="1"/>
         <v>14.101253768922332</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="2"/>
         <v>13.786832028493953</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Z9" s="4">
         <f t="shared" si="3"/>
         <v>0.153</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>11272024</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G10" s="5">
+      <c r="I10" s="5">
         <v>0.43194444444444446</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>107.16</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.04</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>26</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f>6500321+35067+855875</f>
         <v>7391263</v>
       </c>
-      <c r="U10" s="4">
+      <c r="W10" s="4">
         <f t="shared" si="0"/>
         <v>33.114911368611111</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <f t="shared" si="1"/>
         <v>18.924002534419284</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Y10" s="4">
         <f t="shared" si="2"/>
         <v>18.502045883596036</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Z10" s="4">
         <f t="shared" si="3"/>
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>11272024</v>
       </c>
-      <c r="F11" s="5">
+      <c r="H11" s="5">
         <v>0.42569444444444443</v>
       </c>
-      <c r="G11" s="5">
+      <c r="I11" s="5">
         <v>0.43819444444444444</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>28</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>92.53</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.05</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>26</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f>6692052+24861+104593+816584</f>
         <v>7638090</v>
       </c>
-      <c r="U11" s="4">
-        <f t="shared" ref="U11:U17" si="4">S11/(1200^2)*2.54^2</f>
+      <c r="W11" s="4">
+        <f t="shared" ref="W11:W17" si="4">U11/(1200^2)*2.54^2</f>
         <v>34.220764891666668</v>
       </c>
-      <c r="V11" s="4">
-        <f t="shared" ref="V11:V17" si="5">I11*0.000001/18*1000/R11/(U11/10000)</f>
+      <c r="X11" s="4">
+        <f t="shared" ref="X11:X17" si="5">K11*0.000001/18*1000/T11/(W11/10000)</f>
         <v>28.342912428408138</v>
       </c>
-      <c r="W11" s="4">
-        <f t="shared" ref="W11:W17" si="6">V11/(0.88862*(1/POWER(10,(1.3272*(20-K11)-0.001053*(K11-20)^2)/(K11+105))))</f>
+      <c r="Y11" s="4">
+        <f t="shared" ref="Y11:Y17" si="6">X11/(0.88862*(1/POWER(10,(1.3272*(20-M11)-0.001053*(M11-20)^2)/(M11+105))))</f>
         <v>27.710938279117276</v>
       </c>
-      <c r="X11" s="4">
-        <f t="shared" ref="X11:X28" si="7">MAX(Q11:R11)</f>
+      <c r="Z11" s="4">
+        <f t="shared" ref="Z11:Z37" si="7">MAX(S11:T11)</f>
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>11272024</v>
       </c>
-      <c r="F12" s="5">
+      <c r="H12" s="5">
         <v>0.43958333333333333</v>
       </c>
-      <c r="G12" s="5">
+      <c r="I12" s="5">
         <v>0.46527777777777779</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>87.2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.01</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>24</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f>65227+5673214</f>
         <v>5738441</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <f t="shared" si="4"/>
         <v>25.709809691388887</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <f t="shared" si="5"/>
         <v>22.979007427540527</v>
       </c>
-      <c r="W12" s="4">
+      <c r="Y12" s="4">
         <f t="shared" si="6"/>
         <v>23.51424770729157</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Z12" s="4">
         <f t="shared" si="7"/>
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>11272024</v>
       </c>
-      <c r="F13" s="5">
+      <c r="H13" s="5">
         <v>0.44583333333333336</v>
       </c>
-      <c r="G13" s="5">
+      <c r="I13" s="5">
         <v>0.4597222222222222</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>84.37</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.03</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>25</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.11700000000000001</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f>220856+5170322</f>
         <v>5391178</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <f t="shared" si="4"/>
         <v>24.153974989444446</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <f t="shared" si="5"/>
         <v>16.585977427139486</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Y13" s="4">
         <f t="shared" si="6"/>
         <v>16.587324180857379</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Z13" s="4">
         <f t="shared" si="7"/>
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>11272024</v>
       </c>
-      <c r="F14" s="5">
+      <c r="H14" s="5">
         <v>0.46458333333333335</v>
       </c>
-      <c r="G14" s="5">
+      <c r="I14" s="5">
         <v>0.48749999999999999</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>155.83000000000001</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.03</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>24</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <f>147368+6894362</f>
         <v>7041730</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <f t="shared" si="4"/>
         <v>31.54890643611111</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <f t="shared" si="5"/>
         <v>31.907722342407489</v>
       </c>
-      <c r="W14" s="4">
+      <c r="Y14" s="4">
         <f t="shared" si="6"/>
         <v>32.650935393999106</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Z14" s="4">
         <f t="shared" si="7"/>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>11272024</v>
       </c>
-      <c r="F15" s="5">
+      <c r="H15" s="5">
         <v>0.47013888888888888</v>
       </c>
-      <c r="G15" s="5">
+      <c r="I15" s="5">
         <v>0.49166666666666664</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>62.47</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.05</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>24</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>0.03</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <f>4311455+43130</f>
         <v>4354585</v>
       </c>
-      <c r="U15" s="4">
+      <c r="W15" s="4">
         <f t="shared" si="4"/>
         <v>19.509750406944445</v>
       </c>
-      <c r="V15" s="4">
+      <c r="X15" s="4">
         <f t="shared" si="5"/>
         <v>59.296086711600026</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Y15" s="4">
         <f t="shared" si="6"/>
         <v>60.677245325162296</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Z15" s="4">
         <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AB15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>11272024</v>
       </c>
-      <c r="F16" s="5">
+      <c r="H16" s="5">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G16" s="5">
+      <c r="I16" s="5">
         <v>0.50763888888888886</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>28</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>40.17</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.05</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>26</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <f>75078+4553275</f>
         <v>4628353</v>
       </c>
-      <c r="U16" s="4">
+      <c r="W16" s="4">
         <f t="shared" si="4"/>
         <v>20.736307093611114</v>
       </c>
-      <c r="V16" s="4">
+      <c r="X16" s="4">
         <f t="shared" si="5"/>
         <v>12.229684085196583</v>
       </c>
-      <c r="W16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="6"/>
         <v>11.956993541648508</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Z16" s="4">
         <f t="shared" si="7"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
         <v>11272024</v>
       </c>
-      <c r="F17" s="5">
+      <c r="H17" s="5">
         <v>0.49583333333333335</v>
       </c>
-      <c r="G17" s="5">
+      <c r="I17" s="5">
         <v>0.51388888888888884</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>28</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>116.63</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.02</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>25</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>0.113</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f>71993+6083976</f>
         <v>6155969</v>
       </c>
-      <c r="U17" s="4">
+      <c r="W17" s="4">
         <f t="shared" si="4"/>
         <v>27.580451111388889</v>
       </c>
-      <c r="V17" s="4">
+      <c r="X17" s="4">
         <f t="shared" si="5"/>
         <v>20.790166227135966</v>
       </c>
-      <c r="W17" s="4">
+      <c r="Y17" s="4">
         <f t="shared" si="6"/>
         <v>20.791854353975943</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Z17" s="4">
         <f t="shared" si="7"/>
         <v>0.113</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
         <v>12022024</v>
       </c>
-      <c r="F18" s="5">
+      <c r="H18" s="5">
         <v>0.59513888888888888</v>
       </c>
-      <c r="G18" s="5">
+      <c r="I18" s="5">
         <v>0.60833333333333328</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>28</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>72.930000000000007</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.03</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>27</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>0.11700000000000001</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q18">
-        <f>AVERAGE(O18,P18)</f>
+      <c r="S18">
+        <f>AVERAGE(Q18,R18)</f>
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>5.5E-2</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <f>22679+7830667</f>
         <v>7853346</v>
       </c>
-      <c r="U18" s="4">
-        <f t="shared" ref="U18" si="8">S18/(1200^2)*2.54^2</f>
+      <c r="W18" s="4">
+        <f t="shared" ref="W18" si="8">U18/(1200^2)*2.54^2</f>
         <v>35.185171564999997</v>
       </c>
-      <c r="V18" s="4">
-        <f t="shared" ref="V18" si="9">I18*0.000001/18*1000/R18/(U18/10000)</f>
+      <c r="X18" s="4">
+        <f t="shared" ref="X18" si="9">K18*0.000001/18*1000/T18/(W18/10000)</f>
         <v>20.936850209917878</v>
       </c>
-      <c r="W18" s="4">
-        <f t="shared" ref="W18" si="10">V18/(0.88862*(1/POWER(10,(1.3272*(20-K18)-0.001053*(K18-20)^2)/(K18+105))))</f>
+      <c r="Y18" s="4">
+        <f t="shared" ref="Y18" si="10">X18/(0.88862*(1/POWER(10,(1.3272*(20-M18)-0.001053*(M18-20)^2)/(M18+105))))</f>
         <v>20.018086327774739</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Z18" s="4">
         <f t="shared" si="7"/>
         <v>8.7500000000000008E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>12022024</v>
       </c>
-      <c r="F19" s="5">
+      <c r="H19" s="5">
         <v>0.58472222222222225</v>
       </c>
-      <c r="G19" s="5">
+      <c r="I19" s="5">
         <v>0.60347222222222219</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>28</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>95.53</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.04</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>25</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.33400000000000002</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>0.25600000000000001</v>
       </c>
-      <c r="Q19">
-        <f>AVERAGE(O19,P19)</f>
+      <c r="S19">
+        <f>AVERAGE(Q19,R19)</f>
         <v>0.29500000000000004</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>0.03</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <f>48978+7883913+367683</f>
         <v>8300574</v>
       </c>
-      <c r="U19" s="4">
-        <f t="shared" ref="U19:U21" si="11">S19/(1200^2)*2.54^2</f>
+      <c r="W19" s="4">
+        <f t="shared" ref="W19:W21" si="11">U19/(1200^2)*2.54^2</f>
         <v>37.188877235</v>
       </c>
-      <c r="V19" s="4">
-        <f>I19*0.000001/18*1000/R19/(U19/10000)</f>
+      <c r="X19" s="4">
+        <f>K19*0.000001/18*1000/T19/(W19/10000)</f>
         <v>47.56997805809327</v>
       </c>
-      <c r="W19" s="4">
-        <f>V19/(0.88862*(1/POWER(10,(1.3272*(20-K19)-0.001053*(K19-20)^2)/(K19+105))))</f>
+      <c r="Y19" s="4">
+        <f>X19/(0.88862*(1/POWER(10,(1.3272*(20-M19)-0.001053*(M19-20)^2)/(M19+105))))</f>
         <v>47.573840661011381</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Z19" s="4">
         <f t="shared" si="7"/>
         <v>0.29500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>12022024</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="5">
         <v>0.6118055555555556</v>
       </c>
-      <c r="G20" s="5">
+      <c r="I20" s="5">
         <v>0.62916666666666665</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>28</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>48.7</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.05</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>25</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>0.13900000000000001</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>0.05</v>
       </c>
-      <c r="Q20">
-        <f t="shared" ref="Q20:Q28" si="12">AVERAGE(O20,P20)</f>
+      <c r="S20">
+        <f t="shared" ref="S20:S28" si="12">AVERAGE(Q20,R20)</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <f>6368947+32368</f>
         <v>6401315</v>
       </c>
-      <c r="U20" s="4">
+      <c r="W20" s="4">
         <f t="shared" si="11"/>
         <v>28.679669343055554</v>
       </c>
-      <c r="V20" s="4">
-        <f t="shared" ref="V19:V21" si="13">I20*0.000001/18*1000/R20/(U20/10000)</f>
+      <c r="X20" s="4">
+        <f t="shared" ref="X20:X21" si="13">K20*0.000001/18*1000/T20/(W20/10000)</f>
         <v>10.843339700692706</v>
       </c>
-      <c r="W20" s="4">
-        <f t="shared" ref="W19:W21" si="14">V20/(0.88862*(1/POWER(10,(1.3272*(20-K20)-0.001053*(K20-20)^2)/(K20+105))))</f>
+      <c r="Y20" s="4">
+        <f t="shared" ref="Y20:Y21" si="14">X20/(0.88862*(1/POWER(10,(1.3272*(20-M20)-0.001053*(M20-20)^2)/(M20+105))))</f>
         <v>10.844220161800315</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Z20" s="4">
         <f t="shared" si="7"/>
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
         <v>12022024</v>
       </c>
-      <c r="F21" s="5">
+      <c r="H21" s="5">
         <v>0.62013888888888891</v>
       </c>
-      <c r="G21" s="5">
+      <c r="I21" s="5">
         <v>0.63680555555555551</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>68.8</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.03</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>24</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.89600000000000002</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>0.46500000000000002</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <f t="shared" si="12"/>
         <v>0.68049999999999999</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>0.14399999999999999</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <f>5704013+49971</f>
         <v>5753984</v>
       </c>
-      <c r="U21" s="4">
+      <c r="W21" s="4">
         <f t="shared" si="11"/>
         <v>25.779446648888889</v>
       </c>
-      <c r="V21" s="4">
+      <c r="X21" s="4">
         <f t="shared" si="13"/>
         <v>10.296268278391164</v>
       </c>
-      <c r="W21" s="4">
+      <c r="Y21" s="4">
         <f t="shared" si="14"/>
         <v>10.536094891054727</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Z21" s="4">
         <f t="shared" si="7"/>
         <v>0.68049999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
         <v>12032024</v>
       </c>
-      <c r="F22" s="5">
+      <c r="H22" s="5">
         <v>0.44861111111111113</v>
       </c>
-      <c r="G22" s="5">
+      <c r="I22" s="5">
         <v>0.46736111111111112</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>172.7</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.04</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>25</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.48499999999999999</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <f t="shared" si="12"/>
         <v>0.52499999999999991</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>4.7E-2</v>
       </c>
+      <c r="U22">
+        <v>6318620</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" ref="W22:W37" si="15">U22/(1200^2)*2.54^2</f>
+        <v>28.309172772222219</v>
+      </c>
       <c r="X22" s="4">
+        <f t="shared" ref="X22:X37" si="16">K22*0.000001/18*1000/T22/(W22/10000)</f>
+        <v>72.109883775745203</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" ref="Y22:Y37" si="17">X22/(0.88862*(1/POWER(10,(1.3272*(20-M22)-0.001053*(M22-20)^2)/(M22+105))))</f>
+        <v>72.115738978099017</v>
+      </c>
+      <c r="Z22" s="4">
         <f t="shared" si="7"/>
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -11615,109 +11654,145 @@
         <v>1</v>
       </c>
       <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
         <v>12032024</v>
       </c>
-      <c r="F23" s="5">
+      <c r="H23" s="5">
         <v>0.48125000000000001</v>
       </c>
-      <c r="G23" s="5">
+      <c r="I23" s="5">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>28</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>68.33</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.02</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>26</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1.0469999999999999</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>1.0549999999999999</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <f t="shared" si="12"/>
         <v>1.0509999999999999</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>0.24</v>
       </c>
+      <c r="U23">
+        <v>5809213</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="15"/>
+        <v>26.026887910277779</v>
+      </c>
       <c r="X23" s="4">
+        <f t="shared" si="16"/>
+        <v>6.077226629689978</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="17"/>
+        <v>5.9417200850098126</v>
+      </c>
+      <c r="Z23" s="4">
         <f t="shared" si="7"/>
         <v>1.0509999999999999</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AB23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <v>12032024</v>
       </c>
-      <c r="F24" s="5">
+      <c r="H24" s="5">
         <v>0.50624999999999998</v>
       </c>
-      <c r="G24" s="5">
+      <c r="I24" s="5">
         <v>0.52361111111111114</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>28</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>59.93</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.02</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>25</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>0.46</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <f t="shared" si="12"/>
         <v>0.45450000000000002</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>0.11</v>
       </c>
+      <c r="U24">
+        <v>5728018</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="15"/>
+        <v>25.66311175611111</v>
+      </c>
       <c r="X24" s="4">
+        <f t="shared" si="16"/>
+        <v>11.794234875070899</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="17"/>
+        <v>11.795192547281504</v>
+      </c>
+      <c r="Z24" s="4">
         <f t="shared" si="7"/>
         <v>0.45450000000000002</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AB24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -11728,106 +11803,142 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>12032024</v>
       </c>
-      <c r="F25" s="5">
+      <c r="H25" s="5">
         <v>0.49791666666666667</v>
       </c>
-      <c r="G25" s="5">
+      <c r="I25" s="5">
         <v>0.51388888888888884</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>70.02</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.05</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>26</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.08</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>0.159</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <f t="shared" si="12"/>
         <v>0.1195</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>0.36399999999999999</v>
       </c>
+      <c r="U25">
+        <v>7240569</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="15"/>
+        <v>32.439760389166665</v>
+      </c>
       <c r="X25" s="4">
+        <f t="shared" si="16"/>
+        <v>3.2943563881507814</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" si="17"/>
+        <v>3.2209007021438709</v>
+      </c>
+      <c r="Z25" s="4">
         <f t="shared" si="7"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AB25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
         <v>12032024</v>
       </c>
-      <c r="F26" s="5">
+      <c r="H26" s="5">
         <v>0.52361111111111114</v>
       </c>
-      <c r="G26" s="5">
+      <c r="I26" s="5">
         <v>0.53749999999999998</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>62.17</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.05</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>25</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>0.25700000000000001</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>0.28599999999999998</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <f t="shared" si="12"/>
         <v>0.27149999999999996</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>0.217</v>
       </c>
+      <c r="U26">
+        <v>5110662</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="15"/>
+        <v>22.897185388333334</v>
+      </c>
       <c r="X26" s="4">
+        <f t="shared" si="16"/>
+        <v>6.9513079396142716</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" si="17"/>
+        <v>6.9518723742309847</v>
+      </c>
+      <c r="Z26" s="4">
         <f t="shared" si="7"/>
         <v>0.27149999999999996</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AB26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -11835,185 +11946,262 @@
         <v>1</v>
       </c>
       <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
         <v>8</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
       <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
         <v>12032024</v>
       </c>
-      <c r="F27" s="5">
+      <c r="H27" s="5">
         <v>0.56874999999999998</v>
       </c>
-      <c r="G27" s="5">
+      <c r="I27" s="5">
         <v>0.59375</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>28</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>82</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.04</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>24</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>0.76300000000000001</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>0.78400000000000003</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <f t="shared" si="12"/>
         <v>0.77350000000000008</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>9.1999999999999998E-2</v>
       </c>
+      <c r="U27">
+        <v>6960039</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="15"/>
+        <v>31.182908064166664</v>
+      </c>
       <c r="X27" s="4">
+        <f t="shared" si="16"/>
+        <v>15.879502999100309</v>
+      </c>
+      <c r="Y27" s="4">
+        <f t="shared" si="17"/>
+        <v>16.249377531511985</v>
+      </c>
+      <c r="Z27" s="4">
         <f t="shared" si="7"/>
         <v>0.77350000000000008</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AB27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
         <v>12032024</v>
       </c>
-      <c r="F28" s="5">
+      <c r="H28" s="5">
         <v>0.60138888888888886</v>
       </c>
-      <c r="G28" s="5">
+      <c r="I28" s="5">
         <v>0.62361111111111112</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>28</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>100.47</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.02</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>25</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>0.26900000000000002</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <f t="shared" si="12"/>
         <v>0.40700000000000003</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="U28">
+        <v>6799317</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="15"/>
+        <v>30.462828859166667</v>
+      </c>
       <c r="X28" s="4">
+        <f t="shared" si="16"/>
+        <v>41.642902303174623</v>
+      </c>
+      <c r="Y28" s="4">
+        <f t="shared" si="17"/>
+        <v>41.646283637422002</v>
+      </c>
+      <c r="Z28" s="4">
         <f t="shared" si="7"/>
         <v>0.40700000000000003</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AB28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>6</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
         <v>12032024</v>
       </c>
-      <c r="F29" s="5">
+      <c r="H29" s="5">
         <v>0.63680555555555551</v>
       </c>
-      <c r="G29" s="5">
+      <c r="I29" s="5">
         <v>0.65486111111111112</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>43.8</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.05</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>23</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <v>7262301</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" si="15"/>
+        <v>32.537125785833332</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="16"/>
+        <v>9.5879953877684496</v>
+      </c>
+      <c r="Y29" s="4">
+        <f t="shared" si="17"/>
+        <v>10.042259594534222</v>
+      </c>
+      <c r="Z29" s="4">
+        <f t="shared" si="7"/>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>12032024</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>0.65208333333333335</v>
       </c>
-      <c r="G30" s="5">
+      <c r="I30" s="5">
         <v>0.67847222222222225</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>37.15</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>0.05</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>23</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="T30">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="U30">
+        <v>8231234</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="15"/>
+        <v>36.878214773888885</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="16"/>
+        <v>10.973527280043323</v>
+      </c>
+      <c r="Y30" s="4">
+        <f t="shared" si="17"/>
+        <v>11.49343581813573</v>
+      </c>
+      <c r="Z30" s="4">
+        <f t="shared" si="7"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AB30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12021,35 +12209,417 @@
         <v>1</v>
       </c>
       <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
         <v>9</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
       <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
         <v>12032024</v>
       </c>
-      <c r="F31" s="5">
+      <c r="H31" s="5">
         <v>0.66249999999999998</v>
       </c>
-      <c r="G31" s="5">
+      <c r="I31" s="5">
         <v>0.6875</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>13.5</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>0.09</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>23</v>
       </c>
-    </row>
-    <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1048576" t="s">
+      <c r="T31">
+        <v>2.4E-2</v>
+      </c>
+      <c r="U31">
+        <v>7932213</v>
+      </c>
+      <c r="W31" s="4">
+        <f t="shared" si="15"/>
+        <v>35.538517632500003</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="16"/>
+        <v>8.7932761639505888</v>
+      </c>
+      <c r="Y31" s="4">
+        <f t="shared" si="17"/>
+        <v>9.2098878184143782</v>
+      </c>
+      <c r="Z31" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>12042024</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>133.63</v>
+      </c>
+      <c r="L32">
+        <v>0.02</v>
+      </c>
+      <c r="M32">
+        <v>23</v>
+      </c>
+      <c r="T32">
+        <v>9.4E-2</v>
+      </c>
+      <c r="U32">
+        <f>5614144</f>
+        <v>5614144</v>
+      </c>
+      <c r="W32" s="4">
+        <f t="shared" si="15"/>
+        <v>25.152924604444443</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="16"/>
+        <v>31.398949670132311</v>
+      </c>
+      <c r="Y32" s="4">
+        <f t="shared" si="17"/>
+        <v>32.886582735056095</v>
+      </c>
+      <c r="Z32" s="4">
+        <f t="shared" si="7"/>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12042024</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>117.4</v>
+      </c>
+      <c r="L33">
+        <v>0.02</v>
+      </c>
+      <c r="M33">
+        <v>24</v>
+      </c>
+      <c r="T33">
+        <v>2.3E-2</v>
+      </c>
+      <c r="U33">
+        <v>5852419</v>
+      </c>
+      <c r="W33" s="4">
+        <f t="shared" si="15"/>
+        <v>26.220462791944446</v>
+      </c>
+      <c r="X33" s="4">
+        <f t="shared" si="16"/>
+        <v>108.15021896340215</v>
+      </c>
+      <c r="Y33" s="4">
+        <f t="shared" si="17"/>
+        <v>110.66931617139255</v>
+      </c>
+      <c r="Z33" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>12042024</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>87.2</v>
+      </c>
+      <c r="L34">
+        <v>0.03</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="T34">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U34">
+        <v>4718232</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" si="15"/>
+        <v>21.138989979999998</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" si="16"/>
+        <v>50.926899104218386</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" si="17"/>
+        <v>53.33973583275197</v>
+      </c>
+      <c r="Z34" s="4">
+        <f t="shared" si="7"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12042024</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>13.93</v>
+      </c>
+      <c r="L35">
+        <v>0.2</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="T35">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="U35">
+        <v>6122877</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="15"/>
+        <v>27.432189759166665</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="16"/>
+        <v>3.0334384440638438</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="17"/>
+        <v>3.1040950399384934</v>
+      </c>
+      <c r="Z35" s="4">
+        <f t="shared" si="7"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12042024</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>6.57</v>
+      </c>
+      <c r="L36">
+        <v>0.2</v>
+      </c>
+      <c r="M36">
+        <v>24</v>
+      </c>
+      <c r="T36">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="U36">
+        <f>7446786</f>
+        <v>7446786</v>
+      </c>
+      <c r="W36" s="4">
+        <f t="shared" si="15"/>
+        <v>33.36366983166667</v>
+      </c>
+      <c r="X36" s="4">
+        <f t="shared" si="16"/>
+        <v>1.4783842596808345</v>
+      </c>
+      <c r="Y36" s="4">
+        <f t="shared" si="17"/>
+        <v>1.512819637589401</v>
+      </c>
+      <c r="Z36" s="4">
+        <f t="shared" si="7"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>12042024</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L37">
+        <v>0.1</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="T37">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="U37">
+        <f>6545171</f>
+        <v>6545171</v>
+      </c>
+      <c r="W37" s="4">
+        <f t="shared" si="15"/>
+        <v>29.324184183055554</v>
+      </c>
+      <c r="X37" s="4">
+        <f t="shared" si="16"/>
+        <v>2.151289015504473</v>
+      </c>
+      <c r="Y37" s="4">
+        <f t="shared" si="17"/>
+        <v>2.2532137201615861</v>
+      </c>
+      <c r="Z37" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1048576" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I1048576" t="s">
         <v>50</v>
       </c>
     </row>

--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A534756-C8CC-40D0-A5A7-4CB0C965DCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711D48D-471C-4355-803A-01C9933B2A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CESE" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="STDE" sheetId="4" r:id="rId4"/>
     <sheet name="DASP" sheetId="5" r:id="rId5"/>
     <sheet name="CHLA" sheetId="6" r:id="rId6"/>
+    <sheet name="ZEMA" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESE!$A$1:$AE$23</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="70">
   <si>
     <t>Specie</t>
   </si>
@@ -221,6 +222,39 @@
   </si>
   <si>
     <t>very low flow but was stable</t>
+  </si>
+  <si>
+    <t>ZEMA</t>
+  </si>
+  <si>
+    <t>no PsiLeaf, leaf broke</t>
+  </si>
+  <si>
+    <t>the leaf was smooched, not ideal, need to find better fitting</t>
+  </si>
+  <si>
+    <t>first bubbles at 0.024</t>
+  </si>
+  <si>
+    <t>long wait because was interrupted by tax form department</t>
+  </si>
+  <si>
+    <t>shorter leaf for the pressure bomb, measured at leaf tip around 9 cm</t>
+  </si>
+  <si>
+    <t>one hour to stabilise, very weird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but there was a leak so start'again' at 09:09 but then was really stable </t>
+  </si>
+  <si>
+    <t>running cv 0.02, stable</t>
+  </si>
+  <si>
+    <t>running cv 0.01 very stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">running cv 0.01 </t>
   </si>
 </sst>
 </file>
@@ -4739,7 +4773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33064BB3-47FF-4DAF-9632-D6C75923AEEE}">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E26"/>
     </sheetView>
   </sheetViews>
@@ -7343,10 +7377,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F80EEFC-0235-4E88-9007-0CE0804F1C9F}">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8580,7 +8614,7 @@
         <v>3.1938569589454042</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" ref="X20:X23" si="14">MAX(Q20:R20)</f>
+        <f t="shared" ref="X20:X29" si="14">MAX(Q20:R20)</f>
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -8765,6 +8799,345 @@
       </c>
       <c r="Z23" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>12122024</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>11.7</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>1849785</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" ref="U24:U29" si="15">S24/(1200^2)*2.54^2</f>
+        <v>8.2875506291666667</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" ref="V24:V29" si="16">I24*0.000001/18*1000/R24/(U24/10000)</f>
+        <v>10.18583031257724</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" ref="W24:W29" si="17">V24/(0.88862*(1/POWER(10,(1.3272*(20-K24)-0.001053*(K24-20)^2)/(K24+105))))</f>
+        <v>10.668419001876826</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="14"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>12122024</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="J25">
+        <v>0.05</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <v>0.104</v>
+      </c>
+      <c r="S25">
+        <v>3017289</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="15"/>
+        <v>13.518292855833332</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="16"/>
+        <v>13.542112252527783</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="17"/>
+        <v>14.183716324237642</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="14"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>12122024</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>32.6</v>
+      </c>
+      <c r="J26">
+        <v>0.05</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="14"/>
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>12122024</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>65.2</v>
+      </c>
+      <c r="J27">
+        <v>0.04</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="14"/>
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>12122024</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>23.17</v>
+      </c>
+      <c r="J28">
+        <v>0.06</v>
+      </c>
+      <c r="K28">
+        <v>23</v>
+      </c>
+      <c r="R28">
+        <v>0.104</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="14"/>
+        <v>0.104</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>12122024</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>13.47</v>
+      </c>
+      <c r="J29">
+        <v>0.09</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="R29">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="14"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -10230,9 +10603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E21FF7F-5593-4259-A4BA-F4FE44134BEE}">
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12626,4 +12999,1901 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58711BA0-843B-41FF-A312-D39246D429D2}">
+  <dimension ref="A1:AE32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="17.21875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13" t="e">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12052024</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>43.73</v>
+      </c>
+      <c r="J3">
+        <v>0.04</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U18" si="0">S3/(1200^2)*2.54^2</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="4" t="e">
+        <f t="shared" ref="V3:V18" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="4" t="e">
+        <f t="shared" ref="W3:W18" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X32" si="3">MAX(Q3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>12052024</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>12062024</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>62</v>
+      </c>
+      <c r="J5">
+        <v>0.05</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="R5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="S5">
+        <v>13378965</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>59.941479579166668</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6817969572582454</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5328100470928279</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>12062024</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>121.93</v>
+      </c>
+      <c r="J6">
+        <v>0.03</v>
+      </c>
+      <c r="K6">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="S6">
+        <v>15255156</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>68.347336423333331</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5650996907387573</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4856071244796349</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>12062024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>123.17</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="S7">
+        <v>13119866</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="0"/>
+        <v>58.780644087222228</v>
+      </c>
+      <c r="V7" s="4">
+        <f>I7*0.000001/18*1000/K7/(U7/10000)</f>
+        <v>4.65648370073935E-2</v>
+      </c>
+      <c r="W7" s="4">
+        <f>V7/(0.88862*(1/POWER(10,(1.3272*(20-R7)-0.001053*(R7-20)^2)/(R7+105))))</f>
+        <v>9.2709282164009865E-2</v>
+      </c>
+      <c r="X7" s="4">
+        <f>MAX(R7:R7)</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>12062024</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>76.73</v>
+      </c>
+      <c r="J8">
+        <v>0.03</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="S8">
+        <v>14134963</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="0"/>
+        <v>63.328560618611107</v>
+      </c>
+      <c r="V8" s="4">
+        <f>I8*0.000001/18*1000/K8/(U8/10000)</f>
+        <v>2.6924836036933558E-2</v>
+      </c>
+      <c r="W8" s="4">
+        <f>V8/(0.88862*(1/POWER(10,(1.3272*(20-R8)-0.001053*(R8-20)^2)/(R8+105))))</f>
+        <v>5.267191150476299E-2</v>
+      </c>
+      <c r="X8" s="4">
+        <f>MAX(R8:R8)</f>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>12062024</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>188.77</v>
+      </c>
+      <c r="J9">
+        <v>0.01</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>0.08</v>
+      </c>
+      <c r="S9">
+        <v>13385285</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="0"/>
+        <v>59.969794934722223</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>21.859384031656429</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="2"/>
+        <v>22.368545398229067</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>12102024</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.37291666666666667</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="R10">
+        <v>0.87</v>
+      </c>
+      <c r="S10">
+        <v>13030974</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="0"/>
+        <v>58.382383234999999</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.44625858697601511</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.43630816668733524</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>12102024</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>79.2</v>
+      </c>
+      <c r="J11">
+        <v>0.02</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="R11">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S11">
+        <v>20417957</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="0"/>
+        <v>91.478119014722225</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9328618233137371</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8674665376154831</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>12102024</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.40138888888888891</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>261.93</v>
+      </c>
+      <c r="J12">
+        <v>0.01</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="S12">
+        <v>16946131</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="0"/>
+        <v>75.923374138611123</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="1"/>
+        <v>21.061817486731385</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="2"/>
+        <v>21.063527671200792</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>12102024</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.43263888888888891</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>112.9</v>
+      </c>
+      <c r="J13">
+        <v>0.05</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S13">
+        <v>15465925</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="0"/>
+        <v>69.291640090277781</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="1"/>
+        <v>19.25939932568437</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="2"/>
+        <v>19.260963156803772</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="3"/>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12102024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>232.6</v>
+      </c>
+      <c r="J14">
+        <v>0.02</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="S14">
+        <v>13527094</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="0"/>
+        <v>60.605138646111108</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="1"/>
+        <v>14.806938211129051</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="2"/>
+        <v>14.476781520167345</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>12102024</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>79.2</v>
+      </c>
+      <c r="J15">
+        <v>0.05</v>
+      </c>
+      <c r="K15">
+        <v>26</v>
+      </c>
+      <c r="R15">
+        <v>0.155</v>
+      </c>
+      <c r="S15">
+        <v>8803209</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="0"/>
+        <v>39.440821655833332</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1973898064050781</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0369064999874027</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.155</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>12102024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.67083333333333328</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>201.47</v>
+      </c>
+      <c r="J16">
+        <v>0.04</v>
+      </c>
+      <c r="K16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="S16">
+        <v>21421647</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="0"/>
+        <v>95.974929017500003</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0975160377667299</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1463725897469095</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>12102024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>160.77000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.03</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S17">
+        <v>12640218</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="0"/>
+        <v>56.631687811666666</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="1"/>
+        <v>18.554705931067421</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="2"/>
+        <v>18.140983645972423</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>12102024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>109.33</v>
+      </c>
+      <c r="J18">
+        <v>0.05</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="R18">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="S18">
+        <v>14173680</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="0"/>
+        <v>63.502023533333329</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2611996576623818</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2613832633051141</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>12112024</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>148.77000000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.04</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="R19">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S19">
+        <v>20908017</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" ref="U19:U28" si="4">S19/(1200^2)*2.54^2</f>
+        <v>93.67372394249999</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" ref="V19:V28" si="5">I19*0.000001/18*1000/R19/(U19/10000)</f>
+        <v>1.5344658500287061</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" ref="W19:W28" si="6">V19/(0.88862*(1/POWER(10,(1.3272*(20-K19)-0.001053*(K19-20)^2)/(K19+105))))</f>
+        <v>1.5702075126495834</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>12112024</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.40138888888888891</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>258.5</v>
+      </c>
+      <c r="J20">
+        <v>0.01</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="S20">
+        <v>26332259</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="4"/>
+        <v>117.97583483638888</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="5"/>
+        <v>6.7253734987373246</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="6"/>
+        <v>6.7259195878540758</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>12112024</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>120.67</v>
+      </c>
+      <c r="J21">
+        <v>0.03</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>0.433</v>
+      </c>
+      <c r="S21">
+        <v>16172823</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="4"/>
+        <v>72.458739490833338</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="5"/>
+        <v>2.136722565832859</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="6"/>
+        <v>2.1368960641432411</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>12112024</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>203.57</v>
+      </c>
+      <c r="J22">
+        <v>0.03</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="R22">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="S22">
+        <v>17956261</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="4"/>
+        <v>80.449037130277773</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1171534747501242</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="6"/>
+        <v>2.1173253840829322</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>12112024</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>20.7</v>
+      </c>
+      <c r="J23">
+        <v>0.05</v>
+      </c>
+      <c r="K23">
+        <v>23</v>
+      </c>
+      <c r="R23">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S23">
+        <v>8346696</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="4"/>
+        <v>37.395516606666668</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3475076027251531</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="6"/>
+        <v>2.4587288367683997</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>12112024</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>23.4</v>
+      </c>
+      <c r="J24">
+        <v>0.05</v>
+      </c>
+      <c r="K24">
+        <v>24</v>
+      </c>
+      <c r="R24">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>16308608</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>73.067094008888887</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3569559894921359</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="6"/>
+        <v>3.4351481424209984</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>12112024</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>35.53</v>
+      </c>
+      <c r="J25">
+        <v>0.03</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S25">
+        <v>22384129</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="4"/>
+        <v>100.2871157336111</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="5"/>
+        <v>3.5786141246916698</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="6"/>
+        <v>3.6619692666080854</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="3"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>12122024</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>37.03</v>
+      </c>
+      <c r="J26">
+        <v>0.05</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>18933357</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="4"/>
+        <v>84.82669862583333</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9757476135454244</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="6"/>
+        <v>4.1641123094934551</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="3"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>12122024</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>32.93</v>
+      </c>
+      <c r="J27">
+        <v>0.05</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="S27">
+        <v>16757909</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="4"/>
+        <v>75.080087294722219</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="5"/>
+        <v>4.6858794654194593</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="6"/>
+        <v>4.7950256695738149</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="3"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>12122024</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J28">
+        <v>0.05</v>
+      </c>
+      <c r="K28">
+        <v>23</v>
+      </c>
+      <c r="R28">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S28">
+        <v>19532583</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="4"/>
+        <v>87.51139755749999</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="5"/>
+        <v>4.8622815128220234</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="6"/>
+        <v>5.0926487966143918</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="3"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>12122024</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>41.4</v>
+      </c>
+      <c r="J29">
+        <v>0.05</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="R29">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="S29">
+        <v>20999312</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" ref="U29:U32" si="7">S29/(1200^2)*2.54^2</f>
+        <v>94.08275090222223</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" ref="V29:V32" si="8">I29*0.000001/18*1000/R29/(U29/10000)</f>
+        <v>4.3654578737937886</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" ref="W29:W32" si="9">V29/(0.88862*(1/POWER(10,(1.3272*(20-K29)-0.001053*(K29-20)^2)/(K29+105))))</f>
+        <v>4.4671406336335542</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>12122024</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="J30">
+        <v>0.04</v>
+      </c>
+      <c r="K30">
+        <v>24</v>
+      </c>
+      <c r="R30">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="S30">
+        <v>28234922</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="7"/>
+        <v>126.50029359388888</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="8"/>
+        <v>5.3641885666280364</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="9"/>
+        <v>5.4891343371576315</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>12122024</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>31.9</v>
+      </c>
+      <c r="J31">
+        <v>0.03</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="R31">
+        <v>0.08</v>
+      </c>
+      <c r="S31">
+        <v>15440013</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="7"/>
+        <v>69.1755471325</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" si="8"/>
+        <v>3.2024000815412377</v>
+      </c>
+      <c r="W31" s="4">
+        <f t="shared" si="9"/>
+        <v>3.3541247824775566</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>12122024</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>27.76</v>
+      </c>
+      <c r="J32">
+        <v>0.06</v>
+      </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="R32">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S32">
+        <v>23530515</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="7"/>
+        <v>105.42324345416668</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="8"/>
+        <v>4.7189881768607336</v>
+      </c>
+      <c r="W32" s="4">
+        <f t="shared" si="9"/>
+        <v>5.060563198583699</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711D48D-471C-4355-803A-01C9933B2A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C60F3-5567-4083-8E0C-E481918DE456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
@@ -7379,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F80EEFC-0235-4E88-9007-0CE0804F1C9F}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8490,7 +8490,7 @@
         <v>8.9605824372222234</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="8"/>
+        <f>I18*0.000001/18*1000/R18/(U18/10000)</f>
         <v>0.7872935047794174</v>
       </c>
       <c r="W18" s="4">
@@ -8955,17 +8955,20 @@
       <c r="R26">
         <v>0.14899999999999999</v>
       </c>
+      <c r="S26">
+        <v>1989031</v>
+      </c>
       <c r="U26" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="4" t="e">
+        <v>8.9114113886111124</v>
+      </c>
+      <c r="V26" s="4">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="4" t="e">
+        <v>13.639936030556127</v>
+      </c>
+      <c r="W26" s="4">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>14.286174839677892</v>
       </c>
       <c r="X26" s="4">
         <f t="shared" si="14"/>
@@ -9009,17 +9012,20 @@
       <c r="R27">
         <v>0.32300000000000001</v>
       </c>
+      <c r="S27">
+        <v>1588721</v>
+      </c>
       <c r="U27" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="4" t="e">
+        <v>7.1179113913888887</v>
+      </c>
+      <c r="V27" s="4">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="4" t="e">
+        <v>15.755057444357304</v>
+      </c>
+      <c r="W27" s="4">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>16.122033319211884</v>
       </c>
       <c r="X27" s="4">
         <f t="shared" si="14"/>
@@ -9063,17 +9069,20 @@
       <c r="R28">
         <v>0.104</v>
       </c>
+      <c r="S28">
+        <v>1908967</v>
+      </c>
       <c r="U28" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="4" t="e">
+        <v>8.5527024286111111</v>
+      </c>
+      <c r="V28" s="4">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="4" t="e">
+        <v>14.471609243333278</v>
+      </c>
+      <c r="W28" s="4">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>15.157251426884335</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" si="14"/>
@@ -9120,17 +9129,20 @@
       <c r="R29">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="S29">
+        <v>2715744</v>
+      </c>
       <c r="U29" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="4" t="e">
+        <v>12.167287493333333</v>
+      </c>
+      <c r="V29" s="4">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="4" t="e">
+        <v>11.604473768769109</v>
+      </c>
+      <c r="W29" s="4">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>11.874771857402628</v>
       </c>
       <c r="X29" s="4">
         <f t="shared" si="14"/>
@@ -13005,8 +13017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58711BA0-843B-41FF-A312-D39246D429D2}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38:Y55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14894,6 +14906,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W38:X55">
+    <sortCondition ref="X38:X55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C60F3-5567-4083-8E0C-E481918DE456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA48A79-0867-4064-8970-920276F0E5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CESE" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="DASP" sheetId="5" r:id="rId5"/>
     <sheet name="CHLA" sheetId="6" r:id="rId6"/>
     <sheet name="ZEMA" sheetId="7" r:id="rId7"/>
+    <sheet name="NAVI" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESE!$A$1:$AE$23</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="80">
   <si>
     <t>Specie</t>
   </si>
@@ -256,6 +257,36 @@
   <si>
     <t xml:space="preserve">running cv 0.01 </t>
   </si>
+  <si>
+    <t>NAVI</t>
+  </si>
+  <si>
+    <t>leaf broke teared a little doing pressure bomb</t>
+  </si>
+  <si>
+    <t>but running cv 0.03and stable</t>
+  </si>
+  <si>
+    <t>running CV 0.07 but stable cf drawing in my notes</t>
+  </si>
+  <si>
+    <t>running cv is 0.02</t>
+  </si>
+  <si>
+    <t>leaf teared in the pressure bomb</t>
+  </si>
+  <si>
+    <t>but running cv was 0.026</t>
+  </si>
+  <si>
+    <t>but running cv was 0.01</t>
+  </si>
+  <si>
+    <t>leaf broke, noticed after the measurement</t>
+  </si>
+  <si>
+    <t>running cv 0.009</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +384,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7377,10 +7410,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F80EEFC-0235-4E88-9007-0CE0804F1C9F}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8614,7 +8647,7 @@
         <v>3.1938569589454042</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" ref="X20:X29" si="14">MAX(Q20:R20)</f>
+        <f t="shared" ref="X20:X32" si="14">MAX(Q20:R20)</f>
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -8842,15 +8875,15 @@
         <v>1849785</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" ref="U24:U29" si="15">S24/(1200^2)*2.54^2</f>
+        <f t="shared" ref="U24:U32" si="15">S24/(1200^2)*2.54^2</f>
         <v>8.2875506291666667</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" ref="V24:V29" si="16">I24*0.000001/18*1000/R24/(U24/10000)</f>
+        <f t="shared" ref="V24:V32" si="16">I24*0.000001/18*1000/R24/(U24/10000)</f>
         <v>10.18583031257724</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" ref="W24:W29" si="17">V24/(0.88862*(1/POWER(10,(1.3272*(20-K24)-0.001053*(K24-20)^2)/(K24+105))))</f>
+        <f t="shared" ref="W24:W32" si="17">V24/(0.88862*(1/POWER(10,(1.3272*(20-K24)-0.001053*(K24-20)^2)/(K24+105))))</f>
         <v>10.668419001876826</v>
       </c>
       <c r="X24" s="4">
@@ -9150,6 +9183,186 @@
       </c>
       <c r="Z29" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>12192024</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>33.03</v>
+      </c>
+      <c r="J30">
+        <v>0.03</v>
+      </c>
+      <c r="K30">
+        <v>23</v>
+      </c>
+      <c r="R30">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="S30">
+        <v>2043504</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="15"/>
+        <v>9.1554655599999997</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="16"/>
+        <v>5.792679982614108</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="17"/>
+        <v>6.0671280889103514</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="14"/>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>12192024</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>35.53</v>
+      </c>
+      <c r="J31">
+        <v>0.03</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="R31">
+        <v>0.435</v>
+      </c>
+      <c r="S31">
+        <v>2118510</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="15"/>
+        <v>9.4915132750000009</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" si="16"/>
+        <v>4.7807714904566918</v>
+      </c>
+      <c r="W31" s="4">
+        <f t="shared" si="17"/>
+        <v>5.0072769570332865</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="14"/>
+        <v>0.435</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>12192024</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>11.43</v>
+      </c>
+      <c r="J32">
+        <v>0.06</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="R32">
+        <v>0.69</v>
+      </c>
+      <c r="S32">
+        <v>1508781</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="15"/>
+        <v>6.7597579858333336</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3614242654857587</v>
+      </c>
+      <c r="W32" s="4">
+        <f t="shared" si="17"/>
+        <v>1.4259264152074329</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="14"/>
+        <v>0.69</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -14911,4 +15124,2017 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84331826-8D16-4BA7-9683-E7E875A388D4}">
+  <dimension ref="A1:AE34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13" t="e">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>12172024</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>143.13</v>
+      </c>
+      <c r="J3">
+        <v>0.01</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>0.156</v>
+      </c>
+      <c r="S3">
+        <v>2207061</v>
+      </c>
+      <c r="U3" s="16">
+        <f t="shared" ref="U3:U31" si="0">S3/(1200^2)*2.54^2</f>
+        <v>9.8882463524999995</v>
+      </c>
+      <c r="V3" s="16">
+        <f t="shared" ref="V3:V31" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>51.548293200983167</v>
+      </c>
+      <c r="W3" s="16">
+        <f t="shared" ref="W3:W31" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>52.748985744409367</v>
+      </c>
+      <c r="X3" s="16">
+        <f t="shared" ref="X3:X34" si="3">MAX(Q3:R3)</f>
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>12172024</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>69.37</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="R4">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="S4">
+        <v>2386921</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>10.694069113611111</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="1"/>
+        <v>1.626980966514223</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" si="2"/>
+        <v>1.6271130746564908</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" si="3"/>
+        <v>2.2149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>12172024</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>40.97</v>
+      </c>
+      <c r="J5">
+        <v>0.05</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="S5">
+        <v>2439568</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>10.929942297777778</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0533408337409196</v>
+      </c>
+      <c r="W5" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0534263632606768</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>12172024</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>187.4</v>
+      </c>
+      <c r="J6">
+        <v>0.02</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+      <c r="R6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="S6">
+        <v>3283581</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>14.711354985833335</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="1"/>
+        <v>85.264119959470463</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="2"/>
+        <v>87.25014096423925</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="3"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>12172024</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>16.7</v>
+      </c>
+      <c r="J7">
+        <v>0.09</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="S7">
+        <v>1968755</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="0"/>
+        <v>8.8205692763888894</v>
+      </c>
+      <c r="V7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.67642080577725283</v>
+      </c>
+      <c r="W7" s="16">
+        <f t="shared" si="2"/>
+        <v>0.67647573001907346</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="3"/>
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>12172024</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>74.83</v>
+      </c>
+      <c r="J8">
+        <v>0.03</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="S8">
+        <v>1823104</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1680123377777782</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" si="1"/>
+        <v>11.411743363416814</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="2"/>
+        <v>11.677552264412331</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="3"/>
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>12172024</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>89.73</v>
+      </c>
+      <c r="J9">
+        <v>0.02</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="R9">
+        <v>2.11</v>
+      </c>
+      <c r="S9">
+        <v>4184197</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>18.746364836944444</v>
+      </c>
+      <c r="V9" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2602759320303754</v>
+      </c>
+      <c r="W9" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2603782643351484</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="3"/>
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>12172024</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>99.78</v>
+      </c>
+      <c r="J10">
+        <v>0.05</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>1.85</v>
+      </c>
+      <c r="S10">
+        <v>2933375</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="0"/>
+        <v>13.14233482638889</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="1"/>
+        <v>2.2799574322059133</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="2"/>
+        <v>2.3330635142541656</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="3"/>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>12172024</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>43.93</v>
+      </c>
+      <c r="J11">
+        <v>0.04</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(K3:K10,K12:K15)</f>
+        <v>24.5</v>
+      </c>
+      <c r="R11">
+        <v>0.11</v>
+      </c>
+      <c r="S11">
+        <v>1471589</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="0"/>
+        <v>6.5931274947222223</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="1"/>
+        <v>33.651508642338861</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="2"/>
+        <v>34.04120133348399</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>12172024</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>2.8</v>
+      </c>
+      <c r="S12">
+        <v>2824028</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="0"/>
+        <v>12.652429892222223</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="1"/>
+        <v>7.7646621139471021E-3</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="2"/>
+        <v>7.765292591566891E-3</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>12172024</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>77.63</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K13" s="15">
+        <v>24</v>
+      </c>
+      <c r="R13">
+        <v>1.33</v>
+      </c>
+      <c r="S13">
+        <v>2058880</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="0"/>
+        <v>9.2243543111111119</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="1"/>
+        <v>3.5153572262218704</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="2"/>
+        <v>3.5972389520153345</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="3"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12172024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="15">
+        <v>19.07</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K14" s="15">
+        <v>25</v>
+      </c>
+      <c r="R14">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="S14">
+        <v>1954502</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="0"/>
+        <v>8.756711877222223</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="1"/>
+        <v>0.52149379187689426</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="2"/>
+        <v>0.52153613630345297</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="3"/>
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>12172024</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="15">
+        <v>86.37</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="15">
+        <v>24</v>
+      </c>
+      <c r="R15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="S15">
+        <v>2228321</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="0"/>
+        <v>9.9834970580555549</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="1"/>
+        <v>49.549124584531697</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="2"/>
+        <v>50.70325134077526</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="3"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>12182024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="15">
+        <v>105.78</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="15">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>1.94</v>
+      </c>
+      <c r="S16">
+        <v>3496221</v>
+      </c>
+      <c r="U16" s="16">
+        <f t="shared" si="0"/>
+        <v>15.664041252499999</v>
+      </c>
+      <c r="V16" s="16">
+        <f t="shared" si="1"/>
+        <v>1.933862132487465</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="2"/>
+        <v>1.9789067634210009</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="3"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>12182024</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.38263888888888886</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="15">
+        <v>26.8</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="15">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2294812</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="0"/>
+        <v>10.281395207777779</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.72406947636958763</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="2"/>
+        <v>0.72412826960402898</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>12182024</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="15">
+        <v>124.17</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="15">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <v>1.98</v>
+      </c>
+      <c r="S18">
+        <v>4142713</v>
+      </c>
+      <c r="U18" s="16">
+        <f t="shared" si="0"/>
+        <v>18.560504993611112</v>
+      </c>
+      <c r="V18" s="16">
+        <f t="shared" si="1"/>
+        <v>1.8771077269750995</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="2"/>
+        <v>1.9208304015978883</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="3"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>12182024</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="15">
+        <v>30.9</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="15">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>2.11</v>
+      </c>
+      <c r="S19">
+        <v>1448956</v>
+      </c>
+      <c r="U19" s="16">
+        <f t="shared" si="0"/>
+        <v>6.4917253677777786</v>
+      </c>
+      <c r="V19" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2532663534791386</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2533681166178183</v>
+      </c>
+      <c r="X19" s="16">
+        <f t="shared" si="3"/>
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>12182024</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="15">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="15">
+        <v>26</v>
+      </c>
+      <c r="R20">
+        <v>2.11</v>
+      </c>
+      <c r="S20">
+        <v>2674281</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="0"/>
+        <v>11.981521735833333</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="1"/>
+        <v>1.4261912132984851</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3943908123683739</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>12182024</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="15">
+        <v>102.18</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R21">
+        <v>1.06</v>
+      </c>
+      <c r="S21">
+        <f>3440799</f>
+        <v>3440799</v>
+      </c>
+      <c r="U21" s="16">
+        <f t="shared" si="0"/>
+        <v>15.415735297499999</v>
+      </c>
+      <c r="V21" s="16">
+        <f t="shared" si="1"/>
+        <v>3.4739477609077603</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="2"/>
+        <v>6.932594070059837</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" si="3"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>12182024</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="15">
+        <v>119.5</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K22" s="15">
+        <v>25</v>
+      </c>
+      <c r="R22">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="S22">
+        <v>2544666</v>
+      </c>
+      <c r="U22" s="16">
+        <f t="shared" si="0"/>
+        <v>11.400810531666666</v>
+      </c>
+      <c r="V22" s="16">
+        <f t="shared" si="1"/>
+        <v>21.09845188882462</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="2"/>
+        <v>21.100165047946408</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="3"/>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>12182024</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="15">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K23" s="15">
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="S23">
+        <v>3639298</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" si="0"/>
+        <v>16.305065956111111</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" si="1"/>
+        <v>1.4377666157450395</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4712559040902695</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="3"/>
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>12182024</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>17.93</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K24" s="15">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="S24">
+        <v>2354118</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="0"/>
+        <v>10.547102561666666</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2345627815630753</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2930544328403317</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="3"/>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>12182024</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>12.23</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="15">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="S25">
+        <v>2170297</v>
+      </c>
+      <c r="U25" s="16">
+        <f t="shared" si="0"/>
+        <v>9.7235334202777768</v>
+      </c>
+      <c r="V25" s="16">
+        <f t="shared" si="1"/>
+        <v>2.9483666811793827</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="2"/>
+        <v>3.017041736541076</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>12182024</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>58.03</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K26" s="15">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="S26">
+        <v>2648266</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="0"/>
+        <v>11.864967309444443</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" si="1"/>
+        <v>37.22122475337563</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="2"/>
+        <v>38.984708094117828</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="3"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12182024</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>8.83</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K27" s="15">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S27">
+        <v>1084842</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="0"/>
+        <v>4.8603935050000002</v>
+      </c>
+      <c r="V27" s="16">
+        <f t="shared" si="1"/>
+        <v>1.8023068761632366</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.8442872462743791</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>12192024</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>36.4</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K28" s="15">
+        <v>23</v>
+      </c>
+      <c r="R28">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="S28">
+        <v>1964981</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" si="0"/>
+        <v>8.8036607080555562</v>
+      </c>
+      <c r="V28" s="16">
+        <f t="shared" si="1"/>
+        <v>3.4131118274703223</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="2"/>
+        <v>3.5748197209562349</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="3"/>
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <v>20.63</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K29" s="15">
+        <v>23</v>
+      </c>
+      <c r="R29">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="S29">
+        <v>2853960</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="0"/>
+        <v>12.786533566666668</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="1"/>
+        <v>4.6203212166372989</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="2"/>
+        <v>4.8392248005038851</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="3"/>
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>23.16</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="15">
+        <v>23</v>
+      </c>
+      <c r="R30">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="S30">
+        <v>2559226</v>
+      </c>
+      <c r="U30" s="16">
+        <f t="shared" si="0"/>
+        <v>11.466043376111111</v>
+      </c>
+      <c r="V30" s="16">
+        <f t="shared" si="1"/>
+        <v>8.4372482698040336</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="2"/>
+        <v>8.8369918801793474</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" si="3"/>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <v>7.67</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="K31" s="15">
+        <v>22</v>
+      </c>
+      <c r="R31">
+        <v>2.17</v>
+      </c>
+      <c r="S31">
+        <v>1549126</v>
+      </c>
+      <c r="U31" s="16">
+        <f t="shared" si="0"/>
+        <v>6.9405147927777779</v>
+      </c>
+      <c r="V31" s="16">
+        <f t="shared" si="1"/>
+        <v>0.28292507572585829</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="2"/>
+        <v>0.3034040714904378</v>
+      </c>
+      <c r="X31" s="16">
+        <f t="shared" si="3"/>
+        <v>2.17</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>26.43</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K32" s="15">
+        <v>23</v>
+      </c>
+      <c r="R32">
+        <v>0.156</v>
+      </c>
+      <c r="S32">
+        <v>1676287</v>
+      </c>
+      <c r="U32" s="16">
+        <f t="shared" ref="U32:U34" si="4">S32/(1200^2)*2.54^2</f>
+        <v>7.5102313952777768</v>
+      </c>
+      <c r="V32" s="16">
+        <f t="shared" ref="V32:V34" si="5">I32*0.000001/18*1000/R32/(U32/10000)</f>
+        <v>12.532760532932997</v>
+      </c>
+      <c r="W32" s="16">
+        <f t="shared" ref="W32:W34" si="6">V32/(0.88862*(1/POWER(10,(1.3272*(20-K32)-0.001053*(K32-20)^2)/(K32+105))))</f>
+        <v>13.126543100803344</v>
+      </c>
+      <c r="X32" s="16">
+        <f t="shared" si="3"/>
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>18.3</v>
+      </c>
+      <c r="J33" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K33" s="15">
+        <v>23</v>
+      </c>
+      <c r="R33">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S33">
+        <v>1908448</v>
+      </c>
+      <c r="U33" s="16">
+        <f t="shared" si="4"/>
+        <v>8.5503771644444448</v>
+      </c>
+      <c r="V33" s="16">
+        <f t="shared" si="5"/>
+        <v>15.243991912297034</v>
+      </c>
+      <c r="W33" s="16">
+        <f t="shared" si="6"/>
+        <v>15.966228377159911</v>
+      </c>
+      <c r="X33" s="16">
+        <f t="shared" si="3"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <v>20.73</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K34" s="15">
+        <v>22</v>
+      </c>
+      <c r="R34">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="S34">
+        <v>2717664</v>
+      </c>
+      <c r="U34" s="16">
+        <f t="shared" si="4"/>
+        <v>12.175889626666667</v>
+      </c>
+      <c r="V34" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0884445720725633</v>
+      </c>
+      <c r="W34" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1672295709782519</v>
+      </c>
+      <c r="X34" s="16">
+        <f t="shared" si="3"/>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA48A79-0867-4064-8970-920276F0E5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30CC8CE-314B-4463-93DF-CD4E02A77C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CESE" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CHLA" sheetId="6" r:id="rId6"/>
     <sheet name="ZEMA" sheetId="7" r:id="rId7"/>
     <sheet name="NAVI" sheetId="8" r:id="rId8"/>
+    <sheet name="PABI" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESE!$A$1:$AE$23</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="82">
   <si>
     <t>Specie</t>
   </si>
@@ -287,6 +288,12 @@
   <si>
     <t>running cv 0.009</t>
   </si>
+  <si>
+    <t>PABI</t>
+  </si>
+  <si>
+    <t>started a little late because of balance connexion problem</t>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,8 +391,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,7 +928,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-150"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2890,9 +2895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF746F-B21E-4AE2-A531-A971B17E5B05}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4807,7 +4812,7 @@
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E26"/>
+      <selection activeCell="F1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7412,7 +7417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F80EEFC-0235-4E88-9007-0CE0804F1C9F}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
@@ -15348,19 +15353,19 @@
       <c r="S3">
         <v>2207061</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="4">
         <f t="shared" ref="U3:U31" si="0">S3/(1200^2)*2.54^2</f>
         <v>9.8882463524999995</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="4">
         <f t="shared" ref="V3:V31" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
         <v>51.548293200983167</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="4">
         <f t="shared" ref="W3:W31" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
         <v>52.748985744409367</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="4">
         <f t="shared" ref="X3:X34" si="3">MAX(Q3:R3)</f>
         <v>0.156</v>
       </c>
@@ -15405,19 +15410,19 @@
       <c r="S4">
         <v>2386921</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="4">
         <f t="shared" si="0"/>
         <v>10.694069113611111</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="4">
         <f t="shared" si="1"/>
         <v>1.626980966514223</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="4">
         <f t="shared" si="2"/>
         <v>1.6271130746564908</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="4">
         <f t="shared" si="3"/>
         <v>2.2149999999999999</v>
       </c>
@@ -15462,19 +15467,19 @@
       <c r="S5">
         <v>2439568</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="4">
         <f t="shared" si="0"/>
         <v>10.929942297777778</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="4">
         <f t="shared" si="1"/>
         <v>1.0533408337409196</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="4">
         <f t="shared" si="2"/>
         <v>1.0534263632606768</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="4">
         <f t="shared" si="3"/>
         <v>1.9770000000000001</v>
       </c>
@@ -15522,19 +15527,19 @@
       <c r="S6">
         <v>3283581</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="4">
         <f t="shared" si="0"/>
         <v>14.711354985833335</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="4">
         <f t="shared" si="1"/>
         <v>85.264119959470463</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="4">
         <f t="shared" si="2"/>
         <v>87.25014096423925</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="4">
         <f t="shared" si="3"/>
         <v>8.3000000000000004E-2</v>
       </c>
@@ -15579,19 +15584,19 @@
       <c r="S7">
         <v>1968755</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="4">
         <f t="shared" si="0"/>
         <v>8.8205692763888894</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="4">
         <f t="shared" si="1"/>
         <v>0.67642080577725283</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="4">
         <f t="shared" si="2"/>
         <v>0.67647573001907346</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="4">
         <f t="shared" si="3"/>
         <v>1.5549999999999999</v>
       </c>
@@ -15639,19 +15644,19 @@
       <c r="S8">
         <v>1823104</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="4">
         <f t="shared" si="0"/>
         <v>8.1680123377777782</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="4">
         <f t="shared" si="1"/>
         <v>11.411743363416814</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="4">
         <f t="shared" si="2"/>
         <v>11.677552264412331</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="4">
         <f t="shared" si="3"/>
         <v>0.44600000000000001</v>
       </c>
@@ -15696,19 +15701,19 @@
       <c r="S9">
         <v>4184197</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="4">
         <f t="shared" si="0"/>
         <v>18.746364836944444</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="4">
         <f t="shared" si="1"/>
         <v>1.2602759320303754</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="4">
         <f t="shared" si="2"/>
         <v>1.2603782643351484</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="4">
         <f t="shared" si="3"/>
         <v>2.11</v>
       </c>
@@ -15753,19 +15758,19 @@
       <c r="S10">
         <v>2933375</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="4">
         <f t="shared" si="0"/>
         <v>13.14233482638889</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="4">
         <f t="shared" si="1"/>
         <v>2.2799574322059133</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="4">
         <f t="shared" si="2"/>
         <v>2.3330635142541656</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="4">
         <f t="shared" si="3"/>
         <v>1.85</v>
       </c>
@@ -15811,19 +15816,19 @@
       <c r="S11">
         <v>1471589</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="4">
         <f t="shared" si="0"/>
         <v>6.5931274947222223</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="4">
         <f t="shared" si="1"/>
         <v>33.651508642338861</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="4">
         <f t="shared" si="2"/>
         <v>34.04120133348399</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="4">
         <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
@@ -15856,10 +15861,10 @@
       <c r="I12" s="5">
         <v>0.49513888888888891</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12">
         <v>0.1</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12">
         <v>25</v>
       </c>
       <c r="R12">
@@ -15868,19 +15873,19 @@
       <c r="S12">
         <v>2824028</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="4">
         <f t="shared" si="0"/>
         <v>12.652429892222223</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="4">
         <f t="shared" si="1"/>
         <v>7.7646621139471021E-3</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="4">
         <f t="shared" si="2"/>
         <v>7.765292591566891E-3</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="4">
         <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
@@ -15916,10 +15921,10 @@
       <c r="I13">
         <v>77.63</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13">
         <v>0.04</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13">
         <v>24</v>
       </c>
       <c r="R13">
@@ -15928,19 +15933,19 @@
       <c r="S13">
         <v>2058880</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="4">
         <f t="shared" si="0"/>
         <v>9.2243543111111119</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="4">
         <f t="shared" si="1"/>
         <v>3.5153572262218704</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="4">
         <f t="shared" si="2"/>
         <v>3.5972389520153345</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13" s="4">
         <f t="shared" si="3"/>
         <v>1.33</v>
       </c>
@@ -15955,7 +15960,7 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
@@ -15970,13 +15975,13 @@
       <c r="H14" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14">
         <v>19.07</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14">
         <v>0.05</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14">
         <v>25</v>
       </c>
       <c r="R14">
@@ -15985,19 +15990,19 @@
       <c r="S14">
         <v>1954502</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="4">
         <f t="shared" si="0"/>
         <v>8.756711877222223</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="4">
         <f t="shared" si="1"/>
         <v>0.52149379187689426</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="4">
         <f t="shared" si="2"/>
         <v>0.52153613630345297</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="4">
         <f t="shared" si="3"/>
         <v>2.3199999999999998</v>
       </c>
@@ -16027,13 +16032,13 @@
       <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15">
         <v>86.37</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15">
         <v>0.02</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15">
         <v>24</v>
       </c>
       <c r="R15">
@@ -16042,19 +16047,19 @@
       <c r="S15">
         <v>2228321</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="4">
         <f t="shared" si="0"/>
         <v>9.9834970580555549</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="4">
         <f t="shared" si="1"/>
         <v>49.549124584531697</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="4">
         <f t="shared" si="2"/>
         <v>50.70325134077526</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="4">
         <f t="shared" si="3"/>
         <v>9.7000000000000003E-2</v>
       </c>
@@ -16084,13 +16089,13 @@
       <c r="H16" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16">
         <v>105.78</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16">
         <v>0.02</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16">
         <v>24</v>
       </c>
       <c r="R16">
@@ -16099,19 +16104,19 @@
       <c r="S16">
         <v>3496221</v>
       </c>
-      <c r="U16" s="16">
+      <c r="U16" s="4">
         <f t="shared" si="0"/>
         <v>15.664041252499999</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="4">
         <f t="shared" si="1"/>
         <v>1.933862132487465</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="4">
         <f t="shared" si="2"/>
         <v>1.9789067634210009</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="4">
         <f t="shared" si="3"/>
         <v>1.94</v>
       </c>
@@ -16141,13 +16146,13 @@
       <c r="H17" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17">
         <v>26.8</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17">
         <v>0.03</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17">
         <v>25</v>
       </c>
       <c r="R17">
@@ -16156,19 +16161,19 @@
       <c r="S17">
         <v>2294812</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="4">
         <f t="shared" si="0"/>
         <v>10.281395207777779</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="4">
         <f t="shared" si="1"/>
         <v>0.72406947636958763</v>
       </c>
-      <c r="W17" s="16">
+      <c r="W17" s="4">
         <f t="shared" si="2"/>
         <v>0.72412826960402898</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -16198,13 +16203,13 @@
       <c r="H18" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18">
         <v>124.17</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18">
         <v>0.05</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18">
         <v>24</v>
       </c>
       <c r="R18">
@@ -16213,19 +16218,19 @@
       <c r="S18">
         <v>4142713</v>
       </c>
-      <c r="U18" s="16">
+      <c r="U18" s="4">
         <f t="shared" si="0"/>
         <v>18.560504993611112</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="4">
         <f t="shared" si="1"/>
         <v>1.8771077269750995</v>
       </c>
-      <c r="W18" s="16">
+      <c r="W18" s="4">
         <f t="shared" si="2"/>
         <v>1.9208304015978883</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18" s="4">
         <f t="shared" si="3"/>
         <v>1.98</v>
       </c>
@@ -16255,13 +16260,13 @@
       <c r="H19" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19">
         <v>30.9</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19">
         <v>0.05</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19">
         <v>25</v>
       </c>
       <c r="R19">
@@ -16270,19 +16275,19 @@
       <c r="S19">
         <v>1448956</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="4">
         <f t="shared" si="0"/>
         <v>6.4917253677777786</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="4">
         <f t="shared" si="1"/>
         <v>1.2532663534791386</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="4">
         <f t="shared" si="2"/>
         <v>1.2533681166178183</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="4">
         <f t="shared" si="3"/>
         <v>2.11</v>
       </c>
@@ -16312,13 +16317,13 @@
       <c r="H20" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20">
         <v>64.900000000000006</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20">
         <v>0.05</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20">
         <v>26</v>
       </c>
       <c r="R20">
@@ -16327,19 +16332,19 @@
       <c r="S20">
         <v>2674281</v>
       </c>
-      <c r="U20" s="16">
+      <c r="U20" s="4">
         <f t="shared" si="0"/>
         <v>11.981521735833333</v>
       </c>
-      <c r="V20" s="16">
+      <c r="V20" s="4">
         <f t="shared" si="1"/>
         <v>1.4261912132984851</v>
       </c>
-      <c r="W20" s="16">
+      <c r="W20" s="4">
         <f t="shared" si="2"/>
         <v>1.3943908123683739</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20" s="4">
         <f t="shared" si="3"/>
         <v>2.11</v>
       </c>
@@ -16369,10 +16374,10 @@
       <c r="H21" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21">
         <v>102.18</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21">
         <v>0.02</v>
       </c>
       <c r="R21">
@@ -16382,19 +16387,19 @@
         <f>3440799</f>
         <v>3440799</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U21" s="4">
         <f t="shared" si="0"/>
         <v>15.415735297499999</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="4">
         <f t="shared" si="1"/>
         <v>3.4739477609077603</v>
       </c>
-      <c r="W21" s="16">
+      <c r="W21" s="4">
         <f t="shared" si="2"/>
         <v>6.932594070059837</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="4">
         <f t="shared" si="3"/>
         <v>1.06</v>
       </c>
@@ -16424,13 +16429,13 @@
       <c r="H22" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22">
         <v>119.5</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22">
         <v>0.02</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22">
         <v>25</v>
       </c>
       <c r="R22">
@@ -16439,19 +16444,19 @@
       <c r="S22">
         <v>2544666</v>
       </c>
-      <c r="U22" s="16">
+      <c r="U22" s="4">
         <f t="shared" si="0"/>
         <v>11.400810531666666</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22" s="4">
         <f t="shared" si="1"/>
         <v>21.09845188882462</v>
       </c>
-      <c r="W22" s="16">
+      <c r="W22" s="4">
         <f t="shared" si="2"/>
         <v>21.100165047946408</v>
       </c>
-      <c r="X22" s="16">
+      <c r="X22" s="4">
         <f t="shared" si="3"/>
         <v>0.27600000000000002</v>
       </c>
@@ -16481,13 +16486,13 @@
       <c r="H23" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23">
         <v>74.900000000000006</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23">
         <v>0.04</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23">
         <v>24</v>
       </c>
       <c r="R23">
@@ -16496,19 +16501,19 @@
       <c r="S23">
         <v>3639298</v>
       </c>
-      <c r="U23" s="16">
+      <c r="U23" s="4">
         <f t="shared" si="0"/>
         <v>16.305065956111111</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="4">
         <f t="shared" si="1"/>
         <v>1.4377666157450395</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W23" s="4">
         <f t="shared" si="2"/>
         <v>1.4712559040902695</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23" s="4">
         <f t="shared" si="3"/>
         <v>1.7749999999999999</v>
       </c>
@@ -16538,13 +16543,13 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24">
         <v>17.93</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24">
         <v>0.05</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24">
         <v>23</v>
       </c>
       <c r="R24">
@@ -16553,19 +16558,19 @@
       <c r="S24">
         <v>2354118</v>
       </c>
-      <c r="U24" s="16">
+      <c r="U24" s="4">
         <f t="shared" si="0"/>
         <v>10.547102561666666</v>
       </c>
-      <c r="V24" s="16">
+      <c r="V24" s="4">
         <f t="shared" si="1"/>
         <v>1.2345627815630753</v>
       </c>
-      <c r="W24" s="16">
+      <c r="W24" s="4">
         <f t="shared" si="2"/>
         <v>1.2930544328403317</v>
       </c>
-      <c r="X24" s="16">
+      <c r="X24" s="4">
         <f t="shared" si="3"/>
         <v>0.76500000000000001</v>
       </c>
@@ -16595,13 +16600,13 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25">
         <v>12.23</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25">
         <v>0.2</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25">
         <v>24</v>
       </c>
       <c r="R25">
@@ -16610,19 +16615,19 @@
       <c r="S25">
         <v>2170297</v>
       </c>
-      <c r="U25" s="16">
+      <c r="U25" s="4">
         <f t="shared" si="0"/>
         <v>9.7235334202777768</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="4">
         <f t="shared" si="1"/>
         <v>2.9483666811793827</v>
       </c>
-      <c r="W25" s="16">
+      <c r="W25" s="4">
         <f t="shared" si="2"/>
         <v>3.017041736541076</v>
       </c>
-      <c r="X25" s="16">
+      <c r="X25" s="4">
         <f t="shared" si="3"/>
         <v>0.23699999999999999</v>
       </c>
@@ -16655,13 +16660,13 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26">
         <v>58.03</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26">
         <v>0.04</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26">
         <v>23</v>
       </c>
       <c r="R26">
@@ -16670,19 +16675,19 @@
       <c r="S26">
         <v>2648266</v>
       </c>
-      <c r="U26" s="16">
+      <c r="U26" s="4">
         <f t="shared" si="0"/>
         <v>11.864967309444443</v>
       </c>
-      <c r="V26" s="16">
+      <c r="V26" s="4">
         <f t="shared" si="1"/>
         <v>37.22122475337563</v>
       </c>
-      <c r="W26" s="16">
+      <c r="W26" s="4">
         <f t="shared" si="2"/>
         <v>38.984708094117828</v>
       </c>
-      <c r="X26" s="16">
+      <c r="X26" s="4">
         <f t="shared" si="3"/>
         <v>7.2999999999999995E-2</v>
       </c>
@@ -16712,13 +16717,13 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27">
         <v>8.83</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27">
         <v>0.05</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27">
         <v>24</v>
       </c>
       <c r="R27">
@@ -16727,19 +16732,19 @@
       <c r="S27">
         <v>1084842</v>
       </c>
-      <c r="U27" s="16">
+      <c r="U27" s="4">
         <f t="shared" si="0"/>
         <v>4.8603935050000002</v>
       </c>
-      <c r="V27" s="16">
+      <c r="V27" s="4">
         <f t="shared" si="1"/>
         <v>1.8023068761632366</v>
       </c>
-      <c r="W27" s="16">
+      <c r="W27" s="4">
         <f t="shared" si="2"/>
         <v>1.8442872462743791</v>
       </c>
-      <c r="X27" s="16">
+      <c r="X27" s="4">
         <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
@@ -16772,13 +16777,13 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28">
         <v>36.4</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28">
         <v>0.05</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28">
         <v>23</v>
       </c>
       <c r="R28">
@@ -16787,19 +16792,19 @@
       <c r="S28">
         <v>1964981</v>
       </c>
-      <c r="U28" s="16">
+      <c r="U28" s="4">
         <f t="shared" si="0"/>
         <v>8.8036607080555562</v>
       </c>
-      <c r="V28" s="16">
+      <c r="V28" s="4">
         <f t="shared" si="1"/>
         <v>3.4131118274703223</v>
       </c>
-      <c r="W28" s="16">
+      <c r="W28" s="4">
         <f t="shared" si="2"/>
         <v>3.5748197209562349</v>
       </c>
-      <c r="X28" s="16">
+      <c r="X28" s="4">
         <f t="shared" si="3"/>
         <v>0.67300000000000004</v>
       </c>
@@ -16826,13 +16831,13 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29">
         <v>20.63</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29">
         <v>0.05</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29">
         <v>23</v>
       </c>
       <c r="R29">
@@ -16841,19 +16846,19 @@
       <c r="S29">
         <v>2853960</v>
       </c>
-      <c r="U29" s="16">
+      <c r="U29" s="4">
         <f t="shared" si="0"/>
         <v>12.786533566666668</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29" s="4">
         <f t="shared" si="1"/>
         <v>4.6203212166372989</v>
       </c>
-      <c r="W29" s="16">
+      <c r="W29" s="4">
         <f t="shared" si="2"/>
         <v>4.8392248005038851</v>
       </c>
-      <c r="X29" s="16">
+      <c r="X29" s="4">
         <f t="shared" si="3"/>
         <v>0.19400000000000001</v>
       </c>
@@ -16880,13 +16885,13 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30">
         <v>23.16</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30">
         <v>0.05</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30">
         <v>23</v>
       </c>
       <c r="R30">
@@ -16895,19 +16900,19 @@
       <c r="S30">
         <v>2559226</v>
       </c>
-      <c r="U30" s="16">
+      <c r="U30" s="4">
         <f t="shared" si="0"/>
         <v>11.466043376111111</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="4">
         <f t="shared" si="1"/>
         <v>8.4372482698040336</v>
       </c>
-      <c r="W30" s="16">
+      <c r="W30" s="4">
         <f t="shared" si="2"/>
         <v>8.8369918801793474</v>
       </c>
-      <c r="X30" s="16">
+      <c r="X30" s="4">
         <f t="shared" si="3"/>
         <v>0.13300000000000001</v>
       </c>
@@ -16934,13 +16939,13 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31">
         <v>7.67</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31">
         <v>0.17</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31">
         <v>22</v>
       </c>
       <c r="R31">
@@ -16949,19 +16954,19 @@
       <c r="S31">
         <v>1549126</v>
       </c>
-      <c r="U31" s="16">
+      <c r="U31" s="4">
         <f t="shared" si="0"/>
         <v>6.9405147927777779</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="4">
         <f t="shared" si="1"/>
         <v>0.28292507572585829</v>
       </c>
-      <c r="W31" s="16">
+      <c r="W31" s="4">
         <f t="shared" si="2"/>
         <v>0.3034040714904378</v>
       </c>
-      <c r="X31" s="16">
+      <c r="X31" s="4">
         <f t="shared" si="3"/>
         <v>2.17</v>
       </c>
@@ -16991,13 +16996,13 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32">
         <v>26.43</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32">
         <v>0.04</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32">
         <v>23</v>
       </c>
       <c r="R32">
@@ -17006,19 +17011,19 @@
       <c r="S32">
         <v>1676287</v>
       </c>
-      <c r="U32" s="16">
+      <c r="U32" s="4">
         <f t="shared" ref="U32:U34" si="4">S32/(1200^2)*2.54^2</f>
         <v>7.5102313952777768</v>
       </c>
-      <c r="V32" s="16">
+      <c r="V32" s="4">
         <f t="shared" ref="V32:V34" si="5">I32*0.000001/18*1000/R32/(U32/10000)</f>
         <v>12.532760532932997</v>
       </c>
-      <c r="W32" s="16">
+      <c r="W32" s="4">
         <f t="shared" ref="W32:W34" si="6">V32/(0.88862*(1/POWER(10,(1.3272*(20-K32)-0.001053*(K32-20)^2)/(K32+105))))</f>
         <v>13.126543100803344</v>
       </c>
-      <c r="X32" s="16">
+      <c r="X32" s="4">
         <f t="shared" si="3"/>
         <v>0.156</v>
       </c>
@@ -17045,13 +17050,13 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33">
         <v>18.3</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33">
         <v>23</v>
       </c>
       <c r="R33">
@@ -17060,19 +17065,19 @@
       <c r="S33">
         <v>1908448</v>
       </c>
-      <c r="U33" s="16">
+      <c r="U33" s="4">
         <f t="shared" si="4"/>
         <v>8.5503771644444448</v>
       </c>
-      <c r="V33" s="16">
+      <c r="V33" s="4">
         <f t="shared" si="5"/>
         <v>15.243991912297034</v>
       </c>
-      <c r="W33" s="16">
+      <c r="W33" s="4">
         <f t="shared" si="6"/>
         <v>15.966228377159911</v>
       </c>
-      <c r="X33" s="16">
+      <c r="X33" s="4">
         <f t="shared" si="3"/>
         <v>7.8E-2</v>
       </c>
@@ -17102,13 +17107,13 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34">
         <v>20.73</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34">
         <v>0.05</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34">
         <v>22</v>
       </c>
       <c r="R34">
@@ -17117,21 +17122,1341 @@
       <c r="S34">
         <v>2717664</v>
       </c>
-      <c r="U34" s="16">
+      <c r="U34" s="4">
         <f t="shared" si="4"/>
         <v>12.175889626666667</v>
       </c>
-      <c r="V34" s="16">
+      <c r="V34" s="4">
         <f t="shared" si="5"/>
         <v>1.0884445720725633</v>
       </c>
-      <c r="W34" s="16">
+      <c r="W34" s="4">
         <f t="shared" si="6"/>
         <v>1.1672295709782519</v>
       </c>
-      <c r="X34" s="16">
+      <c r="X34" s="4">
         <f t="shared" si="3"/>
         <v>0.86899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81762D54-5FE1-456F-A2B8-6457522F8A41}">
+  <dimension ref="A1:AE22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>10222024</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="12">
+        <f>AVERAGE(K6,K7)</f>
+        <v>24.5</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="S2" s="8">
+        <f>917270+813318+608426+406146</f>
+        <v>2745160</v>
+      </c>
+      <c r="U2" s="13">
+        <f>S2/(1200^2)*2.54^2</f>
+        <v>12.299079344444445</v>
+      </c>
+      <c r="V2" s="13">
+        <f>I2*0.000001/18*1000/R2/(U2/10000)</f>
+        <v>7.3613342814556653</v>
+      </c>
+      <c r="W2" s="13">
+        <f>V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <v>7.4465803308096055</v>
+      </c>
+      <c r="X2" s="13">
+        <f>MAX(Q2:R2)</f>
+        <v>0.155</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>22012024</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>54.7</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="R3">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S3">
+        <v>3675971</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U9" si="0">S3/(1200^2)*2.54^2</f>
+        <v>16.469371183055557</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V9" si="1">I3*0.000001/18*1000/R3/(U3/10000)</f>
+        <v>2.6098670822214345</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" ref="W3:W9" si="2">V3/(0.88862*(1/POWER(10,(1.3272*(20-K3)-0.001053*(K3-20)^2)/(K3+105))))</f>
+        <v>2.6100789990778046</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X22" si="3">MAX(Q3:R3)</f>
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>22012024</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>27.13</v>
+      </c>
+      <c r="J4">
+        <v>0.06</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="S4">
+        <v>7206357</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="0"/>
+        <v>32.286481125833333</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71380375145694364</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73043007967507467</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>22012024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>43.7</v>
+      </c>
+      <c r="J5">
+        <v>0.03</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S5">
+        <v>4874594</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>21.839535173888891</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8332535207011165</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="2"/>
+        <v>3.833564774496879</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>22012024</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="J6">
+        <v>0.03</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>1.99</v>
+      </c>
+      <c r="S6">
+        <v>6243628</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>27.973187781111108</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.69760507842883002</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.69766172279827532</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>22012024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>81.23</v>
+      </c>
+      <c r="J7">
+        <v>0.04</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>1.032</v>
+      </c>
+      <c r="S7">
+        <v>5813838</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="0"/>
+        <v>26.047609195000003</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6787900383320362</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7178933830954475</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="3"/>
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>22012024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>82.8</v>
+      </c>
+      <c r="J8">
+        <v>0.03</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="S8">
+        <v>5336817</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="0"/>
+        <v>23.910422609166666</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4789280601328758</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5599612568020924</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>22012024</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.05</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="S9">
+        <v>4592786</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="0"/>
+        <v>20.57695705388889</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.158587546406012</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1855740350265436</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>23012025</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.37569444444444444</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="J10">
+        <v>0.03</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="S10">
+        <v>3966989</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" ref="U10:U22" si="4">S10/(1200^2)*2.54^2</f>
+        <v>17.773212661388889</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" ref="V10:V22" si="5">I10*0.000001/18*1000/R10/(U10/10000)</f>
+        <v>5.5502479506247901</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" ref="W10:W22" si="6">V10/(0.88862*(1/POWER(10,(1.3272*(20-K10)-0.001053*(K10-20)^2)/(K10+105))))</f>
+        <v>5.6795275235196421</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>23012025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.40138888888888891</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>11.83</v>
+      </c>
+      <c r="J11">
+        <v>0.09</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <v>0.06</v>
+      </c>
+      <c r="S11">
+        <v>2535624</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="4"/>
+        <v>11.36029986</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="5"/>
+        <v>9.6420902957606494</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="6"/>
+        <v>9.642873217419087</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>23012025</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>57.66</v>
+      </c>
+      <c r="J12">
+        <v>0.05</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>0.7</v>
+      </c>
+      <c r="S12">
+        <v>4986209</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="4"/>
+        <v>22.339601378055555</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="5"/>
+        <v>2.048465591998307</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="6"/>
+        <v>2.0486319239895399</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>23012025</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>29.26</v>
+      </c>
+      <c r="J13">
+        <v>0.04</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
+      <c r="R13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S13">
+        <v>2080966</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="4"/>
+        <v>9.3233057261111121</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="5"/>
+        <v>26.823690805834428</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="6"/>
+        <v>27.448483665845572</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>23012025</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>30.01</v>
+      </c>
+      <c r="J14">
+        <v>0.05</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+      <c r="R14">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S14">
+        <v>5465902</v>
+      </c>
+      <c r="U14" s="4">
+        <f>S14/(1200^2)*2.54^2</f>
+        <v>24.488759266111114</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.98383125162461071</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0067472159458659</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>23012025</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>14.2</v>
+      </c>
+      <c r="J15">
+        <v>0.04</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
+      </c>
+      <c r="R15">
+        <v>0.126</v>
+      </c>
+      <c r="S15">
+        <v>2998333</v>
+      </c>
+      <c r="U15" s="4">
+        <f>S15/(1200^2)*2.54^2</f>
+        <v>13.433364710277779</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="5"/>
+        <v>4.6608002259473578</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="6"/>
+        <v>4.7693622700071865</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>23012025</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J16">
+        <v>0.04</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="R16">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="S16">
+        <v>2856270</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="4"/>
+        <v>12.796883008333333</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="5"/>
+        <v>2.9341436266827889</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="6"/>
+        <v>3.073158756874891</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>23012025</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>43.7</v>
+      </c>
+      <c r="J17">
+        <v>0.04</v>
+      </c>
+      <c r="K17">
+        <v>23</v>
+      </c>
+      <c r="R17">
+        <v>0.435</v>
+      </c>
+      <c r="S17">
+        <v>3751433</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="4"/>
+        <v>16.807461904722221</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3206074607558476</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="6"/>
+        <v>3.477932642207759</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>23012025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>56.8</v>
+      </c>
+      <c r="J18">
+        <v>0.04</v>
+      </c>
+      <c r="K18">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="S18">
+        <v>4098486</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="4"/>
+        <v>18.362355748333332</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7148367752590388</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="6"/>
+        <v>2.7780723175099427</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>23012025</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>12.9</v>
+      </c>
+      <c r="J19">
+        <v>0.04</v>
+      </c>
+      <c r="K19">
+        <v>23</v>
+      </c>
+      <c r="R19">
+        <v>0.378</v>
+      </c>
+      <c r="S19">
+        <v>3577479</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="4"/>
+        <v>16.028099664166668</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1828873056291935</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2389306537799909</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23012025</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>52.9</v>
+      </c>
+      <c r="J20">
+        <v>0.05</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="S20">
+        <v>3326746</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="4"/>
+        <v>14.904746176111113</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="5"/>
+        <v>8.499054174687048</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="6"/>
+        <v>8.6970190410296535</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>23012025</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>21.63</v>
+      </c>
+      <c r="J21">
+        <v>0.05</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="S21">
+        <v>3444110</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="4"/>
+        <v>15.430569497222223</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="5"/>
+        <v>9.2709187163382456</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="6"/>
+        <v>9.4868622962743778</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>23012025</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>46.66</v>
+      </c>
+      <c r="J22">
+        <v>0.05</v>
+      </c>
+      <c r="K22">
+        <v>23</v>
+      </c>
+      <c r="R22">
+        <v>0.2</v>
+      </c>
+      <c r="S22">
+        <v>4243758</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="4"/>
+        <v>19.013214661666666</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="5"/>
+        <v>6.8168962175778436</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1398700851740946</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Kleaf_Karli_Marion_CESE.xlsx
+++ b/data/Kleaf_Karli_Marion_CESE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marion.boisseaux\Dropbox\Mon PC (Jaboty20)\Post_doc_CalState_LA\ScoffoniLab_Kleaf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30CC8CE-314B-4463-93DF-CD4E02A77C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9AE63A-382A-4020-9D38-49062D466297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{63D1BA6E-C94C-4260-825C-85D06C6809A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CESE" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="82">
   <si>
     <t>Specie</t>
   </si>
@@ -691,6 +691,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.4782847510677168</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.139863517462565</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5.0367789985377067</c:v>
@@ -2895,9 +2898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF746F-B21E-4AE2-A531-A971B17E5B05}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3079,7 @@
         <v>3.2285263672899864</v>
       </c>
       <c r="W2" s="4">
-        <f t="shared" ref="W2:W22" si="1">V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
+        <f t="shared" ref="W2:W30" si="1">V2/(0.88862*(1/POWER(10,(1.3272*(20-K2)-0.001053*(K2-20)^2)/(K2+105))))</f>
         <v>3.589207007751122</v>
       </c>
       <c r="X2" s="4">
@@ -4380,7 +4383,10 @@
         <f t="shared" si="0"/>
         <v>60.134980657279534</v>
       </c>
-      <c r="W23" s="4"/>
+      <c r="W23" s="4">
+        <f t="shared" si="1"/>
+        <v>60.139863517462565</v>
+      </c>
       <c r="X23" s="4">
         <f t="shared" si="3"/>
         <v>0.05</v>
@@ -4439,7 +4445,7 @@
         <v>4.9221299128522844</v>
       </c>
       <c r="W24" s="4">
-        <f>V24/(0.88862*(1/POWER(10,(1.3272*(20-K24)-0.001053*(K24-20)^2)/(K24+105))))</f>
+        <f t="shared" si="1"/>
         <v>5.0367789985377067</v>
       </c>
       <c r="X24" s="4">
@@ -4500,7 +4506,7 @@
         <v>0.12828865087408184</v>
       </c>
       <c r="W25" s="4">
-        <f>V25/(0.88862*(1/POWER(10,(1.3272*(20-K25)-0.001053*(K25-20)^2)/(K25+105))))</f>
+        <f t="shared" si="1"/>
         <v>0.13757458189717575</v>
       </c>
       <c r="X25" s="4">
@@ -4561,7 +4567,7 @@
         <v>1.5797256490172571</v>
       </c>
       <c r="W26" s="4">
-        <f>V26/(0.88862*(1/POWER(10,(1.3272*(20-K26)-0.001053*(K26-20)^2)/(K26+105))))</f>
+        <f t="shared" si="1"/>
         <v>1.694071098222929</v>
       </c>
       <c r="X26" s="4">
@@ -4619,7 +4625,7 @@
         <v>2.3610272816336555</v>
       </c>
       <c r="W27" s="4">
-        <f>V27/(0.88862*(1/POWER(10,(1.3272*(20-K27)-0.001053*(K27-20)^2)/(K27+105))))</f>
+        <f t="shared" si="1"/>
         <v>2.3612189931130394</v>
       </c>
       <c r="X27" s="4">
@@ -4677,7 +4683,7 @@
         <v>3.8182153126663207</v>
       </c>
       <c r="W28" s="4">
-        <f>V28/(0.88862*(1/POWER(10,(1.3272*(20-K28)-0.001053*(K28-20)^2)/(K28+105))))</f>
+        <f t="shared" si="1"/>
         <v>3.9071513834929439</v>
       </c>
       <c r="X28" s="4">
@@ -4707,6 +4713,9 @@
       <c r="G29" s="5">
         <v>0.42569444444444443</v>
       </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
       <c r="I29">
         <v>41.2</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>2.2720015181271536</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" ref="W29:W30" si="6">V29/(0.88862*(1/POWER(10,(1.3272*(20-K29)-0.001053*(K29-20)^2)/(K29+105))))</f>
+        <f t="shared" si="1"/>
         <v>2.2213417198360363</v>
       </c>
       <c r="X29" s="4">
@@ -4762,6 +4771,9 @@
       <c r="G30" s="5">
         <v>0.42569444444444443</v>
       </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
       <c r="I30">
         <v>11.76</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>1.7787854864376267</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.7391231388436081</v>
       </c>
       <c r="X30" s="4">
@@ -4811,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33064BB3-47FF-4DAF-9632-D6C75923AEEE}">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5054,6 +5066,9 @@
       <c r="G4" s="5">
         <v>0.4597222222222222</v>
       </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
       <c r="I4">
         <v>151.93</v>
       </c>
@@ -5109,6 +5124,9 @@
       <c r="G5" s="5">
         <v>0.47083333333333333</v>
       </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
       <c r="I5">
         <v>57.03</v>
       </c>
@@ -5164,6 +5182,9 @@
       <c r="G6" s="5">
         <v>0.4826388888888889</v>
       </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
       <c r="I6">
         <v>123.23</v>
       </c>
@@ -5219,6 +5240,9 @@
       <c r="G7" s="5">
         <v>0.5180555555555556</v>
       </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
       <c r="I7">
         <v>164.5667</v>
       </c>
@@ -5274,6 +5298,9 @@
       <c r="G8" s="5">
         <v>0.5131944444444444</v>
       </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
       <c r="I8">
         <v>53.63</v>
       </c>
@@ -5329,6 +5356,9 @@
       <c r="G9" s="5">
         <v>0.53680555555555554</v>
       </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
       <c r="I9">
         <v>224.1</v>
       </c>
@@ -5384,6 +5414,9 @@
       <c r="G10" s="5">
         <v>0.57222222222222219</v>
       </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
       <c r="I10">
         <v>164.23</v>
       </c>
@@ -5439,6 +5472,9 @@
       <c r="G11" s="5">
         <v>0.57986111111111116</v>
       </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
       <c r="I11">
         <v>50.36</v>
       </c>
@@ -5494,6 +5530,9 @@
       <c r="G12" s="5">
         <v>0.59027777777777779</v>
       </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
       <c r="I12">
         <v>173.56</v>
       </c>
@@ -5549,6 +5588,9 @@
       <c r="G13" s="5">
         <v>0.60416666666666663</v>
       </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
       <c r="I13">
         <v>156.56</v>
       </c>
@@ -5604,6 +5646,9 @@
       <c r="G14" s="5">
         <v>0.60902777777777772</v>
       </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
       <c r="I14">
         <v>132</v>
       </c>
@@ -5659,6 +5704,9 @@
       <c r="G15" s="5">
         <v>0.63055555555555554</v>
       </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
       <c r="I15">
         <v>96.5</v>
       </c>
@@ -5714,6 +5762,9 @@
       <c r="G16" s="5">
         <v>0.63263888888888886</v>
       </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
       <c r="I16">
         <v>58.93</v>
       </c>
@@ -5769,6 +5820,9 @@
       <c r="G17" s="5">
         <v>0.65</v>
       </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
       <c r="I17">
         <v>79.3</v>
       </c>
@@ -5824,6 +5878,9 @@
       <c r="G18" s="5">
         <v>0.46944444444444444</v>
       </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
       <c r="I18">
         <v>81.93</v>
       </c>
@@ -5875,6 +5932,9 @@
       <c r="G19" s="5">
         <v>0.46041666666666664</v>
       </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
       <c r="I19">
         <v>93.93</v>
       </c>
@@ -5930,6 +5990,9 @@
       <c r="G20" s="5">
         <v>0.4861111111111111</v>
       </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
       <c r="I20">
         <v>56</v>
       </c>
@@ -5985,6 +6048,9 @@
       <c r="G21" s="5">
         <v>0.49652777777777779</v>
       </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
       <c r="I21">
         <v>50.66</v>
       </c>
@@ -6040,6 +6106,9 @@
       <c r="G22" s="5">
         <v>0.51111111111111107</v>
       </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
       <c r="I22">
         <v>44.1</v>
       </c>
@@ -6095,6 +6164,9 @@
       <c r="G23" s="5">
         <v>0.51597222222222228</v>
       </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
       <c r="I23">
         <v>180.83</v>
       </c>
@@ -6150,6 +6222,9 @@
       <c r="G24" s="5">
         <v>0.53125</v>
       </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
       <c r="I24">
         <v>96.1</v>
       </c>
@@ -6205,6 +6280,9 @@
       <c r="G25" s="5">
         <v>0.57152777777777775</v>
       </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
       <c r="I25">
         <v>79.260000000000005</v>
       </c>
@@ -6259,6 +6337,9 @@
       </c>
       <c r="G26" s="5">
         <v>0.56527777777777777</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
       </c>
       <c r="I26">
         <v>185.96</v>
@@ -10833,9 +10914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E21FF7F-5593-4259-A4BA-F4FE44134BEE}">
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11066,11 +11147,11 @@
         <v>7.5486551245827531</v>
       </c>
       <c r="Y3" s="4">
-        <f t="shared" ref="Y3:Y10" si="2">X3/(0.88862*(1/POWER(10,(1.3272*(20-M3)-0.001053*(M3-20)^2)/(M3+105))))</f>
+        <f t="shared" ref="Y3" si="2">X3/(0.88862*(1/POWER(10,(1.3272*(20-M3)-0.001053*(M3-20)^2)/(M3+105))))</f>
         <v>7.5492680627950941</v>
       </c>
       <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z10" si="3">MAX(S3:T3)</f>
+        <f t="shared" ref="Z3" si="3">MAX(S3:T3)</f>
         <v>0.19500000000000001</v>
       </c>
       <c r="AB3" t="s">
@@ -11127,11 +11208,11 @@
         <v>6.1310779561724988</v>
       </c>
       <c r="Y4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Y4:Y18" si="4">X4/(0.88862*(1/POWER(10,(1.3272*(20-M4)-0.001053*(M4-20)^2)/(M4+105))))</f>
         <v>6.1315757894818974</v>
       </c>
       <c r="Z4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Z4:Z18" si="5">MAX(S4:T4)</f>
         <v>0.11</v>
       </c>
       <c r="AB4" t="s">
@@ -11188,11 +11269,11 @@
         <v>8.8844206917810471</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.8851420919306943</v>
       </c>
       <c r="Z5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11899999999999999</v>
       </c>
       <c r="AB5" t="s">
@@ -11249,11 +11330,11 @@
         <v>4.2583614037687205</v>
       </c>
       <c r="Y6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2587071756159238</v>
       </c>
       <c r="Z6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11600000000000001</v>
       </c>
       <c r="AB6" t="s">
@@ -11310,11 +11391,11 @@
         <v>9.3499451069210746</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.3507043068771907</v>
       </c>
       <c r="Z7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="AB7" t="s">
@@ -11371,11 +11452,11 @@
         <v>13.25912654244229</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.96348207618761</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11</v>
       </c>
     </row>
@@ -11429,11 +11510,11 @@
         <v>14.101253768922332</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.786832028493953</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.153</v>
       </c>
     </row>
@@ -11487,11 +11568,11 @@
         <v>18.924002534419284</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.502045883596036</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
@@ -11537,19 +11618,19 @@
         <v>7638090</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" ref="W11:W17" si="4">U11/(1200^2)*2.54^2</f>
+        <f t="shared" ref="W11:W17" si="6">U11/(1200^2)*2.54^2</f>
         <v>34.220764891666668</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" ref="X11:X17" si="5">K11*0.000001/18*1000/T11/(W11/10000)</f>
+        <f t="shared" ref="X11:X17" si="7">K11*0.000001/18*1000/T11/(W11/10000)</f>
         <v>28.342912428408138</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" ref="Y11:Y17" si="6">X11/(0.88862*(1/POWER(10,(1.3272*(20-M11)-0.001053*(M11-20)^2)/(M11+105))))</f>
+        <f t="shared" si="4"/>
         <v>27.710938279117276</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" ref="Z11:Z37" si="7">MAX(S11:T11)</f>
+        <f t="shared" si="5"/>
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
@@ -11595,19 +11676,19 @@
         <v>5738441</v>
       </c>
       <c r="W12" s="4">
+        <f t="shared" si="6"/>
+        <v>25.709809691388887</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="7"/>
+        <v>22.979007427540527</v>
+      </c>
+      <c r="Y12" s="4">
         <f t="shared" si="4"/>
-        <v>25.709809691388887</v>
-      </c>
-      <c r="X12" s="4">
+        <v>23.51424770729157</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="5"/>
-        <v>22.979007427540527</v>
-      </c>
-      <c r="Y12" s="4">
-        <f t="shared" si="6"/>
-        <v>23.51424770729157</v>
-      </c>
-      <c r="Z12" s="4">
-        <f t="shared" si="7"/>
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
@@ -11653,19 +11734,19 @@
         <v>5391178</v>
       </c>
       <c r="W13" s="4">
+        <f t="shared" si="6"/>
+        <v>24.153974989444446</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="7"/>
+        <v>16.585977427139486</v>
+      </c>
+      <c r="Y13" s="4">
         <f t="shared" si="4"/>
-        <v>24.153974989444446</v>
-      </c>
-      <c r="X13" s="4">
+        <v>16.587324180857379</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="5"/>
-        <v>16.585977427139486</v>
-      </c>
-      <c r="Y13" s="4">
-        <f t="shared" si="6"/>
-        <v>16.587324180857379</v>
-      </c>
-      <c r="Z13" s="4">
-        <f t="shared" si="7"/>
         <v>0.11700000000000001</v>
       </c>
     </row>
@@ -11711,19 +11792,19 @@
         <v>7041730</v>
       </c>
       <c r="W14" s="4">
+        <f t="shared" si="6"/>
+        <v>31.54890643611111</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="7"/>
+        <v>31.907722342407489</v>
+      </c>
+      <c r="Y14" s="4">
         <f t="shared" si="4"/>
-        <v>31.54890643611111</v>
-      </c>
-      <c r="X14" s="4">
+        <v>32.650935393999106</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="5"/>
-        <v>31.907722342407489</v>
-      </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="6"/>
-        <v>32.650935393999106</v>
-      </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="7"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="AB14" t="s">
@@ -11772,19 +11853,19 @@
         <v>4354585</v>
       </c>
       <c r="W15" s="4">
+        <f t="shared" si="6"/>
+        <v>19.509750406944445</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="7"/>
+        <v>59.296086711600026</v>
+      </c>
+      <c r="Y15" s="4">
         <f t="shared" si="4"/>
-        <v>19.509750406944445</v>
-      </c>
-      <c r="X15" s="4">
+        <v>60.677245325162296</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="5"/>
-        <v>59.296086711600026</v>
-      </c>
-      <c r="Y15" s="4">
-        <f t="shared" si="6"/>
-        <v>60.677245325162296</v>
-      </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
       <c r="AB15" t="s">
@@ -11833,19 +11914,19 @@
         <v>4628353</v>
       </c>
       <c r="W16" s="4">
+        <f t="shared" si="6"/>
+        <v>20.736307093611114</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="7"/>
+        <v>12.229684085196583</v>
+      </c>
+      <c r="Y16" s="4">
         <f t="shared" si="4"/>
-        <v>20.736307093611114</v>
-      </c>
-      <c r="X16" s="4">
+        <v>11.956993541648508</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="5"/>
-        <v>12.229684085196583</v>
-      </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="6"/>
-        <v>11.956993541648508</v>
-      </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="7"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -11891,19 +11972,19 @@
         <v>6155969</v>
       </c>
       <c r="W17" s="4">
+        <f t="shared" si="6"/>
+        <v>27.580451111388889</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="7"/>
+        <v>20.790166227135966</v>
+      </c>
+      <c r="Y17" s="4">
         <f t="shared" si="4"/>
-        <v>27.580451111388889</v>
-      </c>
-      <c r="X17" s="4">
+        <v>20.791854353975943</v>
+      </c>
+      <c r="Z17" s="4">
         <f t="shared" si="5"/>
-        <v>20.790166227135966</v>
-      </c>
-      <c r="Y17" s="4">
-        <f t="shared" si="6"/>
-        <v>20.791854353975943</v>
-      </c>
-      <c r="Z17" s="4">
-        <f t="shared" si="7"/>
         <v>0.113</v>
       </c>
       <c r="AB17" t="s">
@@ -11966,15 +12047,15 @@
         <v>35.185171564999997</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" ref="X18" si="9">K18*0.000001/18*1000/T18/(W18/10000)</f>
-        <v>20.936850209917878</v>
+        <f>K18*0.000001/18*1000/S18/(W18/10000)</f>
+        <v>13.160305846234094</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" ref="Y18" si="10">X18/(0.88862*(1/POWER(10,(1.3272*(20-M18)-0.001053*(M18-20)^2)/(M18+105))))</f>
-        <v>20.018086327774739</v>
+        <f t="shared" si="4"/>
+        <v>12.582797120315549</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.7500000000000008E-2</v>
       </c>
     </row>
@@ -12030,19 +12111,19 @@
         <v>8300574</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" ref="W19:W21" si="11">U19/(1200^2)*2.54^2</f>
+        <f>U19/(1200^2)*2.54^2</f>
         <v>37.188877235</v>
       </c>
       <c r="X19" s="4">
-        <f>K19*0.000001/18*1000/T19/(W19/10000)</f>
-        <v>47.56997805809327</v>
-      </c>
-      <c r="Y19" s="4">
+        <f>K19*0.000001/18*1000/S19/(W19/10000)</f>
+        <v>4.8376248872637211</v>
+      </c>
+      <c r="Y19" s="13">
         <f>X19/(0.88862*(1/POWER(10,(1.3272*(20-M19)-0.001053*(M19-20)^2)/(M19+105))))</f>
-        <v>47.573840661011381</v>
-      </c>
-      <c r="Z19" s="4">
-        <f t="shared" si="7"/>
+        <v>4.838017694340139</v>
+      </c>
+      <c r="Z19" s="13">
+        <f t="shared" ref="Z19:Z37" si="9">MAX(S19:T19)</f>
         <v>0.29500000000000004</v>
       </c>
     </row>
@@ -12087,7 +12168,7 @@
         <v>0.05</v>
       </c>
       <c r="S20">
-        <f t="shared" ref="S20:S28" si="12">AVERAGE(Q20,R20)</f>
+        <f>AVERAGE(Q20,R20)</f>
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="T20">
@@ -12098,19 +12179,19 @@
         <v>6401315</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="W20:W21" si="10">U20/(1200^2)*2.54^2</f>
         <v>28.679669343055554</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" ref="X20:X21" si="13">K20*0.000001/18*1000/T20/(W20/10000)</f>
-        <v>10.843339700692706</v>
+        <f>K20*0.000001/18*1000/S20/(W20/10000)</f>
+        <v>9.9827571847647132</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" ref="Y20:Y21" si="14">X20/(0.88862*(1/POWER(10,(1.3272*(20-M20)-0.001053*(M20-20)^2)/(M20+105))))</f>
-        <v>10.844220161800315</v>
+        <f t="shared" ref="Y20:Y21" si="11">X20/(0.88862*(1/POWER(10,(1.3272*(20-M20)-0.001053*(M20-20)^2)/(M20+105))))</f>
+        <v>9.9835677680066386</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
@@ -12155,7 +12236,7 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="S21">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="S21:S28" si="12">AVERAGE(Q21,R21)</f>
         <v>0.68049999999999999</v>
       </c>
       <c r="T21">
@@ -12166,19 +12247,19 @@
         <v>5753984</v>
       </c>
       <c r="W21" s="4">
+        <f t="shared" si="10"/>
+        <v>25.779446648888889</v>
+      </c>
+      <c r="X21" s="4">
+        <f>K21*0.000001/18*1000/S21/(W21/10000)</f>
+        <v>2.1787841764707236</v>
+      </c>
+      <c r="Y21" s="4">
         <f t="shared" si="11"/>
-        <v>25.779446648888889</v>
-      </c>
-      <c r="X21" s="4">
-        <f t="shared" si="13"/>
-        <v>10.296268278391164</v>
-      </c>
-      <c r="Y21" s="4">
-        <f t="shared" si="14"/>
-        <v>10.536094891054727</v>
+        <v>2.2295336727580901</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.68049999999999999</v>
       </c>
     </row>
@@ -12233,19 +12314,19 @@
         <v>6318620</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" ref="W22:W37" si="15">U22/(1200^2)*2.54^2</f>
+        <f t="shared" ref="W22:W37" si="13">U22/(1200^2)*2.54^2</f>
         <v>28.309172772222219</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" ref="X22:X37" si="16">K22*0.000001/18*1000/T22/(W22/10000)</f>
-        <v>72.109883775745203</v>
-      </c>
-      <c r="Y22" s="4">
-        <f t="shared" ref="Y22:Y37" si="17">X22/(0.88862*(1/POWER(10,(1.3272*(20-M22)-0.001053*(M22-20)^2)/(M22+105))))</f>
-        <v>72.115738978099017</v>
-      </c>
-      <c r="Z22" s="4">
-        <f t="shared" si="7"/>
+        <f>K22*0.000001/18*1000/R22/(W22/10000)</f>
+        <v>5.9985213052389827</v>
+      </c>
+      <c r="Y22" s="13">
+        <f t="shared" ref="Y22:Y37" si="14">X22/(0.88862*(1/POWER(10,(1.3272*(20-M22)-0.001053*(M22-20)^2)/(M22+105))))</f>
+        <v>5.9990083751693009</v>
+      </c>
+      <c r="Z22" s="13">
+        <f t="shared" si="9"/>
         <v>0.52499999999999991</v>
       </c>
     </row>
@@ -12306,19 +12387,19 @@
         <v>5809213</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>26.026887910277779</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="16"/>
-        <v>6.077226629689978</v>
+        <f>K23*0.000001/18*1000/S23/(W23/10000)</f>
+        <v>1.3877586975505185</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" si="17"/>
-        <v>5.9417200850098126</v>
+        <f t="shared" si="14"/>
+        <v>1.3568152430089013</v>
       </c>
       <c r="Z23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0509999999999999</v>
       </c>
       <c r="AB23" t="s">
@@ -12376,19 +12457,19 @@
         <v>5728018</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>25.66311175611111</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="16"/>
-        <v>11.794234875070899</v>
+        <f>K24*0.000001/18*1000/S24/(W24/10000)</f>
+        <v>2.8544902887960375</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" si="17"/>
-        <v>11.795192547281504</v>
+        <f t="shared" si="14"/>
+        <v>2.8547220686489894</v>
       </c>
       <c r="Z24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.45450000000000002</v>
       </c>
       <c r="AB24" t="s">
@@ -12452,19 +12533,19 @@
         <v>7240569</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>32.439760389166665</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="X25:X37" si="15">K25*0.000001/18*1000/T25/(W25/10000)</f>
         <v>3.2943563881507814</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>3.2209007021438709</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36399999999999999</v>
       </c>
       <c r="AB25" t="s">
@@ -12522,19 +12603,19 @@
         <v>5110662</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>22.897185388333334</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" si="16"/>
-        <v>6.9513079396142716</v>
+        <f>K26*0.000001/18*1000/S26/(W26/10000)</f>
+        <v>5.5559256828592902</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" si="17"/>
-        <v>6.9518723742309847</v>
+        <f t="shared" si="14"/>
+        <v>5.5563768147628876</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27149999999999996</v>
       </c>
       <c r="AB26" t="s">
@@ -12598,19 +12679,19 @@
         <v>6960039</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>31.182908064166664</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="16"/>
-        <v>15.879502999100309</v>
-      </c>
-      <c r="Y27" s="4">
-        <f t="shared" si="17"/>
-        <v>16.249377531511985</v>
-      </c>
-      <c r="Z27" s="4">
-        <f t="shared" si="7"/>
+        <f>K27*0.000001/18*1000/S27/(W27/10000)</f>
+        <v>1.8887062390655827</v>
+      </c>
+      <c r="Y27" s="13">
+        <f t="shared" si="14"/>
+        <v>1.9326990729141595</v>
+      </c>
+      <c r="Z27" s="13">
+        <f t="shared" si="9"/>
         <v>0.77350000000000008</v>
       </c>
       <c r="AB27" t="s">
@@ -12668,19 +12749,19 @@
         <v>6799317</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>30.462828859166667</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="16"/>
-        <v>41.642902303174623</v>
-      </c>
-      <c r="Y28" s="4">
-        <f t="shared" si="17"/>
-        <v>41.646283637422002</v>
-      </c>
-      <c r="Z28" s="4">
-        <f t="shared" si="7"/>
+        <f>K28*0.000001/18*1000/S28/(W28/10000)</f>
+        <v>4.5019353841269858</v>
+      </c>
+      <c r="Y28" s="13">
+        <f t="shared" si="14"/>
+        <v>4.5023009337753512</v>
+      </c>
+      <c r="Z28" s="13">
+        <f t="shared" si="9"/>
         <v>0.40700000000000003</v>
       </c>
       <c r="AB28" t="s">
@@ -12728,19 +12809,19 @@
         <v>7262301</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>32.537125785833332</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" si="16"/>
+        <f>K29*0.000001/18*1000/T29/(W29/10000)</f>
         <v>9.5879953877684496</v>
       </c>
       <c r="Y29" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>10.042259594534222</v>
       </c>
       <c r="Z29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8E-2</v>
       </c>
     </row>
@@ -12785,19 +12866,19 @@
         <v>8231234</v>
       </c>
       <c r="W30" s="4">
+        <f t="shared" si="13"/>
+        <v>36.878214773888885</v>
+      </c>
+      <c r="X30" s="4">
         <f t="shared" si="15"/>
-        <v>36.878214773888885</v>
-      </c>
-      <c r="X30" s="4">
-        <f t="shared" si="16"/>
         <v>10.973527280043323</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>11.49343581813573</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="AB30" t="s">
@@ -12851,19 +12932,19 @@
         <v>7932213</v>
       </c>
       <c r="W31" s="4">
+        <f t="shared" si="13"/>
+        <v>35.538517632500003</v>
+      </c>
+      <c r="X31" s="4">
         <f t="shared" si="15"/>
-        <v>35.538517632500003</v>
-      </c>
-      <c r="X31" s="4">
-        <f t="shared" si="16"/>
         <v>8.7932761639505888</v>
       </c>
       <c r="Y31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>9.2098878184143782</v>
       </c>
       <c r="Z31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4E-2</v>
       </c>
     </row>
@@ -12909,19 +12990,19 @@
         <v>5614144</v>
       </c>
       <c r="W32" s="4">
+        <f t="shared" si="13"/>
+        <v>25.152924604444443</v>
+      </c>
+      <c r="X32" s="4">
         <f t="shared" si="15"/>
-        <v>25.152924604444443</v>
-      </c>
-      <c r="X32" s="4">
-        <f t="shared" si="16"/>
         <v>31.398949670132311</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>32.886582735056095</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.4E-2</v>
       </c>
     </row>
@@ -12966,19 +13047,19 @@
         <v>5852419</v>
       </c>
       <c r="W33" s="4">
+        <f t="shared" si="13"/>
+        <v>26.220462791944446</v>
+      </c>
+      <c r="X33" s="4">
         <f t="shared" si="15"/>
-        <v>26.220462791944446</v>
-      </c>
-      <c r="X33" s="4">
-        <f t="shared" si="16"/>
         <v>108.15021896340215</v>
       </c>
       <c r="Y33" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>110.66931617139255</v>
       </c>
       <c r="Z33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3E-2</v>
       </c>
     </row>
@@ -13023,19 +13104,19 @@
         <v>4718232</v>
       </c>
       <c r="W34" s="4">
+        <f t="shared" si="13"/>
+        <v>21.138989979999998</v>
+      </c>
+      <c r="X34" s="4">
         <f t="shared" si="15"/>
-        <v>21.138989979999998</v>
-      </c>
-      <c r="X34" s="4">
-        <f t="shared" si="16"/>
         <v>50.926899104218386</v>
       </c>
       <c r="Y34" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>53.33973583275197</v>
       </c>
       <c r="Z34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
@@ -13080,19 +13161,19 @@
         <v>6122877</v>
       </c>
       <c r="W35" s="4">
+        <f t="shared" si="13"/>
+        <v>27.432189759166665</v>
+      </c>
+      <c r="X35" s="4">
         <f t="shared" si="15"/>
-        <v>27.432189759166665</v>
-      </c>
-      <c r="X35" s="4">
-        <f t="shared" si="16"/>
         <v>3.0334384440638438</v>
       </c>
       <c r="Y35" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>3.1040950399384934</v>
       </c>
       <c r="Z35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="AB35" t="s">
@@ -13141,19 +13222,19 @@
         <v>7446786</v>
       </c>
       <c r="W36" s="4">
+        <f t="shared" si="13"/>
+        <v>33.36366983166667</v>
+      </c>
+      <c r="X36" s="4">
         <f t="shared" si="15"/>
-        <v>33.36366983166667</v>
-      </c>
-      <c r="X36" s="4">
-        <f t="shared" si="16"/>
         <v>1.4783842596808345</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.512819637589401</v>
       </c>
       <c r="Z36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="AB36" t="s">
@@ -13202,19 +13283,19 @@
         <v>6545171</v>
       </c>
       <c r="W37" s="4">
+        <f t="shared" si="13"/>
+        <v>29.324184183055554</v>
+      </c>
+      <c r="X37" s="4">
         <f t="shared" si="15"/>
-        <v>29.324184183055554</v>
-      </c>
-      <c r="X37" s="4">
-        <f t="shared" si="16"/>
         <v>2.151289015504473</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>2.2532137201615861</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AB37" t="s">
@@ -15135,8 +15216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84331826-8D16-4BA7-9683-E7E875A388D4}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17148,7 +17229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81762D54-5FE1-456F-A2B8-6457522F8A41}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
